--- a/QuantLibXL/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="15240" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$16</definedName>
+    <definedName name="AdditionalCheck">Contribution!$A$20:$A$31</definedName>
+    <definedName name="AdditionalTau">Contribution!$D$20:$D$31</definedName>
     <definedName name="Calendar">'General Settings'!$D$14</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$15</definedName>
@@ -204,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -487,6 +489,63 @@
   <si>
     <t>Jump 21/11</t>
   </si>
+  <si>
+    <t>tau jump</t>
+  </si>
+  <si>
+    <t>Jump Size</t>
+  </si>
+  <si>
+    <t>Jump2/Jump1</t>
+  </si>
+  <si>
+    <t>Additionial Jump ID</t>
+  </si>
+  <si>
+    <t>Jump original</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +567,7 @@
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="177" formatCode="General_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -613,6 +672,12 @@
       <b/>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -1286,7 +1351,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1664,6 +1729,51 @@
     <xf numFmtId="170" fontId="9" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="14" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1717,6 +1827,7 @@
       <sheetName val="EuriborSwapIsdaFixA"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapEON3M"/>
       <sheetName val="BasisSwapxM12M"/>
       <sheetName val="Deposits"/>
       <sheetName val="FRA"/>
@@ -1734,6 +1845,7 @@
       <sheetName val="ForwardSwap6M"/>
       <sheetName val="1M (3)"/>
       <sheetName val="3M (4)"/>
+      <sheetName val="ON BASIS"/>
       <sheetName val="6M (3)"/>
       <sheetName val="1Y (3)"/>
       <sheetName val="Euribor 3M Time Series"/>
@@ -1748,7 +1860,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>228</v>
+            <v>67</v>
           </cell>
         </row>
       </sheetData>
@@ -1777,152 +1889,166 @@
       <sheetData sheetId="5">
         <row r="6">
           <cell r="D6" t="str">
-            <v>12E</v>
+            <v>3E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0000</v>
+            <v>12E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTOM3F1_Quote</v>
+            <v>EURTND_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="6">
           <cell r="D6" t="str">
-            <v>Z4</v>
+            <v>EURTOM3F1_Quote</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="6">
           <cell r="D6" t="str">
-            <v>Future Code</v>
+            <v>G5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="6">
           <cell r="D6" t="str">
-            <v>Z4</v>
+            <v>Future Code</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="6">
           <cell r="D6" t="str">
-            <v/>
+            <v>G5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="6">
           <cell r="D6" t="str">
-            <v>2W</v>
+            <v/>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="6">
           <cell r="D6" t="str">
-            <v>APR15</v>
+            <v>2W</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="6">
           <cell r="D6" t="str">
+            <v>JUN15</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>X1S</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15">
+      <sheetData sheetId="16">
         <row r="6">
           <cell r="D6">
             <v>12</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16">
+      <sheetData sheetId="17">
         <row r="6">
           <cell r="D6" t="str">
             <v>3E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18">
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19">
         <row r="6">
           <cell r="D6" t="str">
             <v>6E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19">
+      <sheetData sheetId="20">
         <row r="6">
           <cell r="D6" t="str">
             <v>EUR1F2Y_Quote</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="20">
+      <sheetData sheetId="21">
         <row r="6">
           <cell r="D6" t="str">
             <v>1E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
+      <sheetData sheetId="22">
         <row r="6">
           <cell r="D6" t="str">
             <v>3E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22">
+      <sheetData sheetId="23">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
         <row r="6">
           <cell r="D6" t="str">
             <v>6E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23">
+      <sheetData sheetId="25">
         <row r="6">
           <cell r="D6" t="str">
             <v>12E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="24">
-        <row r="6">
-          <cell r="D6">
-            <v>41981</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="6">
-          <cell r="D6">
-            <v>41981</v>
-          </cell>
-        </row>
-      </sheetData>
       <sheetData sheetId="26">
         <row r="6">
           <cell r="D6">
-            <v>41982</v>
+            <v>42027</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="27">
+        <row r="6">
+          <cell r="D6">
+            <v>42027</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="6">
+          <cell r="D6">
+            <v>42030</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="29">
         <row r="6">
           <cell r="D6" t="str">
             <v>EURSWD_Mx_Quote#0000</v>
@@ -2247,7 +2373,7 @@
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Dec  9 2014 11:48:31</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Dec 24 2014 09:17:06</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
@@ -2308,7 +2434,7 @@
       </c>
       <c r="I4" s="95">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41982</v>
+        <v>42030</v>
       </c>
       <c r="J4" s="54"/>
       <c r="K4" s="1"/>
@@ -2374,7 +2500,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="99">
-        <v>41982.514965277776</v>
+        <v>42030.723611111112</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="1"/>
@@ -2401,7 +2527,7 @@
       </c>
       <c r="D7" s="59">
         <f>_xll.ohTrigger(Contribution!N3)</f>
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
@@ -2411,7 +2537,7 @@
       </c>
       <c r="I7" s="98">
         <f>[1]!TriggerCounter</f>
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="1"/>
@@ -2465,7 +2591,7 @@
       </c>
       <c r="D9" s="66">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2d","f",,Trigger)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1"/>
@@ -2524,7 +2650,7 @@
       </c>
       <c r="D11" s="15" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00bee#0001</v>
+        <v>obj_004db#0000</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
@@ -2857,7 +2983,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="24">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D22" s="25">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C22,,Trigger)</f>
@@ -2890,11 +3016,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="32">
         <f>MAX(_xll.ohPack(Calculation!D5:D129))</f>
-        <v>42716</v>
+        <v>42765</v>
       </c>
       <c r="D23" s="119">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C23,,Trigger)</f>
-        <v>1.0006510123141807</v>
+        <v>1.0020596028773607</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="1"/>
@@ -3902,7 +4028,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3920,11 +4046,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="73" t="s">
         <v>56</v>
       </c>
@@ -3972,17 +4098,17 @@
       </c>
       <c r="J2" s="146">
         <f>_xll.qlRateHelperEarliestDate($F2)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K2" s="147">
         <f>_xll.qlRateHelperLatestDate($F2)</f>
-        <v>41985</v>
+        <v>42033</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="100">
         <f>_xll.qlECBNextDate(SettlementDate)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>40</v>
@@ -3992,15 +4118,15 @@
       </c>
       <c r="D3" s="81" t="str">
         <f>_xll.qlECBcode(A3)</f>
-        <v>JAN15</v>
+        <v>MAR15</v>
       </c>
       <c r="E3" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJAN15_Quote</v>
+        <v>EURECBOISMAR15_Quote</v>
       </c>
       <c r="F3" s="33" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B3&amp;C3&amp;D3,A3,A4,E3,OvernightIndex)</f>
-        <v>WEURECBOISJAN15#0000</v>
+        <v>WEURECBOISMAR15#0000</v>
       </c>
       <c r="G3" s="86" t="b">
         <v>1</v>
@@ -4013,18 +4139,18 @@
       </c>
       <c r="J3" s="148">
         <f>_xll.qlRateHelperEarliestDate($F3)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="K3" s="149">
         <f>_xll.qlRateHelperLatestDate($F3)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="100">
         <f>_xll.qlECBNextDate(A3)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="B4" s="83" t="s">
         <v>40</v>
@@ -4034,15 +4160,15 @@
       </c>
       <c r="D4" s="84" t="str">
         <f>_xll.qlECBcode(A4)</f>
-        <v>MAR15</v>
+        <v>APR15</v>
       </c>
       <c r="E4" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISMAR15_Quote</v>
+        <v>EURECBOISAPR15_Quote</v>
       </c>
       <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B4&amp;C4&amp;D4,A4,A5,E4,OvernightIndex)</f>
-        <v>WEURECBOISMAR15#0000</v>
+        <v>WEURECBOISAPR15#0000</v>
       </c>
       <c r="G4" s="86" t="b">
         <v>1</v>
@@ -4055,18 +4181,18 @@
       </c>
       <c r="J4" s="150">
         <f>_xll.qlRateHelperEarliestDate($F4)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="K4" s="151">
         <f>_xll.qlRateHelperLatestDate($F4)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
       <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="100">
         <f>_xll.qlECBNextDate(A4)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>40</v>
@@ -4076,15 +4202,15 @@
       </c>
       <c r="D5" s="84" t="str">
         <f>_xll.qlECBcode(A5)</f>
-        <v>APR15</v>
+        <v>JUN15</v>
       </c>
       <c r="E5" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISAPR15_Quote</v>
+        <v>EURECBOISJUN15_Quote</v>
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B5&amp;C5&amp;D5,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISAPR15#0000</v>
+        <v>WEURECBOISJUN15#0000</v>
       </c>
       <c r="G5" s="86" t="b">
         <v>1</v>
@@ -4097,17 +4223,17 @@
       </c>
       <c r="J5" s="150">
         <f>_xll.qlRateHelperEarliestDate($F5)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
       <c r="K5" s="151">
         <f>_xll.qlRateHelperLatestDate($F5)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="100">
         <f>_xll.qlECBNextDate(A5)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="B6" s="83" t="s">
         <v>40</v>
@@ -4117,15 +4243,15 @@
       </c>
       <c r="D6" s="84" t="str">
         <f>_xll.qlECBcode(A6)</f>
-        <v>JUN15</v>
+        <v>JUL15</v>
       </c>
       <c r="E6" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJUN15_Quote</v>
+        <v>EURECBOISJUL15_Quote</v>
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B6&amp;C6&amp;D6,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISJUN15#0000</v>
+        <v>WEURECBOISJUL15#0000</v>
       </c>
       <c r="G6" s="86" t="b">
         <v>1</v>
@@ -4138,17 +4264,17 @@
       </c>
       <c r="J6" s="150">
         <f>_xll.qlRateHelperEarliestDate($F6)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="K6" s="151">
         <f>_xll.qlRateHelperLatestDate($F6)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="100">
         <f>_xll.qlECBNextDate(A6)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
       <c r="B7" s="83" t="s">
         <v>40</v>
@@ -4158,15 +4284,15 @@
       </c>
       <c r="D7" s="84" t="str">
         <f>_xll.qlECBcode(A7)</f>
-        <v>JUL15</v>
+        <v>SEP15</v>
       </c>
       <c r="E7" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJUL15_Quote</v>
+        <v>EURECBOISSEP15_Quote</v>
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B7&amp;C7&amp;D7,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISJUL15#0000</v>
+        <v>WEURECBOISSEP15#0000</v>
       </c>
       <c r="G7" s="86" t="b">
         <v>1</v>
@@ -4179,17 +4305,17 @@
       </c>
       <c r="J7" s="150">
         <f>_xll.qlRateHelperEarliestDate($F7)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
       <c r="K7" s="151">
         <f>_xll.qlRateHelperLatestDate($F7)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="100">
         <f>_xll.qlECBNextDate(A7)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
       <c r="B8" s="83" t="s">
         <v>40</v>
@@ -4199,15 +4325,15 @@
       </c>
       <c r="D8" s="84" t="str">
         <f>_xll.qlECBcode(A8)</f>
-        <v>SEP15</v>
+        <v>OCT15</v>
       </c>
       <c r="E8" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISSEP15_Quote</v>
+        <v>EURECBOISOCT15_Quote</v>
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B8&amp;C8&amp;D8,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0000</v>
+        <v>WEURECBOISOCT15#0000</v>
       </c>
       <c r="G8" s="86" t="b">
         <v>1</v>
@@ -4220,17 +4346,17 @@
       </c>
       <c r="J8" s="150">
         <f>_xll.qlRateHelperEarliestDate($F8)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
       <c r="K8" s="151">
         <f>_xll.qlRateHelperLatestDate($F8)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="100">
         <f>_xll.qlECBNextDate(A8)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
       <c r="B9" s="83" t="s">
         <v>40</v>
@@ -4240,15 +4366,15 @@
       </c>
       <c r="D9" s="84" t="str">
         <f>_xll.qlECBcode(A9)</f>
-        <v>OCT15</v>
+        <v>DEC15</v>
       </c>
       <c r="E9" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISOCT15_Quote</v>
+        <v>EURECBOISDEC15_Quote</v>
       </c>
       <c r="F9" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B9&amp;C9&amp;D9,A9,A10,E9,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0000</v>
+        <v>WEURECBOISDEC15#0000</v>
       </c>
       <c r="G9" s="86" t="b">
         <v>1</v>
@@ -4261,17 +4387,17 @@
       </c>
       <c r="J9" s="150">
         <f>_xll.qlRateHelperEarliestDate($F9)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
       <c r="K9" s="151">
         <f>_xll.qlRateHelperLatestDate($F9)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="100">
         <f>_xll.qlECBNextDate(A9)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
       <c r="B10" s="83" t="s">
         <v>40</v>
@@ -4281,15 +4407,15 @@
       </c>
       <c r="D10" s="84" t="str">
         <f>_xll.qlECBcode(A10)</f>
-        <v>DEC15</v>
+        <v>JAN16</v>
       </c>
       <c r="E10" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISDEC15_Quote</v>
+        <v>EURECBOISJAN16_Quote</v>
       </c>
       <c r="F10" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B10&amp;C10&amp;D10,A10,A11,E10,OvernightIndex)</f>
-        <v>WEURECBOISDEC15#0000</v>
+        <v>WEURECBOISJAN16#0000</v>
       </c>
       <c r="G10" s="86" t="b">
         <v>1</v>
@@ -4302,17 +4428,17 @@
       </c>
       <c r="J10" s="150">
         <f>_xll.qlRateHelperEarliestDate($F10)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
       <c r="K10" s="151">
         <f>_xll.qlRateHelperLatestDate($F10)</f>
-        <v>42395</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="100">
         <f>_xll.qlECBNextDate(A10)</f>
-        <v>42395</v>
+        <v>42445</v>
       </c>
       <c r="B11" s="83" t="s">
         <v>40</v>
@@ -4322,11 +4448,11 @@
       </c>
       <c r="D11" s="84" t="str">
         <f>_xll.qlECBcode(A11)</f>
-        <v>JAN16</v>
+        <v>MAR16</v>
       </c>
       <c r="E11" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJAN16_Quote</v>
+        <v>EURECBOISMAR16_Quote</v>
       </c>
       <c r="F11" s="85" t="e">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B11&amp;C11&amp;D11,A11,A12,E11,OvernightIndex)</f>
@@ -4461,11 +4587,11 @@
       </c>
       <c r="J14" s="148">
         <f>_xll.qlRateHelperEarliestDate($F14)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K14" s="149">
         <f>_xll.qlRateHelperLatestDate($F14)</f>
-        <v>41991</v>
+        <v>42039</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4496,11 +4622,11 @@
       </c>
       <c r="J15" s="150">
         <f>_xll.qlRateHelperEarliestDate($F15)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K15" s="151">
         <f>_xll.qlRateHelperLatestDate($F15)</f>
-        <v>42002</v>
+        <v>42046</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4531,11 +4657,11 @@
       </c>
       <c r="J16" s="150">
         <f>_xll.qlRateHelperEarliestDate($F16)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K16" s="151">
         <f>_xll.qlRateHelperLatestDate($F16)</f>
-        <v>42006</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -4566,11 +4692,11 @@
       </c>
       <c r="J17" s="150">
         <f>_xll.qlRateHelperEarliestDate($F17)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K17" s="151">
         <f>_xll.qlRateHelperLatestDate($F17)</f>
-        <v>42016</v>
+        <v>42062</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -4601,11 +4727,11 @@
       </c>
       <c r="J18" s="150">
         <f>_xll.qlRateHelperEarliestDate($F18)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K18" s="151">
         <f>_xll.qlRateHelperLatestDate($F18)</f>
-        <v>42046</v>
+        <v>42093</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -4636,11 +4762,11 @@
       </c>
       <c r="J19" s="150">
         <f>_xll.qlRateHelperEarliestDate($F19)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K19" s="151">
         <f>_xll.qlRateHelperLatestDate($F19)</f>
-        <v>42074</v>
+        <v>42122</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -4671,11 +4797,11 @@
       </c>
       <c r="J20" s="150">
         <f>_xll.qlRateHelperEarliestDate($F20)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K20" s="151">
         <f>_xll.qlRateHelperLatestDate($F20)</f>
-        <v>42107</v>
+        <v>42152</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -4706,11 +4832,11 @@
       </c>
       <c r="J21" s="150">
         <f>_xll.qlRateHelperEarliestDate($F21)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K21" s="151">
         <f>_xll.qlRateHelperLatestDate($F21)</f>
-        <v>42135</v>
+        <v>42184</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -4741,11 +4867,11 @@
       </c>
       <c r="J22" s="150">
         <f>_xll.qlRateHelperEarliestDate($F22)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K22" s="151">
         <f>_xll.qlRateHelperLatestDate($F22)</f>
-        <v>42166</v>
+        <v>42213</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -4776,11 +4902,11 @@
       </c>
       <c r="J23" s="150">
         <f>_xll.qlRateHelperEarliestDate($F23)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K23" s="151">
         <f>_xll.qlRateHelperLatestDate($F23)</f>
-        <v>42198</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -4811,11 +4937,11 @@
       </c>
       <c r="J24" s="150">
         <f>_xll.qlRateHelperEarliestDate($F24)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K24" s="151">
         <f>_xll.qlRateHelperLatestDate($F24)</f>
-        <v>42227</v>
+        <v>42275</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -4846,11 +4972,11 @@
       </c>
       <c r="J25" s="150">
         <f>_xll.qlRateHelperEarliestDate($F25)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K25" s="151">
         <f>_xll.qlRateHelperLatestDate($F25)</f>
-        <v>42258</v>
+        <v>42305</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -4881,11 +5007,11 @@
       </c>
       <c r="J26" s="150">
         <f>_xll.qlRateHelperEarliestDate($F26)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K26" s="151">
         <f>_xll.qlRateHelperLatestDate($F26)</f>
-        <v>42289</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -4916,11 +5042,11 @@
       </c>
       <c r="J27" s="150">
         <f>_xll.qlRateHelperEarliestDate($F27)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K27" s="151">
         <f>_xll.qlRateHelperLatestDate($F27)</f>
-        <v>42319</v>
+        <v>42366</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -4951,11 +5077,11 @@
       </c>
       <c r="J28" s="150">
         <f>_xll.qlRateHelperEarliestDate($F28)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K28" s="151">
         <f>_xll.qlRateHelperLatestDate($F28)</f>
-        <v>42349</v>
+        <v>42397</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -4986,11 +5112,11 @@
       </c>
       <c r="J29" s="150">
         <f>_xll.qlRateHelperEarliestDate($F29)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K29" s="151">
         <f>_xll.qlRateHelperLatestDate($F29)</f>
-        <v>42440</v>
+        <v>42488</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -5021,11 +5147,11 @@
       </c>
       <c r="J30" s="150">
         <f>_xll.qlRateHelperEarliestDate($F30)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K30" s="151">
         <f>_xll.qlRateHelperLatestDate($F30)</f>
-        <v>42534</v>
+        <v>42579</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -5056,11 +5182,11 @@
       </c>
       <c r="J31" s="150">
         <f>_xll.qlRateHelperEarliestDate($F31)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K31" s="151">
         <f>_xll.qlRateHelperLatestDate($F31)</f>
-        <v>42625</v>
+        <v>42671</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -5091,11 +5217,11 @@
       </c>
       <c r="J32" s="150">
         <f>_xll.qlRateHelperEarliestDate($F32)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="K32" s="151">
         <f>_xll.qlRateHelperLatestDate($F32)</f>
-        <v>42716</v>
+        <v>42765</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.2">
@@ -5160,7 +5286,7 @@
   <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5239,26 +5365,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="171">
+        <f t="array" ref="M1">SUM(_xll.ohFilter(AdditionalTau,AdditionalCheck=MONTH(JumpDate1)))</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
       <c r="O1" s="51">
         <f>MAX(O5:O129)</f>
-        <v>0.9999824826406053</v>
+        <v>0.99999066675761494</v>
+      </c>
+      <c r="Q1" s="171">
+        <f t="array" ref="Q1">SUM(_xll.ohFilter(AdditionalTau,AdditionalCheck=MONTH(JumpDate2)))</f>
+        <v>0</v>
       </c>
       <c r="S1" s="51">
         <f>MAX(S5:S129)</f>
-        <v>0.99999111787408357</v>
+        <v>0.99998233463254815</v>
+      </c>
+      <c r="U1" s="26">
+        <f t="array" ref="U1">SUM(_xll.ohFilter(AdditionalTau,AdditionalCheck=MONTH(JumpDate3)))</f>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="W1" s="51">
         <f>MAX(W5:W129)</f>
-        <v>0.99997284750112314</v>
+        <v>1</v>
+      </c>
+      <c r="Y1" s="171">
+        <f t="array" ref="Y1">SUM(_xll.ohFilter(AdditionalTau,AdditionalCheck=MONTH(JumpDate4)))</f>
+        <v>0</v>
       </c>
       <c r="AA1" s="51">
         <f>MAX(AA5:AA129)</f>
         <v>1</v>
       </c>
+      <c r="AC1" s="171">
+        <f t="array" ref="AC1">SUM(_xll.ohFilter(AdditionalTau,AdditionalCheck=MONTH(JumpDate5)))</f>
+        <v>0</v>
+      </c>
       <c r="AE1" s="51">
         <f>MAX(AE5:AE129)</f>
         <v>1</v>
       </c>
+      <c r="AG1" s="171">
+        <f t="array" ref="AG1">SUM(_xll.ohFilter(AdditionalTau,AdditionalCheck=MONTH(JumpDate6)))</f>
+        <v>0</v>
+      </c>
       <c r="AI1" s="51">
         <f>MAX(AI5:AI129)</f>
         <v>1</v>
@@ -5285,115 +5435,115 @@
       </c>
       <c r="BG1" s="51">
         <f>MAX(BG5:BG129)</f>
-        <v>0.99999578969461889</v>
+        <v>0.99999637269198749</v>
       </c>
       <c r="BK1" s="51">
         <f>MAX(BK5:BK129)</f>
-        <v>0.99997166725762687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I2" s="114">
         <f>_xll.qlCalendarEndOfMonth(Calendar,EDATE(DATE(YEAR(K4),MONTH(K4),1),-1))</f>
-        <v>41971</v>
+        <v>42004</v>
       </c>
       <c r="M2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,I2,"1m","mf",TRUE)</f>
-        <v>42004</v>
+        <v>42034</v>
       </c>
       <c r="N2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="O2" s="117">
-        <f>_xll.qlDayCounterYearFraction(DayCounter,M2,_xll.qlCalendarAdvance(Calendar,M2,"1D"))</f>
-        <v>5.5555555555555558E-3</v>
+        <f>IF(NOT(M1=0),M1,_xll.qlDayCounterYearFraction(DayCounter,M2,_xll.qlCalendarAdvance(Calendar,M2,"1D")))</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="P2" s="108"/>
       <c r="Q2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,M2,"1m","mf",TRUE)</f>
-        <v>42034</v>
+        <v>42062</v>
       </c>
       <c r="R2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="S2" s="117">
-        <f>_xll.qlDayCounterYearFraction(DayCounter,Q2,_xll.qlCalendarAdvance(Calendar,Q2,"1D"))</f>
+        <f>IF(NOT(Q1=0),Q1,_xll.qlDayCounterYearFraction(DayCounter,Q2,_xll.qlCalendarAdvance(Calendar,Q2,"1D")))</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="T2" s="109"/>
       <c r="U2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,Q2,"1m","mf",TRUE)</f>
-        <v>42062</v>
+        <v>42094</v>
       </c>
       <c r="V2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="W2" s="117">
-        <f>_xll.qlDayCounterYearFraction(DayCounter,U2,_xll.qlCalendarAdvance(Calendar,U2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <f>IF(NOT(U1=0),U1,_xll.qlDayCounterYearFraction(DayCounter,U2,_xll.qlCalendarAdvance(Calendar,U2,"1D")))</f>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="X2" s="109"/>
       <c r="Y2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,U2,"1m","mf",TRUE)</f>
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="Z2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AA2" s="117">
-        <f>_xll.qlDayCounterYearFraction(DayCounter,Y2,_xll.qlCalendarAdvance(Calendar,Y2,"1D"))</f>
-        <v>2.7777777777777779E-3</v>
+        <f>IF(NOT(Y1=0),Y1,_xll.qlDayCounterYearFraction(DayCounter,Y2,_xll.qlCalendarAdvance(Calendar,Y2,"1D")))</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AB2" s="109"/>
       <c r="AC2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,Y2,"1m","mf",TRUE)</f>
-        <v>42124</v>
+        <v>42153</v>
       </c>
       <c r="AD2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AE2" s="117">
-        <f>_xll.qlDayCounterYearFraction(DayCounter,AC2,_xll.qlCalendarAdvance(Calendar,AC2,"1D"))</f>
-        <v>1.1111111111111112E-2</v>
+        <f>IF(NOT(AC1=0),AC1,_xll.qlDayCounterYearFraction(DayCounter,AC2,_xll.qlCalendarAdvance(Calendar,AC2,"1D")))</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AF2" s="109"/>
       <c r="AG2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AC2,"1m","mf",TRUE)</f>
-        <v>42153</v>
+        <v>42185</v>
       </c>
       <c r="AH2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AI2" s="117">
-        <f>_xll.qlDayCounterYearFraction(DayCounter,AG2,_xll.qlCalendarAdvance(Calendar,AG2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <f>IF(NOT(AG1=0),AG1,_xll.qlDayCounterYearFraction(DayCounter,AG2,_xll.qlCalendarAdvance(Calendar,AG2,"1D")))</f>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ2" s="109"/>
       <c r="AK2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AG2,"1m","mf",TRUE)</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="AL2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AM2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AK2,_xll.qlCalendarAdvance(Calendar,AK2,"1D"))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AO2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AK2,"1m","mf",TRUE)</f>
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="AP2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AQ2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AO2,_xll.qlCalendarAdvance(Calendar,AO2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AS2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AO2,"1m","mf",TRUE)</f>
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="AT2" s="118" t="s">
         <v>71</v>
@@ -5404,47 +5554,47 @@
       </c>
       <c r="AW2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AS2,"1m","mf",TRUE)</f>
-        <v>42277</v>
+        <v>42307</v>
       </c>
       <c r="AX2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AY2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AW2,_xll.qlCalendarAdvance(Calendar,AW2,"1D"))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="BA2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AW2,"1m","mf",TRUE)</f>
-        <v>42307</v>
+        <v>42338</v>
       </c>
       <c r="BB2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="BC2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,BA2,_xll.qlCalendarAdvance(Calendar,BA2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="BE2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,BA2,"1m","mf",TRUE)</f>
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="BF2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="BG2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,BE2,_xll.qlCalendarAdvance(Calendar,BE2,"1D"))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="BI2" s="114">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding",Trigger)</f>
-        <v>42369</v>
+        <v>42734</v>
       </c>
       <c r="BJ2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="BK2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,BI2,_xll.qlCalendarAdvance(Calendar,BI2,"1D"))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5480,7 +5630,7 @@
       <c r="L3" s="100"/>
       <c r="M3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
-        <v>obj_00bef#0026</v>
+        <v>obj_004dc#0066</v>
       </c>
       <c r="N3" s="117" t="s">
         <v>70</v>
@@ -5491,7 +5641,7 @@
       <c r="P3" s="108"/>
       <c r="Q3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
-        <v>obj_00bf0#0025</v>
+        <v>obj_004dd#0066</v>
       </c>
       <c r="R3" s="117" t="s">
         <v>70</v>
@@ -5502,7 +5652,7 @@
       <c r="T3" s="109"/>
       <c r="U3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
-        <v>obj_00bf1#0025</v>
+        <v>obj_004de#0066</v>
       </c>
       <c r="V3" s="117" t="s">
         <v>70</v>
@@ -5513,7 +5663,7 @@
       <c r="X3" s="109"/>
       <c r="Y3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
-        <v>obj_00bf2#0025</v>
+        <v>obj_004df#0066</v>
       </c>
       <c r="Z3" s="117" t="s">
         <v>70</v>
@@ -5524,7 +5674,7 @@
       <c r="AB3" s="109"/>
       <c r="AC3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
-        <v>obj_00bf3#0025</v>
+        <v>obj_004e0#0066</v>
       </c>
       <c r="AD3" s="117" t="s">
         <v>70</v>
@@ -5535,7 +5685,7 @@
       <c r="AF3" s="109"/>
       <c r="AG3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
-        <v>obj_00bf4#0025</v>
+        <v>obj_004e1#0066</v>
       </c>
       <c r="AH3" s="117" t="s">
         <v>70</v>
@@ -5546,7 +5696,7 @@
       <c r="AJ3" s="109"/>
       <c r="AK3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
-        <v>obj_00bf5#0025</v>
+        <v>obj_004e2#0066</v>
       </c>
       <c r="AL3" s="117" t="s">
         <v>70</v>
@@ -5556,7 +5706,7 @@
       </c>
       <c r="AO3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
-        <v>obj_00bf6#0025</v>
+        <v>obj_004e3#0066</v>
       </c>
       <c r="AP3" s="117" t="s">
         <v>70</v>
@@ -5566,7 +5716,7 @@
       </c>
       <c r="AS3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
-        <v>obj_00bf7#0025</v>
+        <v>obj_004e4#0066</v>
       </c>
       <c r="AT3" s="117" t="s">
         <v>70</v>
@@ -5576,7 +5726,7 @@
       </c>
       <c r="AW3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
-        <v>obj_00bf8#0025</v>
+        <v>obj_004e5#0066</v>
       </c>
       <c r="AX3" s="117" t="s">
         <v>70</v>
@@ -5586,7 +5736,7 @@
       </c>
       <c r="BA3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
-        <v>obj_00bf9#0025</v>
+        <v>obj_004e6#0066</v>
       </c>
       <c r="BB3" s="117" t="s">
         <v>70</v>
@@ -5596,7 +5746,7 @@
       </c>
       <c r="BE3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
-        <v>obj_00bfa#0025</v>
+        <v>obj_004e7#0066</v>
       </c>
       <c r="BF3" s="117" t="s">
         <v>70</v>
@@ -5606,7 +5756,7 @@
       </c>
       <c r="BI3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
-        <v>obj_00bfb#0026</v>
+        <v>obj_004e8#0066</v>
       </c>
       <c r="BJ3" s="117" t="s">
         <v>70</v>
@@ -5621,7 +5771,7 @@
       <c r="C4" s="142"/>
       <c r="D4" s="31">
         <f>'General Settings'!C22</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="F4" s="124"/>
       <c r="G4" s="125"/>
@@ -5630,11 +5780,11 @@
       </c>
       <c r="J4" s="137">
         <f t="array" ref="J4:J129">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>3.2999894154267154E-4</v>
       </c>
       <c r="K4" s="111">
         <f>D4</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="M4" s="106" t="b">
         <v>1</v>
@@ -5642,7 +5792,7 @@
       <c r="N4" s="154"/>
       <c r="O4" s="115">
         <f>-LN(MAX(O5:O33))/O$2</f>
-        <v>3.1531523085782998E-3</v>
+        <v>8.3999573460309999E-4</v>
       </c>
       <c r="P4" s="108"/>
       <c r="Q4" s="106" t="b">
@@ -5651,7 +5801,7 @@
       <c r="R4" s="154"/>
       <c r="S4" s="115">
         <f>-LN(MAX(S5:S33))/S$2</f>
-        <v>1.065859843529491E-3</v>
+        <v>2.1198628183545574E-3</v>
       </c>
       <c r="T4" s="109"/>
       <c r="U4" s="106" t="b">
@@ -5660,7 +5810,7 @@
       <c r="V4" s="154"/>
       <c r="W4" s="115">
         <f>-LN(MAX(W5:W33))/W$2</f>
-        <v>3.258344101515548E-3</v>
+        <v>0</v>
       </c>
       <c r="X4" s="109"/>
       <c r="Y4" s="106" t="b">
@@ -5736,7 +5886,7 @@
       <c r="BF4" s="154"/>
       <c r="BG4" s="115">
         <f>-LN(MAX(BG5:BG33))/BG$2</f>
-        <v>1.5157131280107681E-3</v>
+        <v>3.2645831320872454E-4</v>
       </c>
       <c r="BI4" s="106" t="b">
         <v>1</v>
@@ -5744,7 +5894,7 @@
       <c r="BJ4" s="154"/>
       <c r="BK4" s="115">
         <f>-LN(MAX(BK5:BK33))/BK$2</f>
-        <v>2.5499829377568493E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
@@ -5754,19 +5904,19 @@
       </c>
       <c r="B5" s="27">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>-9.0000000000000073E-5</v>
+        <v>3.3E-4</v>
       </c>
       <c r="C5" s="30">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D5" s="31">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>41991</v>
+        <v>42039</v>
       </c>
       <c r="F5" s="120">
         <f t="shared" ref="F5:F30" si="0">IF(ISERROR(D5),NA(),(D5-D4)/2+D4)</f>
-        <v>41987.5</v>
+        <v>42035.5</v>
       </c>
       <c r="G5" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D4,D5)</f>
@@ -5775,27 +5925,27 @@
       <c r="H5" s="28"/>
       <c r="I5" s="138" t="b">
         <f>IF(ISERROR(K5),FALSE,IF(OR(MONTH(K5)-MONTH(K4)=1,YEAR(K5)-YEAR(K4)=1),FALSE,TRUE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="137">
-        <v>-9.0000078749044983E-5</v>
+        <v>3.2999894154267154E-4</v>
       </c>
       <c r="K5" s="111">
         <f>D5</f>
-        <v>41991</v>
+        <v>42039</v>
       </c>
       <c r="L5" s="100"/>
       <c r="M5" s="106" t="b">
         <f>IF(AND(NOT(I5),AND(I$4:I4)),TRUE,I5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M5),AND(M$4:M4))),($J5*$G5-LN(1+Jumpoverwrite1*O$2))/$G5,_xll.qlInterpolationInterpolate(M$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
-      </c>
-      <c r="O5" s="107" t="str">
+        <v>-1.499986210848956E-4</v>
+      </c>
+      <c r="O5" s="107">
         <f>IF(AND(NOT(M5),AND(M$4:M4)),MIN(EXP((N5-$J5)*$G5),1),"")</f>
-        <v/>
+        <v>0.99999066675761494</v>
       </c>
       <c r="P5" s="108"/>
       <c r="Q5" s="106" t="b">
@@ -5804,7 +5954,7 @@
       </c>
       <c r="R5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q5),AND(Q$4:Q4))),($J5*$G5-LN(1+Jumpoverwrite2*S$2))/$G5,_xll.qlInterpolationInterpolate(Q$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="S5" s="107" t="str">
         <f>IF(AND(NOT(Q5),AND(Q$4:Q4)),MIN(EXP((R5-$J5)*$G5),1),"")</f>
@@ -5817,7 +5967,7 @@
       </c>
       <c r="V5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U5),AND(U$4:U4))),($J5*$G5-LN(1+Jumpoverwrite3*W$2))/$G5,_xll.qlInterpolationInterpolate(U$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="W5" s="107" t="str">
         <f>IF(AND(NOT(U5),AND(U$4:U4)),MIN(EXP((V5-$J5)*$G5),1),"")</f>
@@ -5830,7 +5980,7 @@
       </c>
       <c r="Z5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y5),AND(Y$4:Y4))),($J5*$G5-LN(1+Jumpoverwrite4*AA$2))/$G5,_xll.qlInterpolationInterpolate(Y$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="AA5" s="107" t="str">
         <f>IF(AND(NOT(Y5),AND(Y$4:Y4)),MIN(EXP((Z5-$J5)*$G5),1),"")</f>
@@ -5843,7 +5993,7 @@
       </c>
       <c r="AD5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC5),AND(AC$4:AC4))),($J5*$G5-LN(1+Jumpoverwrite5*AE$2))/$G5,_xll.qlInterpolationInterpolate(AC$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="AE5" s="107" t="str">
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),MIN(EXP((AD5-$J5)*$G5),1),"")</f>
@@ -5856,7 +6006,7 @@
       </c>
       <c r="AH5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG5),AND(AG$4:AG4))),($J5*$G5-LN(1+Jumpoverwrite6*AI$2))/$G5,_xll.qlInterpolationInterpolate(AG$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="AI5" s="107" t="str">
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),MIN(EXP((AH5-$J5)*$G5),1),"")</f>
@@ -5869,7 +6019,7 @@
       </c>
       <c r="AL5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK5),AND(AK$4:AK4))),($J5*$G5-LN(1+Jumpoverwrite7*AM$2))/$G5,_xll.qlInterpolationInterpolate(AK$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="AM5" s="107" t="str">
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),MIN(EXP((AL5-$J5)*$G5),1),"")</f>
@@ -5881,7 +6031,7 @@
       </c>
       <c r="AP5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO5),AND(AO$4:AO4))),($J5*$G5-LN(1+Jumpoverwrite8*AQ$2))/$G5,_xll.qlInterpolationInterpolate(AO$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="AQ5" s="107" t="str">
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),MIN(EXP((AP5-$J5)*$G5),1),"")</f>
@@ -5893,7 +6043,7 @@
       </c>
       <c r="AT5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS5),AND(AS$4:AS4))),($J5*$G5-LN(1+Jumpoverwrite9*AU$2))/$G5,_xll.qlInterpolationInterpolate(AS$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="AU5" s="107" t="str">
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),MIN(EXP((AT5-$J5)*$G5),1),"")</f>
@@ -5905,7 +6055,7 @@
       </c>
       <c r="AX5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW5),AND(AW$4:AW4))),($J5*$G5-LN(1+Jumpoverwrite10*AY$2))/$G5,_xll.qlInterpolationInterpolate(AW$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="AY5" s="107" t="str">
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),MIN(EXP((AX5-$J5)*$G5),1),"")</f>
@@ -5917,7 +6067,7 @@
       </c>
       <c r="BB5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA5),AND(BA$4:BA4))),($J5*$G5-LN(1+Jumpoverwrite11*BC$2))/$G5,_xll.qlInterpolationInterpolate(BA$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="BC5" s="107" t="str">
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),MIN(EXP((BB5-$J5)*$G5),1),"")</f>
@@ -5929,7 +6079,7 @@
       </c>
       <c r="BF5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE5),AND(BE$4:BE4))),($J5*$G5-LN(1+Jumpoverwrite12*BG$2))/$G5,_xll.qlInterpolationInterpolate(BE$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="BG5" s="107" t="str">
         <f>IF(AND(NOT(BE5),AND(BE$4:BE4)),MIN(EXP((BF5-$J5)*$G5),1),"")</f>
@@ -5941,7 +6091,7 @@
       </c>
       <c r="BJ5" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI5),AND(BI$4:BI4))),($J5*$G5-LN(1+jumpoverwrite13*BK$2))/$G5,_xll.qlInterpolationInterpolate(BI$3,$F5,TRUE))</f>
-        <v>-9.0000078749044983E-5</v>
+        <v>-1.499986210848956E-4</v>
       </c>
       <c r="BK5" s="107" t="str">
         <f>IF(AND(NOT(BI5),AND(BI$4:BI4)),MIN(EXP((BJ5-$J5)*$G5),1),"")</f>
@@ -5954,23 +6104,23 @@
       </c>
       <c r="B6" s="27">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>-2.5000000000000001E-4</v>
+        <v>7.9999999999999966E-5</v>
       </c>
       <c r="C6" s="30">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D6" s="31">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>42002</v>
+        <v>42046</v>
       </c>
       <c r="F6" s="120">
         <f t="shared" si="0"/>
-        <v>41996.5</v>
+        <v>42042.5</v>
       </c>
       <c r="G6" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D5,D6)</f>
-        <v>3.0555555555555555E-2</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="138" t="b">
@@ -5978,11 +6128,11 @@
         <v>1</v>
       </c>
       <c r="J6" s="137">
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="K6" s="111">
         <f t="shared" ref="K6:K69" si="3">D6</f>
-        <v>42002</v>
+        <v>42046</v>
       </c>
       <c r="L6" s="100"/>
       <c r="M6" s="106" t="b">
@@ -5991,7 +6141,7 @@
       </c>
       <c r="N6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M6),AND(M$4:M5))),($J6*$G6-LN(1+Jumpoverwrite1*O$2))/$G6,_xll.qlInterpolationInterpolate(M$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="O6" s="107" t="str">
         <f>IF(AND(NOT(M6),AND(M$4:M5)),MIN(EXP((N6-$J6)*$G6),1),"")</f>
@@ -6004,7 +6154,7 @@
       </c>
       <c r="R6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q6),AND(Q$4:Q5))),($J6*$G6-LN(1+Jumpoverwrite2*S$2))/$G6,_xll.qlInterpolationInterpolate(Q$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="S6" s="107" t="str">
         <f>IF(AND(NOT(Q6),AND(Q$4:Q5)),MIN(EXP((R6-$J6)*$G6),1),"")</f>
@@ -6017,7 +6167,7 @@
       </c>
       <c r="V6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U6),AND(U$4:U5))),($J6*$G6-LN(1+Jumpoverwrite3*W$2))/$G6,_xll.qlInterpolationInterpolate(U$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="W6" s="107" t="str">
         <f>IF(AND(NOT(U6),AND(U$4:U5)),MIN(EXP((V6-$J6)*$G6),1),"")</f>
@@ -6030,7 +6180,7 @@
       </c>
       <c r="Z6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y6),AND(Y$4:Y5))),($J6*$G6-LN(1+Jumpoverwrite4*AA$2))/$G6,_xll.qlInterpolationInterpolate(Y$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="AA6" s="107" t="str">
         <f>IF(AND(NOT(Y6),AND(Y$4:Y5)),MIN(EXP((Z6-$J6)*$G6),1),"")</f>
@@ -6043,7 +6193,7 @@
       </c>
       <c r="AD6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC6),AND(AC$4:AC5))),($J6*$G6-LN(1+Jumpoverwrite5*AE$2))/$G6,_xll.qlInterpolationInterpolate(AC$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="AE6" s="107" t="str">
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),MIN(EXP((AD6-$J6)*$G6),1),"")</f>
@@ -6056,7 +6206,7 @@
       </c>
       <c r="AH6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG6),AND(AG$4:AG5))),($J6*$G6-LN(1+Jumpoverwrite6*AI$2))/$G6,_xll.qlInterpolationInterpolate(AG$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="AI6" s="107" t="str">
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),MIN(EXP((AH6-$J6)*$G6),1),"")</f>
@@ -6069,7 +6219,7 @@
       </c>
       <c r="AL6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK6),AND(AK$4:AK5))),($J6*$G6-LN(1+Jumpoverwrite7*AM$2))/$G6,_xll.qlInterpolationInterpolate(AK$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="AM6" s="107" t="str">
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),MIN(EXP((AL6-$J6)*$G6),1),"")</f>
@@ -6081,7 +6231,7 @@
       </c>
       <c r="AP6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO6),AND(AO$4:AO5))),($J6*$G6-LN(1+Jumpoverwrite8*AQ$2))/$G6,_xll.qlInterpolationInterpolate(AO$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="AQ6" s="107" t="str">
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),MIN(EXP((AP6-$J6)*$G6),1),"")</f>
@@ -6093,7 +6243,7 @@
       </c>
       <c r="AT6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS6),AND(AS$4:AS5))),($J6*$G6-LN(1+Jumpoverwrite9*AU$2))/$G6,_xll.qlInterpolationInterpolate(AS$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="AU6" s="107" t="str">
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),MIN(EXP((AT6-$J6)*$G6),1),"")</f>
@@ -6105,7 +6255,7 @@
       </c>
       <c r="AX6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW6),AND(AW$4:AW5))),($J6*$G6-LN(1+Jumpoverwrite10*AY$2))/$G6,_xll.qlInterpolationInterpolate(AW$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="AY6" s="107" t="str">
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),MIN(EXP((AX6-$J6)*$G6),1),"")</f>
@@ -6117,7 +6267,7 @@
       </c>
       <c r="BB6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA6),AND(BA$4:BA5))),($J6*$G6-LN(1+Jumpoverwrite11*BC$2))/$G6,_xll.qlInterpolationInterpolate(BA$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="BC6" s="107" t="str">
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),MIN(EXP((BB6-$J6)*$G6),1),"")</f>
@@ -6129,7 +6279,7 @@
       </c>
       <c r="BF6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE6),AND(BE$4:BE5))),($J6*$G6-LN(1+Jumpoverwrite12*BG$2))/$G6,_xll.qlInterpolationInterpolate(BE$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="BG6" s="107" t="str">
         <f>IF(AND(NOT(BE6),AND(BE$4:BE5)),MIN(EXP((BF6-$J6)*$G6),1),"")</f>
@@ -6141,7 +6291,7 @@
       </c>
       <c r="BJ6" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI6),AND(BI$4:BI5))),($J6*$G6-LN(1+jumpoverwrite13*BK$2))/$G6,_xll.qlInterpolationInterpolate(BI$3,$F6,TRUE))</f>
-        <v>-3.5182068854429041E-4</v>
+        <v>-1.6999919043194508E-4</v>
       </c>
       <c r="BK6" s="107" t="str">
         <f>IF(AND(NOT(BI6),AND(BI$4:BI5)),MIN(EXP((BJ6-$J6)*$G6),1),"")</f>
@@ -6154,47 +6304,47 @@
       </c>
       <c r="B7" s="27">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>2.0000000000000019E-5</v>
+        <v>-1.0000000000000009E-5</v>
       </c>
       <c r="C7" s="30">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D7" s="31">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>42006</v>
+        <v>42053</v>
       </c>
       <c r="F7" s="120">
         <f t="shared" si="0"/>
-        <v>42004</v>
+        <v>42049.5</v>
       </c>
       <c r="G7" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D6,D7)</f>
-        <v>1.1111111111111112E-2</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="I7" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="137">
-        <v>1.2350069640746E-3</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="K7" s="111">
         <f t="shared" si="3"/>
-        <v>42006</v>
+        <v>42053</v>
       </c>
       <c r="L7" s="100"/>
       <c r="M7" s="106" t="b">
         <f>IF(AND(NOT(I7),AND(I$4:I6)),TRUE,I7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M7),AND(M$4:M6))),($J7*$G7-LN(1+Jumpoverwrite1*O$2))/$G7,_xll.qlInterpolationInterpolate(M$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
-      </c>
-      <c r="O7" s="107">
+        <v>-1.8999975977899457E-4</v>
+      </c>
+      <c r="O7" s="107" t="str">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),MIN(EXP((N7-$J7)*$G7),1),"")</f>
-        <v>0.9999824826406053</v>
+        <v/>
       </c>
       <c r="P7" s="85"/>
       <c r="Q7" s="106" t="b">
@@ -6203,7 +6353,7 @@
       </c>
       <c r="R7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q7),AND(Q$4:Q6))),($J7*$G7-LN(1+Jumpoverwrite2*S$2))/$G7,_xll.qlInterpolationInterpolate(Q$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="S7" s="107" t="str">
         <f>IF(AND(NOT(Q7),AND(Q$4:Q6)),MIN(EXP((R7-$J7)*$G7),1),"")</f>
@@ -6216,7 +6366,7 @@
       </c>
       <c r="V7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U7),AND(U$4:U6))),($J7*$G7-LN(1+Jumpoverwrite3*W$2))/$G7,_xll.qlInterpolationInterpolate(U$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="W7" s="107" t="str">
         <f>IF(AND(NOT(U7),AND(U$4:U6)),MIN(EXP((V7-$J7)*$G7),1),"")</f>
@@ -6229,7 +6379,7 @@
       </c>
       <c r="Z7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y7),AND(Y$4:Y6))),($J7*$G7-LN(1+Jumpoverwrite4*AA$2))/$G7,_xll.qlInterpolationInterpolate(Y$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="AA7" s="107" t="str">
         <f>IF(AND(NOT(Y7),AND(Y$4:Y6)),MIN(EXP((Z7-$J7)*$G7),1),"")</f>
@@ -6242,7 +6392,7 @@
       </c>
       <c r="AD7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC7),AND(AC$4:AC6))),($J7*$G7-LN(1+Jumpoverwrite5*AE$2))/$G7,_xll.qlInterpolationInterpolate(AC$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="AE7" s="107" t="str">
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),MIN(EXP((AD7-$J7)*$G7),1),"")</f>
@@ -6255,7 +6405,7 @@
       </c>
       <c r="AH7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG7),AND(AG$4:AG6))),($J7*$G7-LN(1+Jumpoverwrite6*AI$2))/$G7,_xll.qlInterpolationInterpolate(AG$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="AI7" s="107" t="str">
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),MIN(EXP((AH7-$J7)*$G7),1),"")</f>
@@ -6268,7 +6418,7 @@
       </c>
       <c r="AL7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK7),AND(AK$4:AK6))),($J7*$G7-LN(1+Jumpoverwrite7*AM$2))/$G7,_xll.qlInterpolationInterpolate(AK$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="AM7" s="107" t="str">
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),MIN(EXP((AL7-$J7)*$G7),1),"")</f>
@@ -6280,7 +6430,7 @@
       </c>
       <c r="AP7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO7),AND(AO$4:AO6))),($J7*$G7-LN(1+Jumpoverwrite8*AQ$2))/$G7,_xll.qlInterpolationInterpolate(AO$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="AQ7" s="107" t="str">
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),MIN(EXP((AP7-$J7)*$G7),1),"")</f>
@@ -6292,7 +6442,7 @@
       </c>
       <c r="AT7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS7),AND(AS$4:AS6))),($J7*$G7-LN(1+Jumpoverwrite9*AU$2))/$G7,_xll.qlInterpolationInterpolate(AS$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="AU7" s="107" t="str">
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),MIN(EXP((AT7-$J7)*$G7),1),"")</f>
@@ -6304,7 +6454,7 @@
       </c>
       <c r="AX7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW7),AND(AW$4:AW6))),($J7*$G7-LN(1+Jumpoverwrite10*AY$2))/$G7,_xll.qlInterpolationInterpolate(AW$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="AY7" s="107" t="str">
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),MIN(EXP((AX7-$J7)*$G7),1),"")</f>
@@ -6316,7 +6466,7 @@
       </c>
       <c r="BB7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA7),AND(BA$4:BA6))),($J7*$G7-LN(1+Jumpoverwrite11*BC$2))/$G7,_xll.qlInterpolationInterpolate(BA$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="BC7" s="107" t="str">
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),MIN(EXP((BB7-$J7)*$G7),1),"")</f>
@@ -6328,7 +6478,7 @@
       </c>
       <c r="BF7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE7),AND(BE$4:BE6))),($J7*$G7-LN(1+Jumpoverwrite12*BG$2))/$G7,_xll.qlInterpolationInterpolate(BE$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="BG7" s="107" t="str">
         <f>IF(AND(NOT(BE7),AND(BE$4:BE6)),MIN(EXP((BF7-$J7)*$G7),1),"")</f>
@@ -6340,7 +6490,7 @@
       </c>
       <c r="BJ7" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI7),AND(BI$4:BI6))),($J7*$G7-LN(1+jumpoverwrite13*BK$2))/$G7,_xll.qlInterpolationInterpolate(BI$3,$F7,TRUE))</f>
-        <v>-3.415691902159972E-4</v>
+        <v>-1.8999975977899457E-4</v>
       </c>
       <c r="BK7" s="107" t="str">
         <f>IF(AND(NOT(BI7),AND(BI$4:BI6)),MIN(EXP((BJ7-$J7)*$G7),1),"")</f>
@@ -6353,34 +6503,34 @@
       </c>
       <c r="B8" s="27">
         <f>_xll.qlRateHelperRate($A8,InterestRatesTrigger)</f>
-        <v>-8.9999999999999979E-5</v>
+        <v>-7.0000000000000007E-5</v>
       </c>
       <c r="C8" s="30">
         <f>_xll.qlRateHelperEarliestDate($A8)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D8" s="31">
         <f>_xll.qlRateHelperLatestDate($A8)</f>
-        <v>42016</v>
+        <v>42062</v>
       </c>
       <c r="F8" s="120">
         <f t="shared" si="0"/>
-        <v>42011</v>
+        <v>42057.5</v>
       </c>
       <c r="G8" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D7,D8)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J8" s="137">
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="K8" s="111">
         <f t="shared" si="3"/>
-        <v>42016</v>
+        <v>42062</v>
       </c>
       <c r="L8" s="100"/>
       <c r="M8" s="106" t="b">
@@ -6389,7 +6539,7 @@
       </c>
       <c r="N8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M8),AND(M$4:M7))),($J8*$G8-LN(1+Jumpoverwrite1*O$2))/$G8,_xll.qlInterpolationInterpolate(M$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="O8" s="107" t="str">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),MIN(EXP((N8-$J8)*$G8),1),"")</f>
@@ -6402,7 +6552,7 @@
       </c>
       <c r="R8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q8),AND(Q$4:Q7))),($J8*$G8-LN(1+Jumpoverwrite2*S$2))/$G8,_xll.qlInterpolationInterpolate(Q$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="S8" s="107" t="str">
         <f>IF(AND(NOT(Q8),AND(Q$4:Q7)),MIN(EXP((R8-$J8)*$G8),1),"")</f>
@@ -6415,7 +6565,7 @@
       </c>
       <c r="V8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U8),AND(U$4:U7))),($J8*$G8-LN(1+Jumpoverwrite3*W$2))/$G8,_xll.qlInterpolationInterpolate(U$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="W8" s="107" t="str">
         <f>IF(AND(NOT(U8),AND(U$4:U7)),MIN(EXP((V8-$J8)*$G8),1),"")</f>
@@ -6428,7 +6578,7 @@
       </c>
       <c r="Z8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y8),AND(Y$4:Y7))),($J8*$G8-LN(1+Jumpoverwrite4*AA$2))/$G8,_xll.qlInterpolationInterpolate(Y$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="AA8" s="107" t="str">
         <f>IF(AND(NOT(Y8),AND(Y$4:Y7)),MIN(EXP((Z8-$J8)*$G8),1),"")</f>
@@ -6441,7 +6591,7 @@
       </c>
       <c r="AD8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC8),AND(AC$4:AC7))),($J8*$G8-LN(1+Jumpoverwrite5*AE$2))/$G8,_xll.qlInterpolationInterpolate(AC$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="AE8" s="107" t="str">
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),MIN(EXP((AD8-$J8)*$G8),1),"")</f>
@@ -6454,7 +6604,7 @@
       </c>
       <c r="AH8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG8),AND(AG$4:AG7))),($J8*$G8-LN(1+Jumpoverwrite6*AI$2))/$G8,_xll.qlInterpolationInterpolate(AG$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="AI8" s="107" t="str">
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),MIN(EXP((AH8-$J8)*$G8),1),"")</f>
@@ -6467,7 +6617,7 @@
       </c>
       <c r="AL8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK8),AND(AK$4:AK7))),($J8*$G8-LN(1+Jumpoverwrite7*AM$2))/$G8,_xll.qlInterpolationInterpolate(AK$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="AM8" s="107" t="str">
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),MIN(EXP((AL8-$J8)*$G8),1),"")</f>
@@ -6479,7 +6629,7 @@
       </c>
       <c r="AP8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO8),AND(AO$4:AO7))),($J8*$G8-LN(1+Jumpoverwrite8*AQ$2))/$G8,_xll.qlInterpolationInterpolate(AO$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="AQ8" s="107" t="str">
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),MIN(EXP((AP8-$J8)*$G8),1),"")</f>
@@ -6491,7 +6641,7 @@
       </c>
       <c r="AT8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS8),AND(AS$4:AS7))),($J8*$G8-LN(1+Jumpoverwrite9*AU$2))/$G8,_xll.qlInterpolationInterpolate(AS$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="AU8" s="107" t="str">
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),MIN(EXP((AT8-$J8)*$G8),1),"")</f>
@@ -6503,7 +6653,7 @@
       </c>
       <c r="AX8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW8),AND(AW$4:AW7))),($J8*$G8-LN(1+Jumpoverwrite10*AY$2))/$G8,_xll.qlInterpolationInterpolate(AW$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="AY8" s="107" t="str">
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),MIN(EXP((AX8-$J8)*$G8),1),"")</f>
@@ -6515,7 +6665,7 @@
       </c>
       <c r="BB8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA8),AND(BA$4:BA7))),($J8*$G8-LN(1+Jumpoverwrite11*BC$2))/$G8,_xll.qlInterpolationInterpolate(BA$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="BC8" s="107" t="str">
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),MIN(EXP((BB8-$J8)*$G8),1),"")</f>
@@ -6527,7 +6677,7 @@
       </c>
       <c r="BF8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE8),AND(BE$4:BE7))),($J8*$G8-LN(1+Jumpoverwrite12*BG$2))/$G8,_xll.qlInterpolationInterpolate(BE$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="BG8" s="107" t="str">
         <f>IF(AND(NOT(BE8),AND(BE$4:BE7)),MIN(EXP((BF8-$J8)*$G8),1),"")</f>
@@ -6539,7 +6689,7 @@
       </c>
       <c r="BJ8" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI8),AND(BI$4:BI7))),($J8*$G8-LN(1+jumpoverwrite13*BK$2))/$G8,_xll.qlInterpolationInterpolate(BI$3,$F8,TRUE))</f>
-        <v>-3.3200112510959018E-4</v>
+        <v>-2.1000067367967016E-4</v>
       </c>
       <c r="BK8" s="107" t="str">
         <f>IF(AND(NOT(BI8),AND(BI$4:BI7)),MIN(EXP((BJ8-$J8)*$G8),1),"")</f>
@@ -6552,34 +6702,34 @@
       </c>
       <c r="B9" s="27">
         <f>_xll.qlRateHelperRate($A9,InterestRatesTrigger)</f>
-        <v>-1.2999999999999999E-4</v>
+        <v>-8.9999999999999979E-5</v>
       </c>
       <c r="C9" s="30">
         <f>_xll.qlRateHelperEarliestDate($A9)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D9" s="31">
         <f>_xll.qlRateHelperLatestDate($A9)</f>
-        <v>42046</v>
+        <v>42093</v>
       </c>
       <c r="F9" s="120">
         <f t="shared" si="0"/>
-        <v>42031</v>
+        <v>42077.5</v>
       </c>
       <c r="G9" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D8,D9)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>8.611111111111111E-2</v>
       </c>
       <c r="I9" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="137">
-        <v>-1.7266929028359151E-4</v>
+        <v>-1.0935599069154414E-4</v>
       </c>
       <c r="K9" s="111">
         <f t="shared" si="3"/>
-        <v>42046</v>
+        <v>42093</v>
       </c>
       <c r="L9" s="100"/>
       <c r="M9" s="106" t="b">
@@ -6588,7 +6738,7 @@
       </c>
       <c r="N9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M9),AND(M$4:M8))),($J9*$G9-LN(1+Jumpoverwrite1*O$2))/$G9,_xll.qlInterpolationInterpolate(M$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="O9" s="107" t="str">
         <f>IF(AND(NOT(M9),AND(M$4:M8)),MIN(EXP((N9-$J9)*$G9),1),"")</f>
@@ -6601,11 +6751,11 @@
       </c>
       <c r="R9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q9),AND(Q$4:Q8))),($J9*$G9-LN(1+Jumpoverwrite2*S$2))/$G9,_xll.qlInterpolationInterpolate(Q$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="S9" s="107">
         <f>IF(AND(NOT(Q9),AND(Q$4:Q8)),MIN(EXP((R9-$J9)*$G9),1),"")</f>
-        <v>0.99999111787408357</v>
+        <v>0.99998233463254815</v>
       </c>
       <c r="T9" s="109"/>
       <c r="U9" s="106" t="b">
@@ -6614,7 +6764,7 @@
       </c>
       <c r="V9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U9),AND(U$4:U8))),($J9*$G9-LN(1+Jumpoverwrite3*W$2))/$G9,_xll.qlInterpolationInterpolate(U$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="W9" s="107" t="str">
         <f>IF(AND(NOT(U9),AND(U$4:U8)),MIN(EXP((V9-$J9)*$G9),1),"")</f>
@@ -6627,7 +6777,7 @@
       </c>
       <c r="Z9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y9),AND(Y$4:Y8))),($J9*$G9-LN(1+Jumpoverwrite4*AA$2))/$G9,_xll.qlInterpolationInterpolate(Y$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="AA9" s="107" t="str">
         <f>IF(AND(NOT(Y9),AND(Y$4:Y8)),MIN(EXP((Z9-$J9)*$G9),1),"")</f>
@@ -6640,7 +6790,7 @@
       </c>
       <c r="AD9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC9),AND(AC$4:AC8))),($J9*$G9-LN(1+Jumpoverwrite5*AE$2))/$G9,_xll.qlInterpolationInterpolate(AC$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="AE9" s="107" t="str">
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),MIN(EXP((AD9-$J9)*$G9),1),"")</f>
@@ -6653,7 +6803,7 @@
       </c>
       <c r="AH9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG9),AND(AG$4:AG8))),($J9*$G9-LN(1+Jumpoverwrite6*AI$2))/$G9,_xll.qlInterpolationInterpolate(AG$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="AI9" s="107" t="str">
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),MIN(EXP((AH9-$J9)*$G9),1),"")</f>
@@ -6666,7 +6816,7 @@
       </c>
       <c r="AL9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK9),AND(AK$4:AK8))),($J9*$G9-LN(1+Jumpoverwrite7*AM$2))/$G9,_xll.qlInterpolationInterpolate(AK$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="AM9" s="107" t="str">
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),MIN(EXP((AL9-$J9)*$G9),1),"")</f>
@@ -6678,7 +6828,7 @@
       </c>
       <c r="AP9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO9),AND(AO$4:AO8))),($J9*$G9-LN(1+Jumpoverwrite8*AQ$2))/$G9,_xll.qlInterpolationInterpolate(AO$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="AQ9" s="107" t="str">
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),MIN(EXP((AP9-$J9)*$G9),1),"")</f>
@@ -6690,7 +6840,7 @@
       </c>
       <c r="AT9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS9),AND(AS$4:AS8))),($J9*$G9-LN(1+Jumpoverwrite9*AU$2))/$G9,_xll.qlInterpolationInterpolate(AS$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="AU9" s="107" t="str">
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),MIN(EXP((AT9-$J9)*$G9),1),"")</f>
@@ -6702,7 +6852,7 @@
       </c>
       <c r="AX9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW9),AND(AW$4:AW8))),($J9*$G9-LN(1+Jumpoverwrite10*AY$2))/$G9,_xll.qlInterpolationInterpolate(AW$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="AY9" s="107" t="str">
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),MIN(EXP((AX9-$J9)*$G9),1),"")</f>
@@ -6714,7 +6864,7 @@
       </c>
       <c r="BB9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA9),AND(BA$4:BA8))),($J9*$G9-LN(1+Jumpoverwrite11*BC$2))/$G9,_xll.qlInterpolationInterpolate(BA$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="BC9" s="107" t="str">
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),MIN(EXP((BB9-$J9)*$G9),1),"")</f>
@@ -6726,7 +6876,7 @@
       </c>
       <c r="BF9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE9),AND(BE$4:BE8))),($J9*$G9-LN(1+Jumpoverwrite12*BG$2))/$G9,_xll.qlInterpolationInterpolate(BE$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="BG9" s="107" t="str">
         <f>IF(AND(NOT(BE9),AND(BE$4:BE8)),MIN(EXP((BF9-$J9)*$G9),1),"")</f>
@@ -6738,7 +6888,7 @@
       </c>
       <c r="BJ9" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI9),AND(BI$4:BI8))),($J9*$G9-LN(1+jumpoverwrite13*BK$2))/$G9,_xll.qlInterpolationInterpolate(BI$3,$F9,TRUE))</f>
-        <v>-2.7925527463658524E-4</v>
+        <v>-3.1450400537042325E-4</v>
       </c>
       <c r="BK9" s="107" t="str">
         <f>IF(AND(NOT(BI9),AND(BI$4:BI8)),MIN(EXP((BJ9-$J9)*$G9),1),"")</f>
@@ -6747,38 +6897,38 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="94" t="str">
-        <v>WEURECBOISJAN15</v>
+        <v>WEURECBOISMAR15</v>
       </c>
       <c r="B10" s="27">
         <f>_xll.qlRateHelperRate($A10,InterestRatesTrigger)</f>
-        <v>3.9999999999999983E-5</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="C10" s="30">
         <f>_xll.qlRateHelperEarliestDate($A10)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="D10" s="31">
         <f>_xll.qlRateHelperLatestDate($A10)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="F10" s="120">
         <f t="shared" si="0"/>
-        <v>42060</v>
+        <v>42104.5</v>
       </c>
       <c r="G10" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D9,D10)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I10" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="137">
-        <v>1.4633450514053853E-4</v>
+        <v>-6.4011426895458647E-4</v>
       </c>
       <c r="K10" s="111">
         <f t="shared" si="3"/>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="L10" s="100"/>
       <c r="M10" s="106" t="b">
@@ -6787,7 +6937,7 @@
       </c>
       <c r="N10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M10),AND(M$4:M9))),($J10*$G10-LN(1+Jumpoverwrite1*O$2))/$G10,_xll.qlInterpolationInterpolate(M$3,$F10,TRUE))</f>
-        <v>-2.0277379145072804E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="O10" s="107" t="str">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),MIN(EXP((N10-$J10)*$G10),1),"")</f>
@@ -6800,7 +6950,7 @@
       </c>
       <c r="R10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q10),AND(Q$4:Q9))),($J10*$G10-LN(1+Jumpoverwrite2*S$2))/$G10,_xll.qlInterpolationInterpolate(Q$3,$F10,TRUE))</f>
-        <v>-2.0277379145072804E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="S10" s="107" t="str">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),MIN(EXP((R10-$J10)*$G10),1),"")</f>
@@ -6813,11 +6963,11 @@
       </c>
       <c r="V10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U10),AND(U$4:U9))),($J10*$G10-LN(1+Jumpoverwrite3*W$2))/$G10,_xll.qlInterpolationInterpolate(U$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="W10" s="107">
         <f>IF(AND(NOT(U10),AND(U$4:U9)),MIN(EXP((V10-$J10)*$G10),1),"")</f>
-        <v>0.99997284750112314</v>
+        <v>1</v>
       </c>
       <c r="X10" s="109"/>
       <c r="Y10" s="106" t="b">
@@ -6826,7 +6976,7 @@
       </c>
       <c r="Z10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y10),AND(Y$4:Y9))),($J10*$G10-LN(1+Jumpoverwrite4*AA$2))/$G10,_xll.qlInterpolationInterpolate(Y$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="AA10" s="107" t="str">
         <f>IF(AND(NOT(Y10),AND(Y$4:Y9)),MIN(EXP((Z10-$J10)*$G10),1),"")</f>
@@ -6839,7 +6989,7 @@
       </c>
       <c r="AD10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC10),AND(AC$4:AC9))),($J10*$G10-LN(1+Jumpoverwrite5*AE$2))/$G10,_xll.qlInterpolationInterpolate(AC$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="AE10" s="107" t="str">
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),MIN(EXP((AD10-$J10)*$G10),1),"")</f>
@@ -6852,7 +7002,7 @@
       </c>
       <c r="AH10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG10),AND(AG$4:AG9))),($J10*$G10-LN(1+Jumpoverwrite6*AI$2))/$G10,_xll.qlInterpolationInterpolate(AG$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="AI10" s="107" t="str">
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),MIN(EXP((AH10-$J10)*$G10),1),"")</f>
@@ -6865,7 +7015,7 @@
       </c>
       <c r="AL10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK10),AND(AK$4:AK9))),($J10*$G10-LN(1+Jumpoverwrite7*AM$2))/$G10,_xll.qlInterpolationInterpolate(AK$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="AM10" s="107" t="str">
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),MIN(EXP((AL10-$J10)*$G10),1),"")</f>
@@ -6877,7 +7027,7 @@
       </c>
       <c r="AP10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO10),AND(AO$4:AO9))),($J10*$G10-LN(1+Jumpoverwrite8*AQ$2))/$G10,_xll.qlInterpolationInterpolate(AO$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="AQ10" s="107" t="str">
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),MIN(EXP((AP10-$J10)*$G10),1),"")</f>
@@ -6889,7 +7039,7 @@
       </c>
       <c r="AT10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS10),AND(AS$4:AS9))),($J10*$G10-LN(1+Jumpoverwrite9*AU$2))/$G10,_xll.qlInterpolationInterpolate(AS$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="AU10" s="107" t="str">
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),MIN(EXP((AT10-$J10)*$G10),1),"")</f>
@@ -6901,7 +7051,7 @@
       </c>
       <c r="AX10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW10),AND(AW$4:AW9))),($J10*$G10-LN(1+Jumpoverwrite10*AY$2))/$G10,_xll.qlInterpolationInterpolate(AW$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="AY10" s="107" t="str">
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),MIN(EXP((AX10-$J10)*$G10),1),"")</f>
@@ -6913,7 +7063,7 @@
       </c>
       <c r="BB10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA10),AND(BA$4:BA9))),($J10*$G10-LN(1+Jumpoverwrite11*BC$2))/$G10,_xll.qlInterpolationInterpolate(BA$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="BC10" s="107" t="str">
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),MIN(EXP((BB10-$J10)*$G10),1),"")</f>
@@ -6925,7 +7075,7 @@
       </c>
       <c r="BF10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE10),AND(BE$4:BE9))),($J10*$G10-LN(1+Jumpoverwrite12*BG$2))/$G10,_xll.qlInterpolationInterpolate(BE$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="BG10" s="107" t="str">
         <f>IF(AND(NOT(BE10),AND(BE$4:BE9)),MIN(EXP((BF10-$J10)*$G10),1),"")</f>
@@ -6937,7 +7087,7 @@
       </c>
       <c r="BJ10" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI10),AND(BI$4:BI9))),($J10*$G10-LN(1+jumpoverwrite13*BK$2))/$G10,_xll.qlInterpolationInterpolate(BI$3,$F10,TRUE))</f>
-        <v>-2.0277379145072807E-4</v>
+        <v>-4.5558350315293985E-4</v>
       </c>
       <c r="BK10" s="107" t="str">
         <f>IF(AND(NOT(BI10),AND(BI$4:BI9)),MIN(EXP((BJ10-$J10)*$G10),1),"")</f>
@@ -6946,47 +7096,47 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="94" t="str">
-        <v>WEUREON4M</v>
+        <v>WEUREON3M</v>
       </c>
       <c r="B11" s="27">
         <f>_xll.qlRateHelperRate($A11,InterestRatesTrigger)</f>
-        <v>-1.3999999999999999E-4</v>
+        <v>-2.6000000000000003E-4</v>
       </c>
       <c r="C11" s="30">
         <f>_xll.qlRateHelperEarliestDate($A11)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D11" s="31">
         <f>_xll.qlRateHelperLatestDate($A11)</f>
-        <v>42107</v>
+        <v>42122</v>
       </c>
       <c r="F11" s="120">
         <f t="shared" si="0"/>
-        <v>42090.5</v>
+        <v>42119</v>
       </c>
       <c r="G11" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D10,D11)</f>
-        <v>9.166666666666666E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="I11" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="137">
-        <v>-4.0174811434920963E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="K11" s="111">
         <f t="shared" si="3"/>
-        <v>42107</v>
+        <v>42122</v>
       </c>
       <c r="L11" s="100"/>
       <c r="M11" s="106" t="b">
         <f>IF(AND(NOT(I11),AND(I$4:I10)),TRUE,I11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M11),AND(M$4:M10))),($J11*$G11-LN(1+Jumpoverwrite1*O$2))/$G11,_xll.qlInterpolationInterpolate(M$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="O11" s="107" t="str">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),MIN(EXP((N11-$J11)*$G11),1),"")</f>
@@ -6995,11 +7145,11 @@
       <c r="P11" s="109"/>
       <c r="Q11" s="106" t="b">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),TRUE,M11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q11),AND(Q$4:Q10))),($J11*$G11-LN(1+Jumpoverwrite2*S$2))/$G11,_xll.qlInterpolationInterpolate(Q$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="S11" s="107" t="str">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),MIN(EXP((R11-$J11)*$G11),1),"")</f>
@@ -7008,11 +7158,11 @@
       <c r="T11" s="109"/>
       <c r="U11" s="106" t="b">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),TRUE,Q11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U11),AND(U$4:U10))),($J11*$G11-LN(1+Jumpoverwrite3*W$2))/$G11,_xll.qlInterpolationInterpolate(U$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="W11" s="107" t="str">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),MIN(EXP((V11-$J11)*$G11),1),"")</f>
@@ -7021,15 +7171,15 @@
       <c r="X11" s="109"/>
       <c r="Y11" s="106" t="b">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),TRUE,U11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y11),AND(Y$4:Y10))),($J11*$G11-LN(1+Jumpoverwrite4*AA$2))/$G11,_xll.qlInterpolationInterpolate(Y$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
-      </c>
-      <c r="AA11" s="107">
+        <v>-5.313484186287358E-4</v>
+      </c>
+      <c r="AA11" s="107" t="str">
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),MIN(EXP((Z11-$J11)*$G11),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AB11" s="109"/>
       <c r="AC11" s="106" t="b">
@@ -7038,7 +7188,7 @@
       </c>
       <c r="AD11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC11),AND(AC$4:AC10))),($J11*$G11-LN(1+Jumpoverwrite5*AE$2))/$G11,_xll.qlInterpolationInterpolate(AC$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="AE11" s="107" t="str">
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),MIN(EXP((AD11-$J11)*$G11),1),"")</f>
@@ -7051,7 +7201,7 @@
       </c>
       <c r="AH11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG11),AND(AG$4:AG10))),($J11*$G11-LN(1+Jumpoverwrite6*AI$2))/$G11,_xll.qlInterpolationInterpolate(AG$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="AI11" s="107" t="str">
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),MIN(EXP((AH11-$J11)*$G11),1),"")</f>
@@ -7064,7 +7214,7 @@
       </c>
       <c r="AL11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK11),AND(AK$4:AK10))),($J11*$G11-LN(1+Jumpoverwrite7*AM$2))/$G11,_xll.qlInterpolationInterpolate(AK$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="AM11" s="107" t="str">
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),MIN(EXP((AL11-$J11)*$G11),1),"")</f>
@@ -7076,7 +7226,7 @@
       </c>
       <c r="AP11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO11),AND(AO$4:AO10))),($J11*$G11-LN(1+Jumpoverwrite8*AQ$2))/$G11,_xll.qlInterpolationInterpolate(AO$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="AQ11" s="107" t="str">
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),MIN(EXP((AP11-$J11)*$G11),1),"")</f>
@@ -7088,7 +7238,7 @@
       </c>
       <c r="AT11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS11),AND(AS$4:AS10))),($J11*$G11-LN(1+Jumpoverwrite9*AU$2))/$G11,_xll.qlInterpolationInterpolate(AS$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="AU11" s="107" t="str">
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),MIN(EXP((AT11-$J11)*$G11),1),"")</f>
@@ -7100,7 +7250,7 @@
       </c>
       <c r="AX11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW11),AND(AW$4:AW10))),($J11*$G11-LN(1+Jumpoverwrite10*AY$2))/$G11,_xll.qlInterpolationInterpolate(AW$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="AY11" s="107" t="str">
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),MIN(EXP((AX11-$J11)*$G11),1),"")</f>
@@ -7112,7 +7262,7 @@
       </c>
       <c r="BB11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA11),AND(BA$4:BA10))),($J11*$G11-LN(1+Jumpoverwrite11*BC$2))/$G11,_xll.qlInterpolationInterpolate(BA$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="BC11" s="107" t="str">
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),MIN(EXP((BB11-$J11)*$G11),1),"")</f>
@@ -7124,7 +7274,7 @@
       </c>
       <c r="BF11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE11),AND(BE$4:BE10))),($J11*$G11-LN(1+Jumpoverwrite12*BG$2))/$G11,_xll.qlInterpolationInterpolate(BE$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="BG11" s="107" t="str">
         <f>IF(AND(NOT(BE11),AND(BE$4:BE10)),MIN(EXP((BF11-$J11)*$G11),1),"")</f>
@@ -7136,7 +7286,7 @@
       </c>
       <c r="BJ11" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI11),AND(BI$4:BI10))),($J11*$G11-LN(1+jumpoverwrite13*BK$2))/$G11,_xll.qlInterpolationInterpolate(BI$3,$F11,TRUE))</f>
-        <v>-1.223363694793955E-4</v>
+        <v>-5.313484186287358E-4</v>
       </c>
       <c r="BK11" s="107" t="str">
         <f>IF(AND(NOT(BI11),AND(BI$4:BI10)),MIN(EXP((BJ11-$J11)*$G11),1),"")</f>
@@ -7145,47 +7295,47 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="94" t="str">
-        <v>WEURECBOISMAR15</v>
+        <v>WEUREON4M</v>
       </c>
       <c r="B12" s="27">
         <f>_xll.qlRateHelperRate($A12,InterestRatesTrigger)</f>
-        <v>-3.3E-4</v>
+        <v>-4.2999999999999999E-4</v>
       </c>
       <c r="C12" s="30">
         <f>_xll.qlRateHelperEarliestDate($A12)</f>
-        <v>42074</v>
+        <v>42032</v>
       </c>
       <c r="D12" s="31">
         <f>_xll.qlRateHelperLatestDate($A12)</f>
-        <v>42116</v>
+        <v>42152</v>
       </c>
       <c r="F12" s="120">
         <f t="shared" si="0"/>
-        <v>42111.5</v>
+        <v>42137</v>
       </c>
       <c r="G12" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D11,D12)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I12" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="137">
-        <v>-6.6953226482740285E-5</v>
+        <v>-9.4009792704231041E-4</v>
       </c>
       <c r="K12" s="111">
         <f t="shared" si="3"/>
-        <v>42116</v>
+        <v>42152</v>
       </c>
       <c r="L12" s="100"/>
       <c r="M12" s="106" t="b">
         <f>IF(AND(NOT(I12),AND(I$4:I11)),TRUE,I12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M12),AND(M$4:M11))),($J12*$G12-LN(1+Jumpoverwrite1*O$2))/$G12,_xll.qlInterpolationInterpolate(M$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="O12" s="107" t="str">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),MIN(EXP((N12-$J12)*$G12),1),"")</f>
@@ -7194,11 +7344,11 @@
       <c r="P12" s="109"/>
       <c r="Q12" s="106" t="b">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),TRUE,M12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q12),AND(Q$4:Q11))),($J12*$G12-LN(1+Jumpoverwrite2*S$2))/$G12,_xll.qlInterpolationInterpolate(Q$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="S12" s="107" t="str">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),MIN(EXP((R12-$J12)*$G12),1),"")</f>
@@ -7207,11 +7357,11 @@
       <c r="T12" s="109"/>
       <c r="U12" s="106" t="b">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),TRUE,Q12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U12),AND(U$4:U11))),($J12*$G12-LN(1+Jumpoverwrite3*W$2))/$G12,_xll.qlInterpolationInterpolate(U$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="W12" s="107" t="str">
         <f>IF(AND(NOT(U12),AND(U$4:U11)),MIN(EXP((V12-$J12)*$G12),1),"")</f>
@@ -7220,15 +7370,15 @@
       <c r="X12" s="109"/>
       <c r="Y12" s="106" t="b">
         <f>IF(AND(NOT(U12),AND(U$4:U11)),TRUE,U12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y12),AND(Y$4:Y11))),($J12*$G12-LN(1+Jumpoverwrite4*AA$2))/$G12,_xll.qlInterpolationInterpolate(Y$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
-      </c>
-      <c r="AA12" s="107" t="str">
+        <v>-6.1802138005506864E-4</v>
+      </c>
+      <c r="AA12" s="107">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),MIN(EXP((Z12-$J12)*$G12),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AB12" s="109"/>
       <c r="AC12" s="106" t="b">
@@ -7237,7 +7387,7 @@
       </c>
       <c r="AD12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC12),AND(AC$4:AC11))),($J12*$G12-LN(1+Jumpoverwrite5*AE$2))/$G12,_xll.qlInterpolationInterpolate(AC$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="AE12" s="107" t="str">
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),MIN(EXP((AD12-$J12)*$G12),1),"")</f>
@@ -7250,7 +7400,7 @@
       </c>
       <c r="AH12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG12),AND(AG$4:AG11))),($J12*$G12-LN(1+Jumpoverwrite6*AI$2))/$G12,_xll.qlInterpolationInterpolate(AG$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="AI12" s="107" t="str">
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),MIN(EXP((AH12-$J12)*$G12),1),"")</f>
@@ -7263,7 +7413,7 @@
       </c>
       <c r="AL12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK12),AND(AK$4:AK11))),($J12*$G12-LN(1+Jumpoverwrite7*AM$2))/$G12,_xll.qlInterpolationInterpolate(AK$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="AM12" s="107" t="str">
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),MIN(EXP((AL12-$J12)*$G12),1),"")</f>
@@ -7275,7 +7425,7 @@
       </c>
       <c r="AP12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO12),AND(AO$4:AO11))),($J12*$G12-LN(1+Jumpoverwrite8*AQ$2))/$G12,_xll.qlInterpolationInterpolate(AO$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="AQ12" s="107" t="str">
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),MIN(EXP((AP12-$J12)*$G12),1),"")</f>
@@ -7287,7 +7437,7 @@
       </c>
       <c r="AT12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS12),AND(AS$4:AS11))),($J12*$G12-LN(1+Jumpoverwrite9*AU$2))/$G12,_xll.qlInterpolationInterpolate(AS$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="AU12" s="107" t="str">
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),MIN(EXP((AT12-$J12)*$G12),1),"")</f>
@@ -7299,7 +7449,7 @@
       </c>
       <c r="AX12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW12),AND(AW$4:AW11))),($J12*$G12-LN(1+Jumpoverwrite10*AY$2))/$G12,_xll.qlInterpolationInterpolate(AW$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="AY12" s="107" t="str">
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),MIN(EXP((AX12-$J12)*$G12),1),"")</f>
@@ -7311,7 +7461,7 @@
       </c>
       <c r="BB12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA12),AND(BA$4:BA11))),($J12*$G12-LN(1+Jumpoverwrite11*BC$2))/$G12,_xll.qlInterpolationInterpolate(BA$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="BC12" s="107" t="str">
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),MIN(EXP((BB12-$J12)*$G12),1),"")</f>
@@ -7323,7 +7473,7 @@
       </c>
       <c r="BF12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE12),AND(BE$4:BE11))),($J12*$G12-LN(1+Jumpoverwrite12*BG$2))/$G12,_xll.qlInterpolationInterpolate(BE$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="BG12" s="107" t="str">
         <f>IF(AND(NOT(BE12),AND(BE$4:BE11)),MIN(EXP((BF12-$J12)*$G12),1),"")</f>
@@ -7335,7 +7485,7 @@
       </c>
       <c r="BJ12" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI12),AND(BI$4:BI11))),($J12*$G12-LN(1+jumpoverwrite13*BK$2))/$G12,_xll.qlInterpolationInterpolate(BI$3,$F12,TRUE))</f>
-        <v>-6.6953226482740285E-5</v>
+        <v>-6.1802138005506864E-4</v>
       </c>
       <c r="BK12" s="107" t="str">
         <f>IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
@@ -7344,38 +7494,38 @@
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="str">
-        <v>WEUREON5M</v>
+        <v>WEURECBOISAPR15</v>
       </c>
       <c r="B13" s="27">
         <f>_xll.qlRateHelperRate($A13,InterestRatesTrigger)</f>
-        <v>-1.9000000000000004E-4</v>
+        <v>-8.6000000000000009E-4</v>
       </c>
       <c r="C13" s="30">
         <f>_xll.qlRateHelperEarliestDate($A13)</f>
-        <v>41984</v>
+        <v>42116</v>
       </c>
       <c r="D13" s="31">
         <f>_xll.qlRateHelperLatestDate($A13)</f>
-        <v>42135</v>
+        <v>42165</v>
       </c>
       <c r="F13" s="120">
         <f t="shared" si="0"/>
-        <v>42125.5</v>
+        <v>42158.5</v>
       </c>
       <c r="G13" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D12,D13)</f>
-        <v>5.2777777777777778E-2</v>
+        <v>3.6111111111111108E-2</v>
       </c>
       <c r="I13" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="137">
-        <v>-5.7200802005880199E-4</v>
+        <v>-8.2703370999488842E-4</v>
       </c>
       <c r="K13" s="111">
         <f t="shared" si="3"/>
-        <v>42135</v>
+        <v>42165</v>
       </c>
       <c r="L13" s="100"/>
       <c r="M13" s="106" t="b">
@@ -7384,7 +7534,7 @@
       </c>
       <c r="N13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M13),AND(M$4:M12))),($J13*$G13-LN(1+Jumpoverwrite1*O$2))/$G13,_xll.qlInterpolationInterpolate(M$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="O13" s="107" t="str">
         <f>IF(AND(NOT(M13),AND(M$4:M12)),MIN(EXP((N13-$J13)*$G13),1),"")</f>
@@ -7397,7 +7547,7 @@
       </c>
       <c r="R13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q13),AND(Q$4:Q12))),($J13*$G13-LN(1+Jumpoverwrite2*S$2))/$G13,_xll.qlInterpolationInterpolate(Q$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="S13" s="107" t="str">
         <f>IF(AND(NOT(Q13),AND(Q$4:Q12)),MIN(EXP((R13-$J13)*$G13),1),"")</f>
@@ -7410,7 +7560,7 @@
       </c>
       <c r="V13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U13),AND(U$4:U12))),($J13*$G13-LN(1+Jumpoverwrite3*W$2))/$G13,_xll.qlInterpolationInterpolate(U$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="W13" s="107" t="str">
         <f>IF(AND(NOT(U13),AND(U$4:U12)),MIN(EXP((V13-$J13)*$G13),1),"")</f>
@@ -7423,7 +7573,7 @@
       </c>
       <c r="Z13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y13),AND(Y$4:Y12))),($J13*$G13-LN(1+Jumpoverwrite4*AA$2))/$G13,_xll.qlInterpolationInterpolate(Y$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="AA13" s="107" t="str">
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),MIN(EXP((Z13-$J13)*$G13),1),"")</f>
@@ -7436,7 +7586,7 @@
       </c>
       <c r="AD13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC13),AND(AC$4:AC12))),($J13*$G13-LN(1+Jumpoverwrite5*AE$2))/$G13,_xll.qlInterpolationInterpolate(AC$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="AE13" s="107">
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),MIN(EXP((AD13-$J13)*$G13),1),"")</f>
@@ -7449,7 +7599,7 @@
       </c>
       <c r="AH13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG13),AND(AG$4:AG12))),($J13*$G13-LN(1+Jumpoverwrite6*AI$2))/$G13,_xll.qlInterpolationInterpolate(AG$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="AI13" s="107" t="str">
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),MIN(EXP((AH13-$J13)*$G13),1),"")</f>
@@ -7462,7 +7612,7 @@
       </c>
       <c r="AL13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK13),AND(AK$4:AK12))),($J13*$G13-LN(1+Jumpoverwrite7*AM$2))/$G13,_xll.qlInterpolationInterpolate(AK$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="AM13" s="107" t="str">
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),MIN(EXP((AL13-$J13)*$G13),1),"")</f>
@@ -7474,7 +7624,7 @@
       </c>
       <c r="AP13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO13),AND(AO$4:AO12))),($J13*$G13-LN(1+Jumpoverwrite8*AQ$2))/$G13,_xll.qlInterpolationInterpolate(AO$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="AQ13" s="107" t="str">
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),MIN(EXP((AP13-$J13)*$G13),1),"")</f>
@@ -7486,7 +7636,7 @@
       </c>
       <c r="AT13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS13),AND(AS$4:AS12))),($J13*$G13-LN(1+Jumpoverwrite9*AU$2))/$G13,_xll.qlInterpolationInterpolate(AS$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="AU13" s="107" t="str">
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),MIN(EXP((AT13-$J13)*$G13),1),"")</f>
@@ -7498,7 +7648,7 @@
       </c>
       <c r="AX13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW13),AND(AW$4:AW12))),($J13*$G13-LN(1+Jumpoverwrite10*AY$2))/$G13,_xll.qlInterpolationInterpolate(AW$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="AY13" s="107" t="str">
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),MIN(EXP((AX13-$J13)*$G13),1),"")</f>
@@ -7510,7 +7660,7 @@
       </c>
       <c r="BB13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA13),AND(BA$4:BA12))),($J13*$G13-LN(1+Jumpoverwrite11*BC$2))/$G13,_xll.qlInterpolationInterpolate(BA$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="BC13" s="107" t="str">
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),MIN(EXP((BB13-$J13)*$G13),1),"")</f>
@@ -7522,7 +7672,7 @@
       </c>
       <c r="BF13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE13),AND(BE$4:BE12))),($J13*$G13-LN(1+Jumpoverwrite12*BG$2))/$G13,_xll.qlInterpolationInterpolate(BE$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="BG13" s="107" t="str">
         <f>IF(AND(NOT(BE13),AND(BE$4:BE12)),MIN(EXP((BF13-$J13)*$G13),1),"")</f>
@@ -7534,7 +7684,7 @@
       </c>
       <c r="BJ13" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI13),AND(BI$4:BI12))),($J13*$G13-LN(1+jumpoverwrite13*BK$2))/$G13,_xll.qlInterpolationInterpolate(BI$3,$F13,TRUE))</f>
-        <v>-7.629093132636831E-5</v>
+        <v>-7.2154741731429955E-4</v>
       </c>
       <c r="BK13" s="107" t="str">
         <f>IF(AND(NOT(BI13),AND(BI$4:BI12)),MIN(EXP((BJ13-$J13)*$G13),1),"")</f>
@@ -7543,47 +7693,47 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="str">
-        <v>WEURECBOISAPR15</v>
+        <v>WEUREON5M</v>
       </c>
       <c r="B14" s="27">
         <f>_xll.qlRateHelperRate($A14,InterestRatesTrigger)</f>
-        <v>-4.8999999999999998E-4</v>
+        <v>-5.1000000000000004E-4</v>
       </c>
       <c r="C14" s="30">
         <f>_xll.qlRateHelperEarliestDate($A14)</f>
-        <v>42116</v>
+        <v>42032</v>
       </c>
       <c r="D14" s="31">
         <f>_xll.qlRateHelperLatestDate($A14)</f>
-        <v>42165</v>
+        <v>42184</v>
       </c>
       <c r="F14" s="120">
         <f t="shared" si="0"/>
-        <v>42150</v>
+        <v>42174.5</v>
       </c>
       <c r="G14" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D13,D14)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="I14" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="137">
-        <v>-4.3808827737791696E-4</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="K14" s="111">
         <f t="shared" si="3"/>
-        <v>42165</v>
+        <v>42184</v>
       </c>
       <c r="L14" s="100"/>
       <c r="M14" s="106" t="b">
         <f>IF(AND(NOT(I14),AND(I$4:I13)),TRUE,I14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M14),AND(M$4:M13))),($J14*$G14-LN(1+Jumpoverwrite1*O$2))/$G14,_xll.qlInterpolationInterpolate(M$3,$F14,TRUE))</f>
-        <v>-9.2631914802717371E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="O14" s="107" t="str">
         <f>IF(AND(NOT(M14),AND(M$4:M13)),MIN(EXP((N14-$J14)*$G14),1),"")</f>
@@ -7592,11 +7742,11 @@
       <c r="P14" s="109"/>
       <c r="Q14" s="106" t="b">
         <f>IF(AND(NOT(M14),AND(M$4:M13)),TRUE,M14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q14),AND(Q$4:Q13))),($J14*$G14-LN(1+Jumpoverwrite2*S$2))/$G14,_xll.qlInterpolationInterpolate(Q$3,$F14,TRUE))</f>
-        <v>-9.2631914802717371E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="S14" s="107" t="str">
         <f>IF(AND(NOT(Q14),AND(Q$4:Q13)),MIN(EXP((R14-$J14)*$G14),1),"")</f>
@@ -7605,11 +7755,11 @@
       <c r="T14" s="109"/>
       <c r="U14" s="106" t="b">
         <f>IF(AND(NOT(Q14),AND(Q$4:Q13)),TRUE,Q14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U14),AND(U$4:U13))),($J14*$G14-LN(1+Jumpoverwrite3*W$2))/$G14,_xll.qlInterpolationInterpolate(U$3,$F14,TRUE))</f>
-        <v>-9.2631914802717371E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="W14" s="107" t="str">
         <f>IF(AND(NOT(U14),AND(U$4:U13)),MIN(EXP((V14-$J14)*$G14),1),"")</f>
@@ -7618,11 +7768,11 @@
       <c r="X14" s="109"/>
       <c r="Y14" s="106" t="b">
         <f>IF(AND(NOT(U14),AND(U$4:U13)),TRUE,U14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y14),AND(Y$4:Y13))),($J14*$G14-LN(1+Jumpoverwrite4*AA$2))/$G14,_xll.qlInterpolationInterpolate(Y$3,$F14,TRUE))</f>
-        <v>-9.2631914802717371E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="AA14" s="107" t="str">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
@@ -7631,11 +7781,11 @@
       <c r="AB14" s="109"/>
       <c r="AC14" s="106" t="b">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),TRUE,Y14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+Jumpoverwrite5*AE$2))/$G14,_xll.qlInterpolationInterpolate(AC$3,$F14,TRUE))</f>
-        <v>-9.2631914802717371E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="AE14" s="107" t="str">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
@@ -7644,15 +7794,15 @@
       <c r="AF14" s="109"/>
       <c r="AG14" s="106" t="b">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),TRUE,AC14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG14),AND(AG$4:AG13))),($J14*$G14-LN(1+Jumpoverwrite6*AI$2))/$G14,_xll.qlInterpolationInterpolate(AG$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
-      </c>
-      <c r="AI14" s="107">
+        <v>-7.9859004969326205E-4</v>
+      </c>
+      <c r="AI14" s="107" t="str">
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),MIN(EXP((AH14-$J14)*$G14),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AJ14" s="109"/>
       <c r="AK14" s="106" t="b">
@@ -7661,7 +7811,7 @@
       </c>
       <c r="AL14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK14),AND(AK$4:AK13))),($J14*$G14-LN(1+Jumpoverwrite7*AM$2))/$G14,_xll.qlInterpolationInterpolate(AK$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="AM14" s="107" t="str">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),MIN(EXP((AL14-$J14)*$G14),1),"")</f>
@@ -7673,7 +7823,7 @@
       </c>
       <c r="AP14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO14),AND(AO$4:AO13))),($J14*$G14-LN(1+Jumpoverwrite8*AQ$2))/$G14,_xll.qlInterpolationInterpolate(AO$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="AQ14" s="107" t="str">
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),MIN(EXP((AP14-$J14)*$G14),1),"")</f>
@@ -7685,7 +7835,7 @@
       </c>
       <c r="AT14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS14),AND(AS$4:AS13))),($J14*$G14-LN(1+Jumpoverwrite9*AU$2))/$G14,_xll.qlInterpolationInterpolate(AS$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="AU14" s="107" t="str">
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),MIN(EXP((AT14-$J14)*$G14),1),"")</f>
@@ -7697,7 +7847,7 @@
       </c>
       <c r="AX14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW14),AND(AW$4:AW13))),($J14*$G14-LN(1+Jumpoverwrite10*AY$2))/$G14,_xll.qlInterpolationInterpolate(AW$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="AY14" s="107" t="str">
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),MIN(EXP((AX14-$J14)*$G14),1),"")</f>
@@ -7709,7 +7859,7 @@
       </c>
       <c r="BB14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA14),AND(BA$4:BA13))),($J14*$G14-LN(1+Jumpoverwrite11*BC$2))/$G14,_xll.qlInterpolationInterpolate(BA$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="BC14" s="107" t="str">
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),MIN(EXP((BB14-$J14)*$G14),1),"")</f>
@@ -7721,7 +7871,7 @@
       </c>
       <c r="BF14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE14),AND(BE$4:BE13))),($J14*$G14-LN(1+Jumpoverwrite12*BG$2))/$G14,_xll.qlInterpolationInterpolate(BE$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="BG14" s="107" t="str">
         <f>IF(AND(NOT(BE14),AND(BE$4:BE13)),MIN(EXP((BF14-$J14)*$G14),1),"")</f>
@@ -7733,7 +7883,7 @@
       </c>
       <c r="BJ14" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI14),AND(BI$4:BI13))),($J14*$G14-LN(1+jumpoverwrite13*BK$2))/$G14,_xll.qlInterpolationInterpolate(BI$3,$F14,TRUE))</f>
-        <v>-9.2631914802717357E-5</v>
+        <v>-7.9859004969326205E-4</v>
       </c>
       <c r="BK14" s="107" t="str">
         <f>IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
@@ -7742,38 +7892,38 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="str">
-        <v>WEUREON7M</v>
+        <v>WEURECBOISJUN15</v>
       </c>
       <c r="B15" s="27">
         <f>_xll.qlRateHelperRate($A15,InterestRatesTrigger)</f>
-        <v>-3.0000000000000003E-4</v>
+        <v>-9.8999999999999999E-4</v>
       </c>
       <c r="C15" s="30">
         <f>_xll.qlRateHelperEarliestDate($A15)</f>
-        <v>41984</v>
+        <v>42165</v>
       </c>
       <c r="D15" s="31">
         <f>_xll.qlRateHelperLatestDate($A15)</f>
-        <v>42198</v>
+        <v>42207</v>
       </c>
       <c r="F15" s="120">
         <f t="shared" si="0"/>
-        <v>42181.5</v>
+        <v>42195.5</v>
       </c>
       <c r="G15" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D14,D15)</f>
-        <v>9.166666666666666E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I15" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="137">
-        <v>-6.7793738126583215E-4</v>
+        <v>-1.1482256732913111E-3</v>
       </c>
       <c r="K15" s="111">
         <f t="shared" si="3"/>
-        <v>42198</v>
+        <v>42207</v>
       </c>
       <c r="L15" s="100"/>
       <c r="M15" s="106" t="b">
@@ -7782,7 +7932,7 @@
       </c>
       <c r="N15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M15),AND(M$4:M14))),($J15*$G15-LN(1+Jumpoverwrite1*O$2))/$G15,_xll.qlInterpolationInterpolate(M$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="O15" s="107" t="str">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),MIN(EXP((N15-$J15)*$G15),1),"")</f>
@@ -7795,7 +7945,7 @@
       </c>
       <c r="R15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q15),AND(Q$4:Q14))),($J15*$G15-LN(1+Jumpoverwrite2*S$2))/$G15,_xll.qlInterpolationInterpolate(Q$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="S15" s="107" t="str">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),MIN(EXP((R15-$J15)*$G15),1),"")</f>
@@ -7808,7 +7958,7 @@
       </c>
       <c r="V15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U15),AND(U$4:U14))),($J15*$G15-LN(1+Jumpoverwrite3*W$2))/$G15,_xll.qlInterpolationInterpolate(U$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="W15" s="107" t="str">
         <f>IF(AND(NOT(U15),AND(U$4:U14)),MIN(EXP((V15-$J15)*$G15),1),"")</f>
@@ -7821,7 +7971,7 @@
       </c>
       <c r="Z15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y15),AND(Y$4:Y14))),($J15*$G15-LN(1+Jumpoverwrite4*AA$2))/$G15,_xll.qlInterpolationInterpolate(Y$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="AA15" s="107" t="str">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),MIN(EXP((Z15-$J15)*$G15),1),"")</f>
@@ -7834,7 +7984,7 @@
       </c>
       <c r="AD15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC15),AND(AC$4:AC14))),($J15*$G15-LN(1+Jumpoverwrite5*AE$2))/$G15,_xll.qlInterpolationInterpolate(AC$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="AE15" s="107" t="str">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
@@ -7847,24 +7997,24 @@
       </c>
       <c r="AH15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG15),AND(AG$4:AG14))),($J15*$G15-LN(1+Jumpoverwrite6*AI$2))/$G15,_xll.qlInterpolationInterpolate(AG$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
-      </c>
-      <c r="AI15" s="107" t="str">
+        <v>-7.8747932363521336E-4</v>
+      </c>
+      <c r="AI15" s="107">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AJ15" s="109"/>
       <c r="AK15" s="106" t="b">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),TRUE,AG15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK15),AND(AK$4:AK14))),($J15*$G15-LN(1+Jumpoverwrite7*AM$2))/$G15,_xll.qlInterpolationInterpolate(AK$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
-      </c>
-      <c r="AM15" s="107">
+        <v>-7.8747932363521336E-4</v>
+      </c>
+      <c r="AM15" s="107" t="str">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),MIN(EXP((AL15-$J15)*$G15),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AO15" s="106" t="b">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),TRUE,AK15)</f>
@@ -7872,7 +8022,7 @@
       </c>
       <c r="AP15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO15),AND(AO$4:AO14))),($J15*$G15-LN(1+Jumpoverwrite8*AQ$2))/$G15,_xll.qlInterpolationInterpolate(AO$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="AQ15" s="107" t="str">
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),MIN(EXP((AP15-$J15)*$G15),1),"")</f>
@@ -7884,7 +8034,7 @@
       </c>
       <c r="AT15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS15),AND(AS$4:AS14))),($J15*$G15-LN(1+Jumpoverwrite9*AU$2))/$G15,_xll.qlInterpolationInterpolate(AS$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="AU15" s="107" t="str">
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),MIN(EXP((AT15-$J15)*$G15),1),"")</f>
@@ -7896,7 +8046,7 @@
       </c>
       <c r="AX15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW15),AND(AW$4:AW14))),($J15*$G15-LN(1+Jumpoverwrite10*AY$2))/$G15,_xll.qlInterpolationInterpolate(AW$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="AY15" s="107" t="str">
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),MIN(EXP((AX15-$J15)*$G15),1),"")</f>
@@ -7908,7 +8058,7 @@
       </c>
       <c r="BB15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA15),AND(BA$4:BA14))),($J15*$G15-LN(1+Jumpoverwrite11*BC$2))/$G15,_xll.qlInterpolationInterpolate(BA$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="BC15" s="107" t="str">
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),MIN(EXP((BB15-$J15)*$G15),1),"")</f>
@@ -7920,7 +8070,7 @@
       </c>
       <c r="BF15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE15),AND(BE$4:BE14))),($J15*$G15-LN(1+Jumpoverwrite12*BG$2))/$G15,_xll.qlInterpolationInterpolate(BE$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="BG15" s="107" t="str">
         <f>IF(AND(NOT(BE15),AND(BE$4:BE14)),MIN(EXP((BF15-$J15)*$G15),1),"")</f>
@@ -7932,7 +8082,7 @@
       </c>
       <c r="BJ15" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI15),AND(BI$4:BI14))),($J15*$G15-LN(1+jumpoverwrite13*BK$2))/$G15,_xll.qlInterpolationInterpolate(BI$3,$F15,TRUE))</f>
-        <v>-1.1364175070088044E-4</v>
+        <v>-7.8747932363521336E-4</v>
       </c>
       <c r="BK15" s="107" t="str">
         <f>IF(AND(NOT(BI15),AND(BI$4:BI14)),MIN(EXP((BJ15-$J15)*$G15),1),"")</f>
@@ -7941,38 +8091,38 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="94" t="str">
-        <v>WEURECBOISJUN15</v>
+        <v>WEUREON6M</v>
       </c>
       <c r="B16" s="27">
         <f>_xll.qlRateHelperRate($A16,InterestRatesTrigger)</f>
-        <v>-5.5999999999999995E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="C16" s="30">
         <f>_xll.qlRateHelperEarliestDate($A16)</f>
-        <v>42165</v>
+        <v>42032</v>
       </c>
       <c r="D16" s="31">
         <f>_xll.qlRateHelperLatestDate($A16)</f>
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="F16" s="120">
         <f t="shared" si="0"/>
-        <v>42202.5</v>
+        <v>42210</v>
       </c>
       <c r="G16" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D15,D16)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="I16" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J16" s="137">
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="K16" s="111">
         <f t="shared" si="3"/>
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="L16" s="100"/>
       <c r="M16" s="106" t="b">
@@ -7981,7 +8131,7 @@
       </c>
       <c r="N16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M16),AND(M$4:M15))),($J16*$G16-LN(1+Jumpoverwrite1*O$2))/$G16,_xll.qlInterpolationInterpolate(M$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="O16" s="107" t="str">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),MIN(EXP((N16-$J16)*$G16),1),"")</f>
@@ -7994,7 +8144,7 @@
       </c>
       <c r="R16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q16),AND(Q$4:Q15))),($J16*$G16-LN(1+Jumpoverwrite2*S$2))/$G16,_xll.qlInterpolationInterpolate(Q$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="S16" s="107" t="str">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),MIN(EXP((R16-$J16)*$G16),1),"")</f>
@@ -8007,7 +8157,7 @@
       </c>
       <c r="V16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U16),AND(U$4:U15))),($J16*$G16-LN(1+Jumpoverwrite3*W$2))/$G16,_xll.qlInterpolationInterpolate(U$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="W16" s="107" t="str">
         <f>IF(AND(NOT(U16),AND(U$4:U15)),MIN(EXP((V16-$J16)*$G16),1),"")</f>
@@ -8020,7 +8170,7 @@
       </c>
       <c r="Z16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y16),AND(Y$4:Y15))),($J16*$G16-LN(1+Jumpoverwrite4*AA$2))/$G16,_xll.qlInterpolationInterpolate(Y$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="AA16" s="107" t="str">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),MIN(EXP((Z16-$J16)*$G16),1),"")</f>
@@ -8033,7 +8183,7 @@
       </c>
       <c r="AD16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC16),AND(AC$4:AC15))),($J16*$G16-LN(1+Jumpoverwrite5*AE$2))/$G16,_xll.qlInterpolationInterpolate(AC$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="AE16" s="107" t="str">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),MIN(EXP((AD16-$J16)*$G16),1),"")</f>
@@ -8046,7 +8196,7 @@
       </c>
       <c r="AH16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG16),AND(AG$4:AG15))),($J16*$G16-LN(1+Jumpoverwrite6*AI$2))/$G16,_xll.qlInterpolationInterpolate(AG$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="AI16" s="107" t="str">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
@@ -8059,7 +8209,7 @@
       </c>
       <c r="AL16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK16),AND(AK$4:AK15))),($J16*$G16-LN(1+Jumpoverwrite7*AM$2))/$G16,_xll.qlInterpolationInterpolate(AK$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="AM16" s="107" t="str">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
@@ -8071,7 +8221,7 @@
       </c>
       <c r="AP16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO16),AND(AO$4:AO15))),($J16*$G16-LN(1+Jumpoverwrite8*AQ$2))/$G16,_xll.qlInterpolationInterpolate(AO$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="AQ16" s="107" t="str">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),MIN(EXP((AP16-$J16)*$G16),1),"")</f>
@@ -8083,7 +8233,7 @@
       </c>
       <c r="AT16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS16),AND(AS$4:AS15))),($J16*$G16-LN(1+Jumpoverwrite9*AU$2))/$G16,_xll.qlInterpolationInterpolate(AS$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="AU16" s="107" t="str">
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),MIN(EXP((AT16-$J16)*$G16),1),"")</f>
@@ -8095,7 +8245,7 @@
       </c>
       <c r="AX16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW16),AND(AW$4:AW15))),($J16*$G16-LN(1+Jumpoverwrite10*AY$2))/$G16,_xll.qlInterpolationInterpolate(AW$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="AY16" s="107" t="str">
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),MIN(EXP((AX16-$J16)*$G16),1),"")</f>
@@ -8107,7 +8257,7 @@
       </c>
       <c r="BB16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA16),AND(BA$4:BA15))),($J16*$G16-LN(1+Jumpoverwrite11*BC$2))/$G16,_xll.qlInterpolationInterpolate(BA$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="BC16" s="107" t="str">
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),MIN(EXP((BB16-$J16)*$G16),1),"")</f>
@@ -8119,7 +8269,7 @@
       </c>
       <c r="BF16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE16),AND(BE$4:BE15))),($J16*$G16-LN(1+Jumpoverwrite12*BG$2))/$G16,_xll.qlInterpolationInterpolate(BE$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="BG16" s="107" t="str">
         <f>IF(AND(NOT(BE16),AND(BE$4:BE15)),MIN(EXP((BF16-$J16)*$G16),1),"")</f>
@@ -8131,7 +8281,7 @@
       </c>
       <c r="BJ16" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI16),AND(BI$4:BI15))),($J16*$G16-LN(1+jumpoverwrite13*BK$2))/$G16,_xll.qlInterpolationInterpolate(BI$3,$F16,TRUE))</f>
-        <v>-1.2764830796632248E-4</v>
+        <v>-7.7980763183322732E-4</v>
       </c>
       <c r="BK16" s="107" t="str">
         <f>IF(AND(NOT(BI16),AND(BI$4:BI15)),MIN(EXP((BJ16-$J16)*$G16),1),"")</f>
@@ -8140,38 +8290,38 @@
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="94" t="str">
-        <v>WEUREON8M</v>
+        <v>WEUREON7M</v>
       </c>
       <c r="B17" s="27">
         <f>_xll.qlRateHelperRate($A17,InterestRatesTrigger)</f>
-        <v>-3.3E-4</v>
+        <v>-6.6E-4</v>
       </c>
       <c r="C17" s="30">
         <f>_xll.qlRateHelperEarliestDate($A17)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D17" s="31">
         <f>_xll.qlRateHelperLatestDate($A17)</f>
-        <v>42227</v>
+        <v>42244</v>
       </c>
       <c r="F17" s="120">
         <f t="shared" si="0"/>
-        <v>42217</v>
+        <v>42228.5</v>
       </c>
       <c r="G17" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D16,D17)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>8.611111111111111E-2</v>
       </c>
       <c r="I17" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="137">
-        <v>-7.4221862676989185E-4</v>
+        <v>-1.0106714311724518E-3</v>
       </c>
       <c r="K17" s="111">
         <f t="shared" si="3"/>
-        <v>42227</v>
+        <v>42244</v>
       </c>
       <c r="L17" s="100"/>
       <c r="M17" s="106" t="b">
@@ -8180,7 +8330,7 @@
       </c>
       <c r="N17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M17),AND(M$4:M16))),($J17*$G17-LN(1+Jumpoverwrite1*O$2))/$G17,_xll.qlInterpolationInterpolate(M$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="O17" s="107" t="str">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),MIN(EXP((N17-$J17)*$G17),1),"")</f>
@@ -8193,7 +8343,7 @@
       </c>
       <c r="R17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q17),AND(Q$4:Q16))),($J17*$G17-LN(1+Jumpoverwrite2*S$2))/$G17,_xll.qlInterpolationInterpolate(Q$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="S17" s="107" t="str">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),MIN(EXP((R17-$J17)*$G17),1),"")</f>
@@ -8206,7 +8356,7 @@
       </c>
       <c r="V17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U17),AND(U$4:U16))),($J17*$G17-LN(1+Jumpoverwrite3*W$2))/$G17,_xll.qlInterpolationInterpolate(U$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="W17" s="107" t="str">
         <f>IF(AND(NOT(U17),AND(U$4:U16)),MIN(EXP((V17-$J17)*$G17),1),"")</f>
@@ -8219,7 +8369,7 @@
       </c>
       <c r="Z17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y17),AND(Y$4:Y16))),($J17*$G17-LN(1+Jumpoverwrite4*AA$2))/$G17,_xll.qlInterpolationInterpolate(Y$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="AA17" s="107" t="str">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),MIN(EXP((Z17-$J17)*$G17),1),"")</f>
@@ -8232,7 +8382,7 @@
       </c>
       <c r="AD17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC17),AND(AC$4:AC16))),($J17*$G17-LN(1+Jumpoverwrite5*AE$2))/$G17,_xll.qlInterpolationInterpolate(AC$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="AE17" s="107" t="str">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),MIN(EXP((AD17-$J17)*$G17),1),"")</f>
@@ -8245,7 +8395,7 @@
       </c>
       <c r="AH17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG17),AND(AG$4:AG16))),($J17*$G17-LN(1+Jumpoverwrite6*AI$2))/$G17,_xll.qlInterpolationInterpolate(AG$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="AI17" s="107" t="str">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),MIN(EXP((AH17-$J17)*$G17),1),"")</f>
@@ -8258,23 +8408,23 @@
       </c>
       <c r="AL17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK17),AND(AK$4:AK16))),($J17*$G17-LN(1+Jumpoverwrite7*AM$2))/$G17,_xll.qlInterpolationInterpolate(AK$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
-      </c>
-      <c r="AM17" s="107" t="str">
+        <v>-7.6176737752217422E-4</v>
+      </c>
+      <c r="AM17" s="107">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AO17" s="106" t="b">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),TRUE,AK17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO17),AND(AO$4:AO16))),($J17*$G17-LN(1+Jumpoverwrite8*AQ$2))/$G17,_xll.qlInterpolationInterpolate(AO$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
-      </c>
-      <c r="AQ17" s="107">
+        <v>-7.6176737752217422E-4</v>
+      </c>
+      <c r="AQ17" s="107" t="str">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AS17" s="106" t="b">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),TRUE,AO17)</f>
@@ -8282,7 +8432,7 @@
       </c>
       <c r="AT17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS17),AND(AS$4:AS16))),($J17*$G17-LN(1+Jumpoverwrite9*AU$2))/$G17,_xll.qlInterpolationInterpolate(AS$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="AU17" s="107" t="str">
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),MIN(EXP((AT17-$J17)*$G17),1),"")</f>
@@ -8294,7 +8444,7 @@
       </c>
       <c r="AX17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW17),AND(AW$4:AW16))),($J17*$G17-LN(1+Jumpoverwrite10*AY$2))/$G17,_xll.qlInterpolationInterpolate(AW$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="AY17" s="107" t="str">
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),MIN(EXP((AX17-$J17)*$G17),1),"")</f>
@@ -8306,7 +8456,7 @@
       </c>
       <c r="BB17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA17),AND(BA$4:BA16))),($J17*$G17-LN(1+Jumpoverwrite11*BC$2))/$G17,_xll.qlInterpolationInterpolate(BA$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="BC17" s="107" t="str">
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),MIN(EXP((BB17-$J17)*$G17),1),"")</f>
@@ -8318,7 +8468,7 @@
       </c>
       <c r="BF17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE17),AND(BE$4:BE16))),($J17*$G17-LN(1+Jumpoverwrite12*BG$2))/$G17,_xll.qlInterpolationInterpolate(BE$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="BG17" s="107" t="str">
         <f>IF(AND(NOT(BE17),AND(BE$4:BE16)),MIN(EXP((BF17-$J17)*$G17),1),"")</f>
@@ -8330,7 +8480,7 @@
       </c>
       <c r="BJ17" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI17),AND(BI$4:BI16))),($J17*$G17-LN(1+jumpoverwrite13*BK$2))/$G17,_xll.qlInterpolationInterpolate(BI$3,$F17,TRUE))</f>
-        <v>-1.5310862599032769E-4</v>
+        <v>-7.6176737752217422E-4</v>
       </c>
       <c r="BK17" s="107" t="str">
         <f>IF(AND(NOT(BI17),AND(BI$4:BI16)),MIN(EXP((BJ17-$J17)*$G17),1),"")</f>
@@ -8343,7 +8493,7 @@
       </c>
       <c r="B18" s="27">
         <f>_xll.qlRateHelperRate($A18,InterestRatesTrigger)</f>
-        <v>-5.6999999999999998E-4</v>
+        <v>-1.0200000000000001E-3</v>
       </c>
       <c r="C18" s="30">
         <f>_xll.qlRateHelperEarliestDate($A18)</f>
@@ -8355,18 +8505,18 @@
       </c>
       <c r="F18" s="120">
         <f t="shared" si="0"/>
-        <v>42241.5</v>
+        <v>42250</v>
       </c>
       <c r="G18" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D17,D18)</f>
-        <v>8.0555555555555561E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I18" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="137">
-        <v>-4.5126589558630603E-4</v>
+        <v>-1.1644841340696505E-3</v>
       </c>
       <c r="K18" s="111">
         <f t="shared" si="3"/>
@@ -8379,7 +8529,7 @@
       </c>
       <c r="N18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M18),AND(M$4:M17))),($J18*$G18-LN(1+Jumpoverwrite1*O$2))/$G18,_xll.qlInterpolationInterpolate(M$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="O18" s="107" t="str">
         <f>IF(AND(NOT(M18),AND(M$4:M17)),MIN(EXP((N18-$J18)*$G18),1),"")</f>
@@ -8392,7 +8542,7 @@
       </c>
       <c r="R18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q18),AND(Q$4:Q17))),($J18*$G18-LN(1+Jumpoverwrite2*S$2))/$G18,_xll.qlInterpolationInterpolate(Q$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="S18" s="107" t="str">
         <f>IF(AND(NOT(Q18),AND(Q$4:Q17)),MIN(EXP((R18-$J18)*$G18),1),"")</f>
@@ -8405,7 +8555,7 @@
       </c>
       <c r="V18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U18),AND(U$4:U17))),($J18*$G18-LN(1+Jumpoverwrite3*W$2))/$G18,_xll.qlInterpolationInterpolate(U$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="W18" s="107" t="str">
         <f>IF(AND(NOT(U18),AND(U$4:U17)),MIN(EXP((V18-$J18)*$G18),1),"")</f>
@@ -8418,7 +8568,7 @@
       </c>
       <c r="Z18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y18),AND(Y$4:Y17))),($J18*$G18-LN(1+Jumpoverwrite4*AA$2))/$G18,_xll.qlInterpolationInterpolate(Y$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="AA18" s="107" t="str">
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),MIN(EXP((Z18-$J18)*$G18),1),"")</f>
@@ -8431,7 +8581,7 @@
       </c>
       <c r="AD18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC18),AND(AC$4:AC17))),($J18*$G18-LN(1+Jumpoverwrite5*AE$2))/$G18,_xll.qlInterpolationInterpolate(AC$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="AE18" s="107" t="str">
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),MIN(EXP((AD18-$J18)*$G18),1),"")</f>
@@ -8444,7 +8594,7 @@
       </c>
       <c r="AH18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG18),AND(AG$4:AG17))),($J18*$G18-LN(1+Jumpoverwrite6*AI$2))/$G18,_xll.qlInterpolationInterpolate(AG$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="AI18" s="107" t="str">
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),MIN(EXP((AH18-$J18)*$G18),1),"")</f>
@@ -8457,7 +8607,7 @@
       </c>
       <c r="AL18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK18),AND(AK$4:AK17))),($J18*$G18-LN(1+Jumpoverwrite7*AM$2))/$G18,_xll.qlInterpolationInterpolate(AK$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="AM18" s="107" t="str">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),MIN(EXP((AL18-$J18)*$G18),1),"")</f>
@@ -8469,23 +8619,23 @@
       </c>
       <c r="AP18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO18),AND(AO$4:AO17))),($J18*$G18-LN(1+Jumpoverwrite8*AQ$2))/$G18,_xll.qlInterpolationInterpolate(AO$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
-      </c>
-      <c r="AQ18" s="107" t="str">
+        <v>-7.4080167656608541E-4</v>
+      </c>
+      <c r="AQ18" s="107">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AS18" s="106" t="b">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),TRUE,AO18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS18),AND(AS$4:AS17))),($J18*$G18-LN(1+Jumpoverwrite9*AU$2))/$G18,_xll.qlInterpolationInterpolate(AS$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
-      </c>
-      <c r="AU18" s="107">
+        <v>-7.4080167656608541E-4</v>
+      </c>
+      <c r="AU18" s="107" t="str">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AW18" s="106" t="b">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),TRUE,AS18)</f>
@@ -8493,7 +8643,7 @@
       </c>
       <c r="AX18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW18),AND(AW$4:AW17))),($J18*$G18-LN(1+Jumpoverwrite10*AY$2))/$G18,_xll.qlInterpolationInterpolate(AW$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="AY18" s="107" t="str">
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),MIN(EXP((AX18-$J18)*$G18),1),"")</f>
@@ -8505,7 +8655,7 @@
       </c>
       <c r="BB18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA18),AND(BA$4:BA17))),($J18*$G18-LN(1+Jumpoverwrite11*BC$2))/$G18,_xll.qlInterpolationInterpolate(BA$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="BC18" s="107" t="str">
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),MIN(EXP((BB18-$J18)*$G18),1),"")</f>
@@ -8517,7 +8667,7 @@
       </c>
       <c r="BF18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE18),AND(BE$4:BE17))),($J18*$G18-LN(1+Jumpoverwrite12*BG$2))/$G18,_xll.qlInterpolationInterpolate(BE$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="BG18" s="107" t="str">
         <f>IF(AND(NOT(BE18),AND(BE$4:BE17)),MIN(EXP((BF18-$J18)*$G18),1),"")</f>
@@ -8529,7 +8679,7 @@
       </c>
       <c r="BJ18" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI18),AND(BI$4:BI17))),($J18*$G18-LN(1+jumpoverwrite13*BK$2))/$G18,_xll.qlInterpolationInterpolate(BI$3,$F18,TRUE))</f>
-        <v>-1.9612778403088821E-4</v>
+        <v>-7.4080167656608541E-4</v>
       </c>
       <c r="BK18" s="107" t="str">
         <f>IF(AND(NOT(BI18),AND(BI$4:BI17)),MIN(EXP((BJ18-$J18)*$G18),1),"")</f>
@@ -8538,47 +8688,47 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="94" t="str">
-        <v>WEUREON10M</v>
+        <v>WEUREON8M</v>
       </c>
       <c r="B19" s="27">
         <f>_xll.qlRateHelperRate($A19,InterestRatesTrigger)</f>
-        <v>-3.8999999999999999E-4</v>
+        <v>-6.9000000000000008E-4</v>
       </c>
       <c r="C19" s="30">
         <f>_xll.qlRateHelperEarliestDate($A19)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D19" s="31">
         <f>_xll.qlRateHelperLatestDate($A19)</f>
-        <v>42289</v>
+        <v>42275</v>
       </c>
       <c r="F19" s="120">
         <f t="shared" si="0"/>
-        <v>42272.5</v>
+        <v>42265.5</v>
       </c>
       <c r="G19" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D18,D19)</f>
-        <v>9.166666666666666E-2</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="I19" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="137">
-        <v>-7.7830340610369456E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="K19" s="111">
         <f t="shared" si="3"/>
-        <v>42289</v>
+        <v>42275</v>
       </c>
       <c r="L19" s="100"/>
       <c r="M19" s="106" t="b">
         <f>IF(AND(NOT(I19),AND(I$4:I18)),TRUE,I19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M19),AND(M$4:M18))),($J19*$G19-LN(1+Jumpoverwrite1*O$2))/$G19,_xll.qlInterpolationInterpolate(M$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="O19" s="107" t="str">
         <f>IF(AND(NOT(M19),AND(M$4:M18)),MIN(EXP((N19-$J19)*$G19),1),"")</f>
@@ -8587,11 +8737,11 @@
       <c r="P19" s="109"/>
       <c r="Q19" s="106" t="b">
         <f>IF(AND(NOT(M19),AND(M$4:M18)),TRUE,M19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q19),AND(Q$4:Q18))),($J19*$G19-LN(1+Jumpoverwrite2*S$2))/$G19,_xll.qlInterpolationInterpolate(Q$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="S19" s="107" t="str">
         <f>IF(AND(NOT(Q19),AND(Q$4:Q18)),MIN(EXP((R19-$J19)*$G19),1),"")</f>
@@ -8600,11 +8750,11 @@
       <c r="T19" s="109"/>
       <c r="U19" s="106" t="b">
         <f>IF(AND(NOT(Q19),AND(Q$4:Q18)),TRUE,Q19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U19),AND(U$4:U18))),($J19*$G19-LN(1+Jumpoverwrite3*W$2))/$G19,_xll.qlInterpolationInterpolate(U$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="W19" s="107" t="str">
         <f>IF(AND(NOT(U19),AND(U$4:U18)),MIN(EXP((V19-$J19)*$G19),1),"")</f>
@@ -8613,11 +8763,11 @@
       <c r="X19" s="109"/>
       <c r="Y19" s="106" t="b">
         <f>IF(AND(NOT(U19),AND(U$4:U18)),TRUE,U19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y19),AND(Y$4:Y18))),($J19*$G19-LN(1+Jumpoverwrite4*AA$2))/$G19,_xll.qlInterpolationInterpolate(Y$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="AA19" s="107" t="str">
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),MIN(EXP((Z19-$J19)*$G19),1),"")</f>
@@ -8626,11 +8776,11 @@
       <c r="AB19" s="109"/>
       <c r="AC19" s="106" t="b">
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),TRUE,Y19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC19),AND(AC$4:AC18))),($J19*$G19-LN(1+Jumpoverwrite5*AE$2))/$G19,_xll.qlInterpolationInterpolate(AC$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="AE19" s="107" t="str">
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),MIN(EXP((AD19-$J19)*$G19),1),"")</f>
@@ -8639,11 +8789,11 @@
       <c r="AF19" s="109"/>
       <c r="AG19" s="106" t="b">
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),TRUE,AC19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG19),AND(AG$4:AG18))),($J19*$G19-LN(1+Jumpoverwrite6*AI$2))/$G19,_xll.qlInterpolationInterpolate(AG$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="AI19" s="107" t="str">
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),MIN(EXP((AH19-$J19)*$G19),1),"")</f>
@@ -8652,11 +8802,11 @@
       <c r="AJ19" s="109"/>
       <c r="AK19" s="106" t="b">
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),TRUE,AG19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK19),AND(AK$4:AK18))),($J19*$G19-LN(1+Jumpoverwrite7*AM$2))/$G19,_xll.qlInterpolationInterpolate(AK$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="AM19" s="107" t="str">
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),MIN(EXP((AL19-$J19)*$G19),1),"")</f>
@@ -8664,11 +8814,11 @@
       </c>
       <c r="AO19" s="106" t="b">
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),TRUE,AK19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO19),AND(AO$4:AO18))),($J19*$G19-LN(1+Jumpoverwrite8*AQ$2))/$G19,_xll.qlInterpolationInterpolate(AO$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="AQ19" s="107" t="str">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),MIN(EXP((AP19-$J19)*$G19),1),"")</f>
@@ -8676,11 +8826,11 @@
       </c>
       <c r="AS19" s="106" t="b">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),TRUE,AO19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS19),AND(AS$4:AS18))),($J19*$G19-LN(1+Jumpoverwrite9*AU$2))/$G19,_xll.qlInterpolationInterpolate(AS$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="AU19" s="107" t="str">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
@@ -8688,15 +8838,15 @@
       </c>
       <c r="AW19" s="106" t="b">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),TRUE,AS19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW19),AND(AW$4:AW18))),($J19*$G19-LN(1+Jumpoverwrite10*AY$2))/$G19,_xll.qlInterpolationInterpolate(AW$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
-      </c>
-      <c r="AY19" s="107">
+        <v>-7.2568686890006791E-4</v>
+      </c>
+      <c r="AY19" s="107" t="str">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BA19" s="106" t="b">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),TRUE,AW19)</f>
@@ -8704,7 +8854,7 @@
       </c>
       <c r="BB19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA19),AND(BA$4:BA18))),($J19*$G19-LN(1+Jumpoverwrite11*BC$2))/$G19,_xll.qlInterpolationInterpolate(BA$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="BC19" s="107" t="str">
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),MIN(EXP((BB19-$J19)*$G19),1),"")</f>
@@ -8716,7 +8866,7 @@
       </c>
       <c r="BF19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE19),AND(BE$4:BE18))),($J19*$G19-LN(1+Jumpoverwrite12*BG$2))/$G19,_xll.qlInterpolationInterpolate(BE$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="BG19" s="107" t="str">
         <f>IF(AND(NOT(BE19),AND(BE$4:BE18)),MIN(EXP((BF19-$J19)*$G19),1),"")</f>
@@ -8728,7 +8878,7 @@
       </c>
       <c r="BJ19" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI19),AND(BI$4:BI18))),($J19*$G19-LN(1+jumpoverwrite13*BK$2))/$G19,_xll.qlInterpolationInterpolate(BI$3,$F19,TRUE))</f>
-        <v>-2.5056018808220968E-4</v>
+        <v>-7.2568686890006791E-4</v>
       </c>
       <c r="BK19" s="107" t="str">
         <f>IF(AND(NOT(BI19),AND(BI$4:BI18)),MIN(EXP((BJ19-$J19)*$G19),1),"")</f>
@@ -8741,7 +8891,7 @@
       </c>
       <c r="B20" s="27">
         <f>_xll.qlRateHelperRate($A20,InterestRatesTrigger)</f>
-        <v>-6.2E-4</v>
+        <v>-1.06E-3</v>
       </c>
       <c r="C20" s="30">
         <f>_xll.qlRateHelperEarliestDate($A20)</f>
@@ -8753,18 +8903,18 @@
       </c>
       <c r="F20" s="120">
         <f t="shared" si="0"/>
-        <v>42297</v>
+        <v>42290</v>
       </c>
       <c r="G20" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D19,D20)</f>
-        <v>4.4444444444444446E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I20" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="137">
-        <v>-2.9357934612277023E-4</v>
+        <v>-1.2718565581741165E-3</v>
       </c>
       <c r="K20" s="111">
         <f t="shared" si="3"/>
@@ -8773,11 +8923,11 @@
       <c r="L20" s="100"/>
       <c r="M20" s="106" t="b">
         <f>IF(AND(NOT(I20),AND(I$4:I19)),TRUE,I20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M20),AND(M$4:M19))),($J20*$G20-LN(1+Jumpoverwrite1*O$2))/$G20,_xll.qlInterpolationInterpolate(M$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="O20" s="107" t="str">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),MIN(EXP((N20-$J20)*$G20),1),"")</f>
@@ -8786,11 +8936,11 @@
       <c r="P20" s="109"/>
       <c r="Q20" s="106" t="b">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),TRUE,M20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q20),AND(Q$4:Q19))),($J20*$G20-LN(1+Jumpoverwrite2*S$2))/$G20,_xll.qlInterpolationInterpolate(Q$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="S20" s="107" t="str">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),MIN(EXP((R20-$J20)*$G20),1),"")</f>
@@ -8799,11 +8949,11 @@
       <c r="T20" s="109"/>
       <c r="U20" s="106" t="b">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),TRUE,Q20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U20),AND(U$4:U19))),($J20*$G20-LN(1+Jumpoverwrite3*W$2))/$G20,_xll.qlInterpolationInterpolate(U$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="W20" s="107" t="str">
         <f>IF(AND(NOT(U20),AND(U$4:U19)),MIN(EXP((V20-$J20)*$G20),1),"")</f>
@@ -8812,11 +8962,11 @@
       <c r="X20" s="109"/>
       <c r="Y20" s="106" t="b">
         <f>IF(AND(NOT(U20),AND(U$4:U19)),TRUE,U20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y20),AND(Y$4:Y19))),($J20*$G20-LN(1+Jumpoverwrite4*AA$2))/$G20,_xll.qlInterpolationInterpolate(Y$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="AA20" s="107" t="str">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),MIN(EXP((Z20-$J20)*$G20),1),"")</f>
@@ -8825,11 +8975,11 @@
       <c r="AB20" s="109"/>
       <c r="AC20" s="106" t="b">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),TRUE,Y20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC20),AND(AC$4:AC19))),($J20*$G20-LN(1+Jumpoverwrite5*AE$2))/$G20,_xll.qlInterpolationInterpolate(AC$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="AE20" s="107" t="str">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),MIN(EXP((AD20-$J20)*$G20),1),"")</f>
@@ -8838,11 +8988,11 @@
       <c r="AF20" s="109"/>
       <c r="AG20" s="106" t="b">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),TRUE,AC20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG20),AND(AG$4:AG19))),($J20*$G20-LN(1+Jumpoverwrite6*AI$2))/$G20,_xll.qlInterpolationInterpolate(AG$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="AI20" s="107" t="str">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),MIN(EXP((AH20-$J20)*$G20),1),"")</f>
@@ -8851,11 +9001,11 @@
       <c r="AJ20" s="109"/>
       <c r="AK20" s="106" t="b">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),TRUE,AG20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK20),AND(AK$4:AK19))),($J20*$G20-LN(1+Jumpoverwrite7*AM$2))/$G20,_xll.qlInterpolationInterpolate(AK$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="AM20" s="107" t="str">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),MIN(EXP((AL20-$J20)*$G20),1),"")</f>
@@ -8863,11 +9013,11 @@
       </c>
       <c r="AO20" s="106" t="b">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),TRUE,AK20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO20),AND(AO$4:AO19))),($J20*$G20-LN(1+Jumpoverwrite8*AQ$2))/$G20,_xll.qlInterpolationInterpolate(AO$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="AQ20" s="107" t="str">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),MIN(EXP((AP20-$J20)*$G20),1),"")</f>
@@ -8875,15 +9025,15 @@
       </c>
       <c r="AS20" s="106" t="b">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),TRUE,AO20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS20),AND(AS$4:AS19))),($J20*$G20-LN(1+Jumpoverwrite9*AU$2))/$G20,_xll.qlInterpolationInterpolate(AS$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
-      </c>
-      <c r="AU20" s="107" t="str">
+        <v>-8.4086752565114015E-4</v>
+      </c>
+      <c r="AU20" s="107">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),MIN(EXP((AT20-$J20)*$G20),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AW20" s="106" t="b">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),TRUE,AS20)</f>
@@ -8891,7 +9041,7 @@
       </c>
       <c r="AX20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW20),AND(AW$4:AW19))),($J20*$G20-LN(1+Jumpoverwrite10*AY$2))/$G20,_xll.qlInterpolationInterpolate(AW$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="AY20" s="107" t="str">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
@@ -8903,7 +9053,7 @@
       </c>
       <c r="BB20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA20),AND(BA$4:BA19))),($J20*$G20-LN(1+Jumpoverwrite11*BC$2))/$G20,_xll.qlInterpolationInterpolate(BA$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="BC20" s="107" t="str">
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
@@ -8915,7 +9065,7 @@
       </c>
       <c r="BF20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE20),AND(BE$4:BE19))),($J20*$G20-LN(1+Jumpoverwrite12*BG$2))/$G20,_xll.qlInterpolationInterpolate(BE$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="BG20" s="107" t="str">
         <f>IF(AND(NOT(BE20),AND(BE$4:BE19)),MIN(EXP((BF20-$J20)*$G20),1),"")</f>
@@ -8927,7 +9077,7 @@
       </c>
       <c r="BJ20" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI20),AND(BI$4:BI19))),($J20*$G20-LN(1+jumpoverwrite13*BK$2))/$G20,_xll.qlInterpolationInterpolate(BI$3,$F20,TRUE))</f>
-        <v>-2.9357934612277023E-4</v>
+        <v>-8.4086752565114015E-4</v>
       </c>
       <c r="BK20" s="107" t="str">
         <f>IF(AND(NOT(BI20),AND(BI$4:BI19)),MIN(EXP((BJ20-$J20)*$G20),1),"")</f>
@@ -8936,38 +9086,38 @@
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="str">
-        <v>WEUREON11M</v>
+        <v>WEUREON10M</v>
       </c>
       <c r="B21" s="27">
         <f>_xll.qlRateHelperRate($A21,InterestRatesTrigger)</f>
-        <v>-4.0999999999999994E-4</v>
+        <v>-7.8000000000000009E-4</v>
       </c>
       <c r="C21" s="30">
         <f>_xll.qlRateHelperEarliestDate($A21)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D21" s="31">
         <f>_xll.qlRateHelperLatestDate($A21)</f>
-        <v>42319</v>
+        <v>42338</v>
       </c>
       <c r="F21" s="120">
         <f t="shared" si="0"/>
-        <v>42312</v>
+        <v>42321.5</v>
       </c>
       <c r="G21" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D20,D21)</f>
-        <v>3.888888888888889E-2</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="I21" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="137">
-        <v>-9.7923447766210805E-4</v>
+        <v>-9.9680007227311604E-4</v>
       </c>
       <c r="K21" s="111">
         <f t="shared" si="3"/>
-        <v>42319</v>
+        <v>42338</v>
       </c>
       <c r="L21" s="100"/>
       <c r="M21" s="106" t="b">
@@ -8976,7 +9126,7 @@
       </c>
       <c r="N21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M21),AND(M$4:M20))),($J21*$G21-LN(1+Jumpoverwrite1*O$2))/$G21,_xll.qlInterpolationInterpolate(M$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="O21" s="107" t="str">
         <f>IF(AND(NOT(M21),AND(M$4:M20)),MIN(EXP((N21-$J21)*$G21),1),"")</f>
@@ -8989,7 +9139,7 @@
       </c>
       <c r="R21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q21),AND(Q$4:Q20))),($J21*$G21-LN(1+Jumpoverwrite2*S$2))/$G21,_xll.qlInterpolationInterpolate(Q$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="S21" s="107" t="str">
         <f>IF(AND(NOT(Q21),AND(Q$4:Q20)),MIN(EXP((R21-$J21)*$G21),1),"")</f>
@@ -9002,7 +9152,7 @@
       </c>
       <c r="V21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U21),AND(U$4:U20))),($J21*$G21-LN(1+Jumpoverwrite3*W$2))/$G21,_xll.qlInterpolationInterpolate(U$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="W21" s="107" t="str">
         <f>IF(AND(NOT(U21),AND(U$4:U20)),MIN(EXP((V21-$J21)*$G21),1),"")</f>
@@ -9015,7 +9165,7 @@
       </c>
       <c r="Z21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y21),AND(Y$4:Y20))),($J21*$G21-LN(1+Jumpoverwrite4*AA$2))/$G21,_xll.qlInterpolationInterpolate(Y$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="AA21" s="107" t="str">
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),MIN(EXP((Z21-$J21)*$G21),1),"")</f>
@@ -9028,7 +9178,7 @@
       </c>
       <c r="AD21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC21),AND(AC$4:AC20))),($J21*$G21-LN(1+Jumpoverwrite5*AE$2))/$G21,_xll.qlInterpolationInterpolate(AC$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="AE21" s="107" t="str">
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),MIN(EXP((AD21-$J21)*$G21),1),"")</f>
@@ -9041,7 +9191,7 @@
       </c>
       <c r="AH21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG21),AND(AG$4:AG20))),($J21*$G21-LN(1+Jumpoverwrite6*AI$2))/$G21,_xll.qlInterpolationInterpolate(AG$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="AI21" s="107" t="str">
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),MIN(EXP((AH21-$J21)*$G21),1),"")</f>
@@ -9054,7 +9204,7 @@
       </c>
       <c r="AL21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK21),AND(AK$4:AK20))),($J21*$G21-LN(1+Jumpoverwrite7*AM$2))/$G21,_xll.qlInterpolationInterpolate(AK$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="AM21" s="107" t="str">
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),MIN(EXP((AL21-$J21)*$G21),1),"")</f>
@@ -9066,7 +9216,7 @@
       </c>
       <c r="AP21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO21),AND(AO$4:AO20))),($J21*$G21-LN(1+Jumpoverwrite8*AQ$2))/$G21,_xll.qlInterpolationInterpolate(AO$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="AQ21" s="107" t="str">
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),MIN(EXP((AP21-$J21)*$G21),1),"")</f>
@@ -9078,7 +9228,7 @@
       </c>
       <c r="AT21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS21),AND(AS$4:AS20))),($J21*$G21-LN(1+Jumpoverwrite9*AU$2))/$G21,_xll.qlInterpolationInterpolate(AS$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="AU21" s="107" t="str">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),MIN(EXP((AT21-$J21)*$G21),1),"")</f>
@@ -9090,23 +9240,23 @@
       </c>
       <c r="AX21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW21),AND(AW$4:AW20))),($J21*$G21-LN(1+Jumpoverwrite10*AY$2))/$G21,_xll.qlInterpolationInterpolate(AW$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
-      </c>
-      <c r="AY21" s="107" t="str">
+        <v>-9.8895694147394745E-4</v>
+      </c>
+      <c r="AY21" s="107">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),MIN(EXP((AX21-$J21)*$G21),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BA21" s="106" t="b">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),TRUE,AW21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA21),AND(BA$4:BA20))),($J21*$G21-LN(1+Jumpoverwrite11*BC$2))/$G21,_xll.qlInterpolationInterpolate(BA$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
-      </c>
-      <c r="BC21" s="107">
+        <v>-9.8895694147394745E-4</v>
+      </c>
+      <c r="BC21" s="107" t="str">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BE21" s="106" t="b">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),TRUE,BA21)</f>
@@ -9114,7 +9264,7 @@
       </c>
       <c r="BF21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE21),AND(BE$4:BE20))),($J21*$G21-LN(1+Jumpoverwrite12*BG$2))/$G21,_xll.qlInterpolationInterpolate(BE$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="BG21" s="107" t="str">
         <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
@@ -9126,7 +9276,7 @@
       </c>
       <c r="BJ21" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI21),AND(BI$4:BI20))),($J21*$G21-LN(1+jumpoverwrite13*BK$2))/$G21,_xll.qlInterpolationInterpolate(BI$3,$F21,TRUE))</f>
-        <v>-3.4606453644499318E-4</v>
+        <v>-9.8895694147394745E-4</v>
       </c>
       <c r="BK21" s="107" t="str">
         <f>IF(AND(NOT(BI21),AND(BI$4:BI20)),MIN(EXP((BJ21-$J21)*$G21),1),"")</f>
@@ -9139,7 +9289,7 @@
       </c>
       <c r="B22" s="27">
         <f>_xll.qlRateHelperRate($A22,InterestRatesTrigger)</f>
-        <v>-5.6999999999999998E-4</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="C22" s="30">
         <f>_xll.qlRateHelperEarliestDate($A22)</f>
@@ -9151,18 +9301,18 @@
       </c>
       <c r="F22" s="120">
         <f t="shared" si="0"/>
-        <v>42333</v>
+        <v>42342.5</v>
       </c>
       <c r="G22" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D21,D22)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I22" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="137">
-        <v>-3.6541119118195162E-4</v>
+        <v>-1.4787291520731152E-3</v>
       </c>
       <c r="K22" s="111">
         <f t="shared" si="3"/>
@@ -9175,7 +9325,7 @@
       </c>
       <c r="N22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M22),AND(M$4:M21))),($J22*$G22-LN(1+Jumpoverwrite1*O$2))/$G22,_xll.qlInterpolationInterpolate(M$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="O22" s="107" t="str">
         <f>IF(AND(NOT(M22),AND(M$4:M21)),MIN(EXP((N22-$J22)*$G22),1),"")</f>
@@ -9188,7 +9338,7 @@
       </c>
       <c r="R22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q22),AND(Q$4:Q21))),($J22*$G22-LN(1+Jumpoverwrite2*S$2))/$G22,_xll.qlInterpolationInterpolate(Q$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="S22" s="107" t="str">
         <f>IF(AND(NOT(Q22),AND(Q$4:Q21)),MIN(EXP((R22-$J22)*$G22),1),"")</f>
@@ -9201,7 +9351,7 @@
       </c>
       <c r="V22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U22),AND(U$4:U21))),($J22*$G22-LN(1+Jumpoverwrite3*W$2))/$G22,_xll.qlInterpolationInterpolate(U$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="W22" s="107" t="str">
         <f>IF(AND(NOT(U22),AND(U$4:U21)),MIN(EXP((V22-$J22)*$G22),1),"")</f>
@@ -9214,7 +9364,7 @@
       </c>
       <c r="Z22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y22),AND(Y$4:Y21))),($J22*$G22-LN(1+Jumpoverwrite4*AA$2))/$G22,_xll.qlInterpolationInterpolate(Y$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="AA22" s="107" t="str">
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),MIN(EXP((Z22-$J22)*$G22),1),"")</f>
@@ -9227,7 +9377,7 @@
       </c>
       <c r="AD22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC22),AND(AC$4:AC21))),($J22*$G22-LN(1+Jumpoverwrite5*AE$2))/$G22,_xll.qlInterpolationInterpolate(AC$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="AE22" s="107" t="str">
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),MIN(EXP((AD22-$J22)*$G22),1),"")</f>
@@ -9240,7 +9390,7 @@
       </c>
       <c r="AH22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG22),AND(AG$4:AG21))),($J22*$G22-LN(1+Jumpoverwrite6*AI$2))/$G22,_xll.qlInterpolationInterpolate(AG$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="AI22" s="107" t="str">
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),MIN(EXP((AH22-$J22)*$G22),1),"")</f>
@@ -9253,7 +9403,7 @@
       </c>
       <c r="AL22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK22),AND(AK$4:AK21))),($J22*$G22-LN(1+Jumpoverwrite7*AM$2))/$G22,_xll.qlInterpolationInterpolate(AK$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="AM22" s="107" t="str">
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),MIN(EXP((AL22-$J22)*$G22),1),"")</f>
@@ -9265,7 +9415,7 @@
       </c>
       <c r="AP22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO22),AND(AO$4:AO21))),($J22*$G22-LN(1+Jumpoverwrite8*AQ$2))/$G22,_xll.qlInterpolationInterpolate(AO$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="AQ22" s="107" t="str">
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),MIN(EXP((AP22-$J22)*$G22),1),"")</f>
@@ -9277,7 +9427,7 @@
       </c>
       <c r="AT22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS22),AND(AS$4:AS21))),($J22*$G22-LN(1+Jumpoverwrite9*AU$2))/$G22,_xll.qlInterpolationInterpolate(AS$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="AU22" s="107" t="str">
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),MIN(EXP((AT22-$J22)*$G22),1),"")</f>
@@ -9289,7 +9439,7 @@
       </c>
       <c r="AX22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW22),AND(AW$4:AW21))),($J22*$G22-LN(1+Jumpoverwrite10*AY$2))/$G22,_xll.qlInterpolationInterpolate(AW$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="AY22" s="107" t="str">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),MIN(EXP((AX22-$J22)*$G22),1),"")</f>
@@ -9301,23 +9451,23 @@
       </c>
       <c r="BB22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA22),AND(BA$4:BA21))),($J22*$G22-LN(1+Jumpoverwrite11*BC$2))/$G22,_xll.qlInterpolationInterpolate(BA$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
-      </c>
-      <c r="BC22" s="107" t="str">
+        <v>-1.0876832186891522E-3</v>
+      </c>
+      <c r="BC22" s="107">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),MIN(EXP((BB22-$J22)*$G22),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BE22" s="106" t="b">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),TRUE,BA22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE22),AND(BE$4:BE21))),($J22*$G22-LN(1+Jumpoverwrite12*BG$2))/$G22,_xll.qlInterpolationInterpolate(BE$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
-      </c>
-      <c r="BG22" s="107">
+        <v>-1.0876832186891522E-3</v>
+      </c>
+      <c r="BG22" s="107" t="str">
         <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
-        <v>0.99999578969461889</v>
+        <v/>
       </c>
       <c r="BI22" s="106" t="b">
         <f t="shared" si="1"/>
@@ -9325,7 +9475,7 @@
       </c>
       <c r="BJ22" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI22),AND(BI$4:BI21))),($J22*$G22-LN(1+jumpoverwrite13*BK$2))/$G22,_xll.qlInterpolationInterpolate(BI$3,$F22,TRUE))</f>
-        <v>-4.1954380289610532E-4</v>
+        <v>-1.0876832186891522E-3</v>
       </c>
       <c r="BK22" s="107" t="str">
         <f>IF(AND(NOT(BI22),AND(BI$4:BI21)),MIN(EXP((BJ22-$J22)*$G22),1),"")</f>
@@ -9334,47 +9484,47 @@
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="94" t="str">
-        <v>WEURECBOISDEC15</v>
+        <v>WEUREON11M</v>
       </c>
       <c r="B23" s="27">
         <f>_xll.qlRateHelperRate($A23,InterestRatesTrigger)</f>
-        <v>-3.4000000000000002E-4</v>
+        <v>-8.200000000000002E-4</v>
       </c>
       <c r="C23" s="30">
         <f>_xll.qlRateHelperEarliestDate($A23)</f>
-        <v>42347</v>
+        <v>42032</v>
       </c>
       <c r="D23" s="31">
         <f>_xll.qlRateHelperLatestDate($A23)</f>
-        <v>42395</v>
+        <v>42366</v>
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>42371</v>
+        <v>42356.5</v>
       </c>
       <c r="G23" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D22,D23)</f>
-        <v>0.13333333333333333</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="I23" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="137">
-        <v>-3.4000770689959076E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="K23" s="111">
         <f t="shared" si="3"/>
-        <v>42395</v>
+        <v>42366</v>
       </c>
       <c r="L23" s="100"/>
       <c r="M23" s="106" t="b">
         <f>IF(AND(NOT(I23),AND(I$4:I22)),TRUE,I23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M23),AND(M$4:M22))),($J23*$G23-LN(1+Jumpoverwrite1*O$2))/$G23,_xll.qlInterpolationInterpolate(M$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="O23" s="107" t="str">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),MIN(EXP((N23-$J23)*$G23),1),"")</f>
@@ -9383,11 +9533,11 @@
       <c r="P23" s="109"/>
       <c r="Q23" s="106" t="b">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),TRUE,M23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q23),AND(Q$4:Q22))),($J23*$G23-LN(1+Jumpoverwrite2*S$2))/$G23,_xll.qlInterpolationInterpolate(Q$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="S23" s="107" t="str">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),MIN(EXP((R23-$J23)*$G23),1),"")</f>
@@ -9396,11 +9546,11 @@
       <c r="T23" s="109"/>
       <c r="U23" s="106" t="b">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),TRUE,Q23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U23),AND(U$4:U22))),($J23*$G23-LN(1+Jumpoverwrite3*W$2))/$G23,_xll.qlInterpolationInterpolate(U$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="W23" s="107" t="str">
         <f>IF(AND(NOT(U23),AND(U$4:U22)),MIN(EXP((V23-$J23)*$G23),1),"")</f>
@@ -9409,11 +9559,11 @@
       <c r="X23" s="109"/>
       <c r="Y23" s="106" t="b">
         <f>IF(AND(NOT(U23),AND(U$4:U22)),TRUE,U23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y23),AND(Y$4:Y22))),($J23*$G23-LN(1+Jumpoverwrite4*AA$2))/$G23,_xll.qlInterpolationInterpolate(Y$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="AA23" s="107" t="str">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),MIN(EXP((Z23-$J23)*$G23),1),"")</f>
@@ -9422,11 +9572,11 @@
       <c r="AB23" s="109"/>
       <c r="AC23" s="106" t="b">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),TRUE,Y23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC23),AND(AC$4:AC22))),($J23*$G23-LN(1+Jumpoverwrite5*AE$2))/$G23,_xll.qlInterpolationInterpolate(AC$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="AE23" s="107" t="str">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),MIN(EXP((AD23-$J23)*$G23),1),"")</f>
@@ -9435,11 +9585,11 @@
       <c r="AF23" s="109"/>
       <c r="AG23" s="106" t="b">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),TRUE,AC23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG23),AND(AG$4:AG22))),($J23*$G23-LN(1+Jumpoverwrite6*AI$2))/$G23,_xll.qlInterpolationInterpolate(AG$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="AI23" s="107" t="str">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),MIN(EXP((AH23-$J23)*$G23),1),"")</f>
@@ -9448,11 +9598,11 @@
       <c r="AJ23" s="109"/>
       <c r="AK23" s="106" t="b">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),TRUE,AG23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK23),AND(AK$4:AK22))),($J23*$G23-LN(1+Jumpoverwrite7*AM$2))/$G23,_xll.qlInterpolationInterpolate(AK$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="AM23" s="107" t="str">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),MIN(EXP((AL23-$J23)*$G23),1),"")</f>
@@ -9460,11 +9610,11 @@
       </c>
       <c r="AO23" s="106" t="b">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),TRUE,AK23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO23),AND(AO$4:AO22))),($J23*$G23-LN(1+Jumpoverwrite8*AQ$2))/$G23,_xll.qlInterpolationInterpolate(AO$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="AQ23" s="107" t="str">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),MIN(EXP((AP23-$J23)*$G23),1),"")</f>
@@ -9472,11 +9622,11 @@
       </c>
       <c r="AS23" s="106" t="b">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),TRUE,AO23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS23),AND(AS$4:AS22))),($J23*$G23-LN(1+Jumpoverwrite9*AU$2))/$G23,_xll.qlInterpolationInterpolate(AS$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="AU23" s="107" t="str">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),MIN(EXP((AT23-$J23)*$G23),1),"")</f>
@@ -9484,11 +9634,11 @@
       </c>
       <c r="AW23" s="106" t="b">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),TRUE,AS23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW23),AND(AW$4:AW22))),($J23*$G23-LN(1+Jumpoverwrite10*AY$2))/$G23,_xll.qlInterpolationInterpolate(AW$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="AY23" s="107" t="str">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),MIN(EXP((AX23-$J23)*$G23),1),"")</f>
@@ -9496,11 +9646,11 @@
       </c>
       <c r="BA23" s="106" t="b">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),TRUE,AW23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA23),AND(BA$4:BA22))),($J23*$G23-LN(1+Jumpoverwrite11*BC$2))/$G23,_xll.qlInterpolationInterpolate(BA$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="BC23" s="107" t="str">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),MIN(EXP((BB23-$J23)*$G23),1),"")</f>
@@ -9508,11 +9658,11 @@
       </c>
       <c r="BE23" s="106" t="b">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),TRUE,BA23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE23),AND(BE$4:BE22))),($J23*$G23-LN(1+Jumpoverwrite12*BG$2))/$G23,_xll.qlInterpolationInterpolate(BE$3,$F23,TRUE))</f>
-        <v>-5.5250628504573671E-4</v>
+        <v>-1.1535007368326221E-3</v>
       </c>
       <c r="BG23" s="107" t="str">
         <f>IF(AND(NOT(BE23),AND(BE$4:BE22)),MIN(EXP((BF23-$J23)*$G23),1),"")</f>
@@ -9520,60 +9670,60 @@
       </c>
       <c r="BI23" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ23" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI23),AND(BI$4:BI22))),($J23*$G23-LN(1+jumpoverwrite13*BK$2))/$G23,_xll.qlInterpolationInterpolate(BI$3,$F23,TRUE))</f>
-        <v>-5.5250628504573682E-4</v>
-      </c>
-      <c r="BK23" s="107">
+        <v>-1.1535007368326221E-3</v>
+      </c>
+      <c r="BK23" s="107" t="str">
         <f>IF(AND(NOT(BI23),AND(BI$4:BI22)),MIN(EXP((BJ23-$J23)*$G23),1),"")</f>
-        <v>0.99997166725762687</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="94" t="str">
-        <v>WEUREON15M</v>
+        <v>WEURECBOISDEC15</v>
       </c>
       <c r="B24" s="27">
         <f>_xll.qlRateHelperRate($A24,InterestRatesTrigger)</f>
-        <v>-4.2999999999999999E-4</v>
+        <v>-1.1299999999999999E-3</v>
       </c>
       <c r="C24" s="30">
         <f>_xll.qlRateHelperEarliestDate($A24)</f>
-        <v>41984</v>
+        <v>42347</v>
       </c>
       <c r="D24" s="31">
         <f>_xll.qlRateHelperLatestDate($A24)</f>
-        <v>42440</v>
+        <v>42395</v>
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>42417.5</v>
+        <v>42380.5</v>
       </c>
       <c r="G24" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D23,D24)</f>
-        <v>0.125</v>
+        <v>8.0555555555555561E-2</v>
       </c>
       <c r="I24" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="137">
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1147438789879127E-3</v>
       </c>
       <c r="K24" s="111">
         <f t="shared" si="3"/>
-        <v>42440</v>
+        <v>42395</v>
       </c>
       <c r="L24" s="100"/>
       <c r="M24" s="106" t="b">
         <f>IF(AND(NOT(I24),AND(I$4:I23)),TRUE,I24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M24),AND(M$4:M23))),($J24*$G24-LN(1+Jumpoverwrite1*O$2))/$G24,_xll.qlInterpolationInterpolate(M$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="O24" s="107" t="str">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),MIN(EXP((N24-$J24)*$G24),1),"")</f>
@@ -9582,11 +9732,11 @@
       <c r="P24" s="109"/>
       <c r="Q24" s="106" t="b">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),TRUE,M24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q24),AND(Q$4:Q23))),($J24*$G24-LN(1+Jumpoverwrite2*S$2))/$G24,_xll.qlInterpolationInterpolate(Q$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="S24" s="107" t="str">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),MIN(EXP((R24-$J24)*$G24),1),"")</f>
@@ -9595,11 +9745,11 @@
       <c r="T24" s="109"/>
       <c r="U24" s="106" t="b">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),TRUE,Q24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U24),AND(U$4:U23))),($J24*$G24-LN(1+Jumpoverwrite3*W$2))/$G24,_xll.qlInterpolationInterpolate(U$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="W24" s="107" t="str">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),MIN(EXP((V24-$J24)*$G24),1),"")</f>
@@ -9608,11 +9758,11 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="106" t="b">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),TRUE,U24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y24),AND(Y$4:Y23))),($J24*$G24-LN(1+Jumpoverwrite4*AA$2))/$G24,_xll.qlInterpolationInterpolate(Y$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="AA24" s="107" t="str">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),MIN(EXP((Z24-$J24)*$G24),1),"")</f>
@@ -9621,11 +9771,11 @@
       <c r="AB24" s="109"/>
       <c r="AC24" s="106" t="b">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),TRUE,Y24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC24),AND(AC$4:AC23))),($J24*$G24-LN(1+Jumpoverwrite5*AE$2))/$G24,_xll.qlInterpolationInterpolate(AC$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="AE24" s="107" t="str">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),MIN(EXP((AD24-$J24)*$G24),1),"")</f>
@@ -9634,11 +9784,11 @@
       <c r="AF24" s="109"/>
       <c r="AG24" s="106" t="b">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),TRUE,AC24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG24),AND(AG$4:AG23))),($J24*$G24-LN(1+Jumpoverwrite6*AI$2))/$G24,_xll.qlInterpolationInterpolate(AG$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="AI24" s="107" t="str">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),MIN(EXP((AH24-$J24)*$G24),1),"")</f>
@@ -9647,11 +9797,11 @@
       <c r="AJ24" s="109"/>
       <c r="AK24" s="106" t="b">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),TRUE,AG24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK24),AND(AK$4:AK23))),($J24*$G24-LN(1+Jumpoverwrite7*AM$2))/$G24,_xll.qlInterpolationInterpolate(AK$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="AM24" s="107" t="str">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),MIN(EXP((AL24-$J24)*$G24),1),"")</f>
@@ -9659,11 +9809,11 @@
       </c>
       <c r="AO24" s="106" t="b">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),TRUE,AK24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO24),AND(AO$4:AO23))),($J24*$G24-LN(1+Jumpoverwrite8*AQ$2))/$G24,_xll.qlInterpolationInterpolate(AO$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="AQ24" s="107" t="str">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),MIN(EXP((AP24-$J24)*$G24),1),"")</f>
@@ -9671,11 +9821,11 @@
       </c>
       <c r="AS24" s="106" t="b">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),TRUE,AO24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS24),AND(AS$4:AS23))),($J24*$G24-LN(1+Jumpoverwrite9*AU$2))/$G24,_xll.qlInterpolationInterpolate(AS$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="AU24" s="107" t="str">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),MIN(EXP((AT24-$J24)*$G24),1),"")</f>
@@ -9683,11 +9833,11 @@
       </c>
       <c r="AW24" s="106" t="b">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),TRUE,AS24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW24),AND(AW$4:AW23))),($J24*$G24-LN(1+Jumpoverwrite10*AY$2))/$G24,_xll.qlInterpolationInterpolate(AW$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="AY24" s="107" t="str">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),MIN(EXP((AX24-$J24)*$G24),1),"")</f>
@@ -9695,11 +9845,11 @@
       </c>
       <c r="BA24" s="106" t="b">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),TRUE,AW24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA24),AND(BA$4:BA23))),($J24*$G24-LN(1+Jumpoverwrite11*BC$2))/$G24,_xll.qlInterpolationInterpolate(BA$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="BC24" s="107" t="str">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),MIN(EXP((BB24-$J24)*$G24),1),"")</f>
@@ -9707,23 +9857,23 @@
       </c>
       <c r="BE24" s="106" t="b">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),TRUE,BA24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE24),AND(BE$4:BE23))),($J24*$G24-LN(1+Jumpoverwrite12*BG$2))/$G24,_xll.qlInterpolationInterpolate(BE$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
-      </c>
-      <c r="BG24" s="107" t="str">
+        <v>-1.1597726118438326E-3</v>
+      </c>
+      <c r="BG24" s="107">
         <f>IF(AND(NOT(BE24),AND(BE$4:BE23)),MIN(EXP((BF24-$J24)*$G24),1),"")</f>
-        <v/>
+        <v>0.99999637269198749</v>
       </c>
       <c r="BI24" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI24),AND(BI$4:BI23))),($J24*$G24-LN(1+jumpoverwrite13*BK$2))/$G24,_xll.qlInterpolationInterpolate(BI$3,$F24,TRUE))</f>
-        <v>-7.1521037504462793E-4</v>
+        <v>-1.1597726118438326E-3</v>
       </c>
       <c r="BK24" s="107" t="str">
         <f>IF(AND(NOT(BI24),AND(BI$4:BI23)),MIN(EXP((BJ24-$J24)*$G24),1),"")</f>
@@ -9732,38 +9882,38 @@
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="94" t="str">
-        <v>WEUREON18M</v>
+        <v>WEURECBOISJAN16</v>
       </c>
       <c r="B25" s="27">
         <f>_xll.qlRateHelperRate($A25,InterestRatesTrigger)</f>
-        <v>-4.0999999999999994E-4</v>
+        <v>-1.17E-3</v>
       </c>
       <c r="C25" s="30">
         <f>_xll.qlRateHelperEarliestDate($A25)</f>
-        <v>41984</v>
+        <v>42395</v>
       </c>
       <c r="D25" s="31">
         <f>_xll.qlRateHelperLatestDate($A25)</f>
-        <v>42534</v>
+        <v>42445</v>
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>42487</v>
+        <v>42420</v>
       </c>
       <c r="G25" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D24,D25)</f>
-        <v>0.26111111111111113</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I25" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J25" s="137">
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="K25" s="111">
         <f t="shared" si="3"/>
-        <v>42534</v>
+        <v>42445</v>
       </c>
       <c r="L25" s="100"/>
       <c r="M25" s="106" t="b">
@@ -9772,7 +9922,7 @@
       </c>
       <c r="N25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M25),AND(M$4:M24))),($J25*$G25-LN(1+Jumpoverwrite1*O$2))/$G25,_xll.qlInterpolationInterpolate(M$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="O25" s="107" t="str">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),MIN(EXP((N25-$J25)*$G25),1),"")</f>
@@ -9785,7 +9935,7 @@
       </c>
       <c r="R25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q25),AND(Q$4:Q24))),($J25*$G25-LN(1+Jumpoverwrite2*S$2))/$G25,_xll.qlInterpolationInterpolate(Q$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="S25" s="107" t="str">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),MIN(EXP((R25-$J25)*$G25),1),"")</f>
@@ -9798,7 +9948,7 @@
       </c>
       <c r="V25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U25),AND(U$4:U24))),($J25*$G25-LN(1+Jumpoverwrite3*W$2))/$G25,_xll.qlInterpolationInterpolate(U$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="W25" s="107" t="str">
         <f>IF(AND(NOT(U25),AND(U$4:U24)),MIN(EXP((V25-$J25)*$G25),1),"")</f>
@@ -9811,7 +9961,7 @@
       </c>
       <c r="Z25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y25),AND(Y$4:Y24))),($J25*$G25-LN(1+Jumpoverwrite4*AA$2))/$G25,_xll.qlInterpolationInterpolate(Y$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="AA25" s="107" t="str">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),MIN(EXP((Z25-$J25)*$G25),1),"")</f>
@@ -9824,7 +9974,7 @@
       </c>
       <c r="AD25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC25),AND(AC$4:AC24))),($J25*$G25-LN(1+Jumpoverwrite5*AE$2))/$G25,_xll.qlInterpolationInterpolate(AC$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="AE25" s="107" t="str">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),MIN(EXP((AD25-$J25)*$G25),1),"")</f>
@@ -9837,7 +9987,7 @@
       </c>
       <c r="AH25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG25),AND(AG$4:AG24))),($J25*$G25-LN(1+Jumpoverwrite6*AI$2))/$G25,_xll.qlInterpolationInterpolate(AG$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="AI25" s="107" t="str">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),MIN(EXP((AH25-$J25)*$G25),1),"")</f>
@@ -9850,7 +10000,7 @@
       </c>
       <c r="AL25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK25),AND(AK$4:AK24))),($J25*$G25-LN(1+Jumpoverwrite7*AM$2))/$G25,_xll.qlInterpolationInterpolate(AK$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="AM25" s="107" t="str">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),MIN(EXP((AL25-$J25)*$G25),1),"")</f>
@@ -9862,7 +10012,7 @@
       </c>
       <c r="AP25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO25),AND(AO$4:AO24))),($J25*$G25-LN(1+Jumpoverwrite8*AQ$2))/$G25,_xll.qlInterpolationInterpolate(AO$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="AQ25" s="107" t="str">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),MIN(EXP((AP25-$J25)*$G25),1),"")</f>
@@ -9874,7 +10024,7 @@
       </c>
       <c r="AT25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS25),AND(AS$4:AS24))),($J25*$G25-LN(1+Jumpoverwrite9*AU$2))/$G25,_xll.qlInterpolationInterpolate(AS$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="AU25" s="107" t="str">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),MIN(EXP((AT25-$J25)*$G25),1),"")</f>
@@ -9886,7 +10036,7 @@
       </c>
       <c r="AX25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW25),AND(AW$4:AW24))),($J25*$G25-LN(1+Jumpoverwrite10*AY$2))/$G25,_xll.qlInterpolationInterpolate(AW$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="AY25" s="107" t="str">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),MIN(EXP((AX25-$J25)*$G25),1),"")</f>
@@ -9898,7 +10048,7 @@
       </c>
       <c r="BB25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA25),AND(BA$4:BA24))),($J25*$G25-LN(1+Jumpoverwrite11*BC$2))/$G25,_xll.qlInterpolationInterpolate(BA$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="BC25" s="107" t="str">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),MIN(EXP((BB25-$J25)*$G25),1),"")</f>
@@ -9910,7 +10060,7 @@
       </c>
       <c r="BF25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE25),AND(BE$4:BE24))),($J25*$G25-LN(1+Jumpoverwrite12*BG$2))/$G25,_xll.qlInterpolationInterpolate(BE$3,$F25,TRUE))</f>
-        <v>-3.1304220427862313E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="BG25" s="107" t="str">
         <f>IF(AND(NOT(BE25),AND(BE$4:BE24)),MIN(EXP((BF25-$J25)*$G25),1),"")</f>
@@ -9918,11 +10068,11 @@
       </c>
       <c r="BI25" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI25),AND(BI$4:BI24))),($J25*$G25-LN(1+jumpoverwrite13*BK$2))/$G25,_xll.qlInterpolationInterpolate(BI$3,$F25,TRUE))</f>
-        <v>-9.5839175687092775E-4</v>
+        <v>-1.1700950727997837E-3</v>
       </c>
       <c r="BK25" s="107" t="str">
         <f>IF(AND(NOT(BI25),AND(BI$4:BI24)),MIN(EXP((BJ25-$J25)*$G25),1),"")</f>
@@ -9931,47 +10081,47 @@
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="94" t="str">
-        <v>WEUREON21M</v>
+        <v>WEUREON15M</v>
       </c>
       <c r="B26" s="27">
         <f>_xll.qlRateHelperRate($A26,InterestRatesTrigger)</f>
-        <v>-3.7999999999999997E-4</v>
+        <v>-8.8999999999999995E-4</v>
       </c>
       <c r="C26" s="30">
         <f>_xll.qlRateHelperEarliestDate($A26)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D26" s="31">
         <f>_xll.qlRateHelperLatestDate($A26)</f>
-        <v>42625</v>
+        <v>42488</v>
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>42579.5</v>
+        <v>42466.5</v>
       </c>
       <c r="G26" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D25,D26)</f>
-        <v>0.25277777777777777</v>
+        <v>0.11944444444444445</v>
       </c>
       <c r="I26" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="137">
-        <v>-1.9876005065665034E-4</v>
+        <v>-9.573129649413808E-4</v>
       </c>
       <c r="K26" s="111">
         <f t="shared" si="3"/>
-        <v>42625</v>
+        <v>42488</v>
       </c>
       <c r="L26" s="100"/>
       <c r="M26" s="106" t="b">
         <f>IF(AND(NOT(I26),AND(I$4:I25)),TRUE,I26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M26),AND(M$4:M25))),($J26*$G26-LN(1+Jumpoverwrite1*O$2))/$G26,_xll.qlInterpolationInterpolate(M$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="O26" s="107" t="str">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),MIN(EXP((N26-$J26)*$G26),1),"")</f>
@@ -9980,11 +10130,11 @@
       <c r="P26" s="109"/>
       <c r="Q26" s="106" t="b">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),TRUE,M26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q26),AND(Q$4:Q25))),($J26*$G26-LN(1+Jumpoverwrite2*S$2))/$G26,_xll.qlInterpolationInterpolate(Q$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="S26" s="107" t="str">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),MIN(EXP((R26-$J26)*$G26),1),"")</f>
@@ -9993,11 +10143,11 @@
       <c r="T26" s="109"/>
       <c r="U26" s="106" t="b">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),TRUE,Q26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U26),AND(U$4:U25))),($J26*$G26-LN(1+Jumpoverwrite3*W$2))/$G26,_xll.qlInterpolationInterpolate(U$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="W26" s="107" t="str">
         <f>IF(AND(NOT(U26),AND(U$4:U25)),MIN(EXP((V26-$J26)*$G26),1),"")</f>
@@ -10006,11 +10156,11 @@
       <c r="X26" s="109"/>
       <c r="Y26" s="106" t="b">
         <f>IF(AND(NOT(U26),AND(U$4:U25)),TRUE,U26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y26),AND(Y$4:Y25))),($J26*$G26-LN(1+Jumpoverwrite4*AA$2))/$G26,_xll.qlInterpolationInterpolate(Y$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="AA26" s="107" t="str">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),MIN(EXP((Z26-$J26)*$G26),1),"")</f>
@@ -10019,11 +10169,11 @@
       <c r="AB26" s="109"/>
       <c r="AC26" s="106" t="b">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),TRUE,Y26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC26),AND(AC$4:AC25))),($J26*$G26-LN(1+Jumpoverwrite5*AE$2))/$G26,_xll.qlInterpolationInterpolate(AC$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="AE26" s="107" t="str">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),MIN(EXP((AD26-$J26)*$G26),1),"")</f>
@@ -10032,11 +10182,11 @@
       <c r="AF26" s="109"/>
       <c r="AG26" s="106" t="b">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),TRUE,AC26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG26),AND(AG$4:AG25))),($J26*$G26-LN(1+Jumpoverwrite6*AI$2))/$G26,_xll.qlInterpolationInterpolate(AG$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="AI26" s="107" t="str">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),MIN(EXP((AH26-$J26)*$G26),1),"")</f>
@@ -10045,11 +10195,11 @@
       <c r="AJ26" s="109"/>
       <c r="AK26" s="106" t="b">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),TRUE,AG26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK26),AND(AK$4:AK25))),($J26*$G26-LN(1+Jumpoverwrite7*AM$2))/$G26,_xll.qlInterpolationInterpolate(AK$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="AM26" s="107" t="str">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),MIN(EXP((AL26-$J26)*$G26),1),"")</f>
@@ -10057,11 +10207,11 @@
       </c>
       <c r="AO26" s="106" t="b">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),TRUE,AK26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO26),AND(AO$4:AO25))),($J26*$G26-LN(1+Jumpoverwrite8*AQ$2))/$G26,_xll.qlInterpolationInterpolate(AO$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="AQ26" s="107" t="str">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),MIN(EXP((AP26-$J26)*$G26),1),"")</f>
@@ -10069,11 +10219,11 @@
       </c>
       <c r="AS26" s="106" t="b">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),TRUE,AO26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS26),AND(AS$4:AS25))),($J26*$G26-LN(1+Jumpoverwrite9*AU$2))/$G26,_xll.qlInterpolationInterpolate(AS$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="AU26" s="107" t="str">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),MIN(EXP((AT26-$J26)*$G26),1),"")</f>
@@ -10081,11 +10231,11 @@
       </c>
       <c r="AW26" s="106" t="b">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),TRUE,AS26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW26),AND(AW$4:AW25))),($J26*$G26-LN(1+Jumpoverwrite10*AY$2))/$G26,_xll.qlInterpolationInterpolate(AW$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="AY26" s="107" t="str">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),MIN(EXP((AX26-$J26)*$G26),1),"")</f>
@@ -10093,11 +10243,11 @@
       </c>
       <c r="BA26" s="106" t="b">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),TRUE,AW26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA26),AND(BA$4:BA25))),($J26*$G26-LN(1+Jumpoverwrite11*BC$2))/$G26,_xll.qlInterpolationInterpolate(BA$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="BC26" s="107" t="str">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),MIN(EXP((BB26-$J26)*$G26),1),"")</f>
@@ -10105,11 +10255,11 @@
       </c>
       <c r="BE26" s="106" t="b">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),TRUE,BA26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE26),AND(BE$4:BE25))),($J26*$G26-LN(1+Jumpoverwrite12*BG$2))/$G26,_xll.qlInterpolationInterpolate(BE$3,$F26,TRUE))</f>
-        <v>-1.9876005065665034E-4</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="BG26" s="107" t="str">
         <f>IF(AND(NOT(BE26),AND(BE$4:BE25)),MIN(EXP((BF26-$J26)*$G26),1),"")</f>
@@ -10117,11 +10267,11 @@
       </c>
       <c r="BI26" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI26),AND(BI$4:BI25))),($J26*$G26-LN(1+jumpoverwrite13*BK$2))/$G26,_xll.qlInterpolationInterpolate(BI$3,$F26,TRUE))</f>
-        <v>-1.282050430524636E-3</v>
+        <v>-1.1293533775105689E-3</v>
       </c>
       <c r="BK26" s="107" t="str">
         <f>IF(AND(NOT(BI26),AND(BI$4:BI25)),MIN(EXP((BJ26-$J26)*$G26),1),"")</f>
@@ -10130,23 +10280,23 @@
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="94" t="str">
-        <v>WEUREON2Y</v>
+        <v>WEUREON18M</v>
       </c>
       <c r="B27" s="27">
         <f>_xll.qlRateHelperRate($A27,InterestRatesTrigger)</f>
-        <v>-3.2000000000000003E-4</v>
+        <v>-9.2000000000000003E-4</v>
       </c>
       <c r="C27" s="30">
         <f>_xll.qlRateHelperEarliestDate($A27)</f>
-        <v>41984</v>
+        <v>42032</v>
       </c>
       <c r="D27" s="31">
         <f>_xll.qlRateHelperLatestDate($A27)</f>
-        <v>42716</v>
+        <v>42579</v>
       </c>
       <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>42670.5</v>
+        <v>42533.5</v>
       </c>
       <c r="G27" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D26,D27)</f>
@@ -10157,11 +10307,11 @@
         <v>1</v>
       </c>
       <c r="J27" s="137">
-        <v>1.0260844121153788E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="K27" s="111">
         <f t="shared" si="3"/>
-        <v>42716</v>
+        <v>42579</v>
       </c>
       <c r="L27" s="100"/>
       <c r="M27" s="106" t="b">
@@ -10170,7 +10320,7 @@
       </c>
       <c r="N27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M27),AND(M$4:M26))),($J27*$G27-LN(1+Jumpoverwrite1*O$2))/$G27,_xll.qlInterpolationInterpolate(M$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="O27" s="107" t="str">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),MIN(EXP((N27-$J27)*$G27),1),"")</f>
@@ -10183,7 +10333,7 @@
       </c>
       <c r="R27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q27),AND(Q$4:Q26))),($J27*$G27-LN(1+Jumpoverwrite2*S$2))/$G27,_xll.qlInterpolationInterpolate(Q$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="S27" s="107" t="str">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),MIN(EXP((R27-$J27)*$G27),1),"")</f>
@@ -10196,7 +10346,7 @@
       </c>
       <c r="V27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U27),AND(U$4:U26))),($J27*$G27-LN(1+Jumpoverwrite3*W$2))/$G27,_xll.qlInterpolationInterpolate(U$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="W27" s="107" t="str">
         <f>IF(AND(NOT(U27),AND(U$4:U26)),MIN(EXP((V27-$J27)*$G27),1),"")</f>
@@ -10209,7 +10359,7 @@
       </c>
       <c r="Z27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y27),AND(Y$4:Y26))),($J27*$G27-LN(1+Jumpoverwrite4*AA$2))/$G27,_xll.qlInterpolationInterpolate(Y$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="AA27" s="107" t="str">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),MIN(EXP((Z27-$J27)*$G27),1),"")</f>
@@ -10222,7 +10372,7 @@
       </c>
       <c r="AD27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC27),AND(AC$4:AC26))),($J27*$G27-LN(1+Jumpoverwrite5*AE$2))/$G27,_xll.qlInterpolationInterpolate(AC$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="AE27" s="107" t="str">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),MIN(EXP((AD27-$J27)*$G27),1),"")</f>
@@ -10235,7 +10385,7 @@
       </c>
       <c r="AH27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG27),AND(AG$4:AG26))),($J27*$G27-LN(1+Jumpoverwrite6*AI$2))/$G27,_xll.qlInterpolationInterpolate(AG$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="AI27" s="107" t="str">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),MIN(EXP((AH27-$J27)*$G27),1),"")</f>
@@ -10248,7 +10398,7 @@
       </c>
       <c r="AL27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK27),AND(AK$4:AK26))),($J27*$G27-LN(1+Jumpoverwrite7*AM$2))/$G27,_xll.qlInterpolationInterpolate(AK$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="AM27" s="107" t="str">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),MIN(EXP((AL27-$J27)*$G27),1),"")</f>
@@ -10260,7 +10410,7 @@
       </c>
       <c r="AP27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO27),AND(AO$4:AO26))),($J27*$G27-LN(1+Jumpoverwrite8*AQ$2))/$G27,_xll.qlInterpolationInterpolate(AO$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="AQ27" s="107" t="str">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),MIN(EXP((AP27-$J27)*$G27),1),"")</f>
@@ -10272,7 +10422,7 @@
       </c>
       <c r="AT27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS27),AND(AS$4:AS26))),($J27*$G27-LN(1+Jumpoverwrite9*AU$2))/$G27,_xll.qlInterpolationInterpolate(AS$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="AU27" s="107" t="str">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),MIN(EXP((AT27-$J27)*$G27),1),"")</f>
@@ -10284,7 +10434,7 @@
       </c>
       <c r="AX27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW27),AND(AW$4:AW26))),($J27*$G27-LN(1+Jumpoverwrite10*AY$2))/$G27,_xll.qlInterpolationInterpolate(AW$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="AY27" s="107" t="str">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),MIN(EXP((AX27-$J27)*$G27),1),"")</f>
@@ -10296,7 +10446,7 @@
       </c>
       <c r="BB27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA27),AND(BA$4:BA26))),($J27*$G27-LN(1+Jumpoverwrite11*BC$2))/$G27,_xll.qlInterpolationInterpolate(BA$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="BC27" s="107" t="str">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),MIN(EXP((BB27-$J27)*$G27),1),"")</f>
@@ -10308,7 +10458,7 @@
       </c>
       <c r="BF27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE27),AND(BE$4:BE26))),($J27*$G27-LN(1+Jumpoverwrite12*BG$2))/$G27,_xll.qlInterpolationInterpolate(BE$3,$F27,TRUE))</f>
-        <v>1.0260844121153786E-4</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="BG27" s="107" t="str">
         <f>IF(AND(NOT(BE27),AND(BE$4:BE26)),MIN(EXP((BF27-$J27)*$G27),1),"")</f>
@@ -10316,11 +10466,11 @@
       </c>
       <c r="BI27" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ27" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI27),AND(BI$4:BI26))),($J27*$G27-LN(1+jumpoverwrite13*BK$2))/$G27,_xll.qlInterpolationInterpolate(BI$3,$F27,TRUE))</f>
-        <v>-1.6004605851461218E-3</v>
+        <v>-1.0706502896744958E-3</v>
       </c>
       <c r="BK27" s="107" t="str">
         <f>IF(AND(NOT(BI27),AND(BI$4:BI26)),MIN(EXP((BJ27-$J27)*$G27),1),"")</f>
@@ -10328,48 +10478,48 @@
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A28" s="94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B28" s="27" t="e">
+      <c r="A28" s="94" t="str">
+        <v>WEUREON21M</v>
+      </c>
+      <c r="B28" s="27">
         <f>_xll.qlRateHelperRate($A28,InterestRatesTrigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" s="30" t="e">
+        <v>-9.1E-4</v>
+      </c>
+      <c r="C28" s="30">
         <f>_xll.qlRateHelperEarliestDate($A28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="31" t="e">
+        <v>42032</v>
+      </c>
+      <c r="D28" s="31">
         <f>_xll.qlRateHelperLatestDate($A28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="120" t="e">
+        <v>42671</v>
+      </c>
+      <c r="F28" s="120">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="121" t="e">
+        <v>42625</v>
+      </c>
+      <c r="G28" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D27,D28)</f>
-        <v>#NUM!</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="I28" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="J28" s="137">
+        <v>-8.5106189791269403E-4</v>
+      </c>
+      <c r="K28" s="111">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42671</v>
       </c>
       <c r="L28" s="100"/>
       <c r="M28" s="106" t="b">
         <f>IF(AND(NOT(I28),AND(I$4:I27)),TRUE,I28)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="N28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M28),AND(M$4:M27))),($J28*$G28-LN(1+Jumpoverwrite1*O$2))/$G28,_xll.qlInterpolationInterpolate(M$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="O28" s="107" t="str">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),MIN(EXP((N28-$J28)*$G28),1),"")</f>
@@ -10378,11 +10528,11 @@
       <c r="P28" s="109"/>
       <c r="Q28" s="106" t="b">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),TRUE,M28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="R28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q28),AND(Q$4:Q27))),($J28*$G28-LN(1+Jumpoverwrite2*S$2))/$G28,_xll.qlInterpolationInterpolate(Q$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="S28" s="107" t="str">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),MIN(EXP((R28-$J28)*$G28),1),"")</f>
@@ -10391,11 +10541,11 @@
       <c r="T28" s="109"/>
       <c r="U28" s="106" t="b">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),TRUE,Q28)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="V28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U28),AND(U$4:U27))),($J28*$G28-LN(1+Jumpoverwrite3*W$2))/$G28,_xll.qlInterpolationInterpolate(U$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="W28" s="107" t="str">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),MIN(EXP((V28-$J28)*$G28),1),"")</f>
@@ -10404,11 +10554,11 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="106" t="b">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),TRUE,U28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y28),AND(Y$4:Y27))),($J28*$G28-LN(1+Jumpoverwrite4*AA$2))/$G28,_xll.qlInterpolationInterpolate(Y$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="AA28" s="107" t="str">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),MIN(EXP((Z28-$J28)*$G28),1),"")</f>
@@ -10417,11 +10567,11 @@
       <c r="AB28" s="109"/>
       <c r="AC28" s="106" t="b">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),TRUE,Y28)</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC28),AND(AC$4:AC27))),($J28*$G28-LN(1+Jumpoverwrite5*AE$2))/$G28,_xll.qlInterpolationInterpolate(AC$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="AE28" s="107" t="str">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),MIN(EXP((AD28-$J28)*$G28),1),"")</f>
@@ -10430,11 +10580,11 @@
       <c r="AF28" s="109"/>
       <c r="AG28" s="106" t="b">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),TRUE,AC28)</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG28),AND(AG$4:AG27))),($J28*$G28-LN(1+Jumpoverwrite6*AI$2))/$G28,_xll.qlInterpolationInterpolate(AG$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="AI28" s="107" t="str">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),MIN(EXP((AH28-$J28)*$G28),1),"")</f>
@@ -10443,11 +10593,11 @@
       <c r="AJ28" s="109"/>
       <c r="AK28" s="106" t="b">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),TRUE,AG28)</f>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK28),AND(AK$4:AK27))),($J28*$G28-LN(1+Jumpoverwrite7*AM$2))/$G28,_xll.qlInterpolationInterpolate(AK$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="AM28" s="107" t="str">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),MIN(EXP((AL28-$J28)*$G28),1),"")</f>
@@ -10455,11 +10605,11 @@
       </c>
       <c r="AO28" s="106" t="b">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),TRUE,AK28)</f>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO28),AND(AO$4:AO27))),($J28*$G28-LN(1+Jumpoverwrite8*AQ$2))/$G28,_xll.qlInterpolationInterpolate(AO$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="AQ28" s="107" t="str">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),MIN(EXP((AP28-$J28)*$G28),1),"")</f>
@@ -10467,11 +10617,11 @@
       </c>
       <c r="AS28" s="106" t="b">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),TRUE,AO28)</f>
-        <v>0</v>
-      </c>
-      <c r="AT28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS28),AND(AS$4:AS27))),($J28*$G28-LN(1+Jumpoverwrite9*AU$2))/$G28,_xll.qlInterpolationInterpolate(AS$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="AU28" s="107" t="str">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),MIN(EXP((AT28-$J28)*$G28),1),"")</f>
@@ -10479,11 +10629,11 @@
       </c>
       <c r="AW28" s="106" t="b">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),TRUE,AS28)</f>
-        <v>0</v>
-      </c>
-      <c r="AX28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW28),AND(AW$4:AW27))),($J28*$G28-LN(1+Jumpoverwrite10*AY$2))/$G28,_xll.qlInterpolationInterpolate(AW$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="AY28" s="107" t="str">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),MIN(EXP((AX28-$J28)*$G28),1),"")</f>
@@ -10491,11 +10641,11 @@
       </c>
       <c r="BA28" s="106" t="b">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),TRUE,AW28)</f>
-        <v>0</v>
-      </c>
-      <c r="BB28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA28),AND(BA$4:BA27))),($J28*$G28-LN(1+Jumpoverwrite11*BC$2))/$G28,_xll.qlInterpolationInterpolate(BA$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="BC28" s="107" t="str">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),MIN(EXP((BB28-$J28)*$G28),1),"")</f>
@@ -10503,11 +10653,11 @@
       </c>
       <c r="BE28" s="106" t="b">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),TRUE,BA28)</f>
-        <v>0</v>
-      </c>
-      <c r="BF28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE28),AND(BE$4:BE27))),($J28*$G28-LN(1+Jumpoverwrite12*BG$2))/$G28,_xll.qlInterpolationInterpolate(BE$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="BG28" s="107" t="str">
         <f>IF(AND(NOT(BE28),AND(BE$4:BE27)),MIN(EXP((BF28-$J28)*$G28),1),"")</f>
@@ -10515,11 +10665,11 @@
       </c>
       <c r="BI28" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI28),AND(BI$4:BI27))),($J28*$G28-LN(1+jumpoverwrite13*BK$2))/$G28,_xll.qlInterpolationInterpolate(BI$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.5106189791269403E-4</v>
       </c>
       <c r="BK28" s="107" t="str">
         <f>IF(AND(NOT(BI28),AND(BI$4:BI27)),MIN(EXP((BJ28-$J28)*$G28),1),"")</f>
@@ -10527,48 +10677,48 @@
       </c>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A29" s="94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B29" s="27" t="e">
+      <c r="A29" s="94" t="str">
+        <v>WEUREON2Y</v>
+      </c>
+      <c r="B29" s="27">
         <f>_xll.qlRateHelperRate($A29,InterestRatesTrigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="30" t="e">
+        <v>-8.7999999999999992E-4</v>
+      </c>
+      <c r="C29" s="30">
         <f>_xll.qlRateHelperEarliestDate($A29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="31" t="e">
+        <v>42032</v>
+      </c>
+      <c r="D29" s="31">
         <f>_xll.qlRateHelperLatestDate($A29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="120" t="e">
+        <v>42765</v>
+      </c>
+      <c r="F29" s="120">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="121" t="e">
+        <v>42718</v>
+      </c>
+      <c r="G29" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D28,D29)</f>
-        <v>#NUM!</v>
+        <v>0.26111111111111113</v>
       </c>
       <c r="I29" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="111" t="e">
+      <c r="J29" s="137">
+        <v>-6.7670114809935042E-4</v>
+      </c>
+      <c r="K29" s="111">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42765</v>
       </c>
       <c r="L29" s="100"/>
       <c r="M29" s="106" t="b">
         <f>IF(AND(NOT(I29),AND(I$4:I28)),TRUE,I29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="102" t="e">
+      <c r="N29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M29),AND(M$4:M28))),($J29*$G29-LN(1+Jumpoverwrite1*O$2))/$G29,_xll.qlInterpolationInterpolate(M$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="O29" s="107" t="str">
         <f>IF(AND(NOT(M29),AND(M$4:M28)),MIN(EXP((N29-$J29)*$G29),1),"")</f>
@@ -10579,9 +10729,9 @@
         <f>IF(AND(NOT(M29),AND(M$4:M28)),TRUE,M29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="102" t="e">
+      <c r="R29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q29),AND(Q$4:Q28))),($J29*$G29-LN(1+Jumpoverwrite2*S$2))/$G29,_xll.qlInterpolationInterpolate(Q$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="S29" s="107" t="str">
         <f>IF(AND(NOT(Q29),AND(Q$4:Q28)),MIN(EXP((R29-$J29)*$G29),1),"")</f>
@@ -10592,9 +10742,9 @@
         <f>IF(AND(NOT(Q29),AND(Q$4:Q28)),TRUE,Q29)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="102" t="e">
+      <c r="V29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U29),AND(U$4:U28))),($J29*$G29-LN(1+Jumpoverwrite3*W$2))/$G29,_xll.qlInterpolationInterpolate(U$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="W29" s="107" t="str">
         <f>IF(AND(NOT(U29),AND(U$4:U28)),MIN(EXP((V29-$J29)*$G29),1),"")</f>
@@ -10605,9 +10755,9 @@
         <f>IF(AND(NOT(U29),AND(U$4:U28)),TRUE,U29)</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="102" t="e">
+      <c r="Z29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y29),AND(Y$4:Y28))),($J29*$G29-LN(1+Jumpoverwrite4*AA$2))/$G29,_xll.qlInterpolationInterpolate(Y$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="AA29" s="107" t="str">
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),MIN(EXP((Z29-$J29)*$G29),1),"")</f>
@@ -10618,9 +10768,9 @@
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),TRUE,Y29)</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="102" t="e">
+      <c r="AD29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC29),AND(AC$4:AC28))),($J29*$G29-LN(1+Jumpoverwrite5*AE$2))/$G29,_xll.qlInterpolationInterpolate(AC$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="AE29" s="107" t="str">
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),MIN(EXP((AD29-$J29)*$G29),1),"")</f>
@@ -10631,9 +10781,9 @@
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),TRUE,AC29)</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="102" t="e">
+      <c r="AH29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG29),AND(AG$4:AG28))),($J29*$G29-LN(1+Jumpoverwrite6*AI$2))/$G29,_xll.qlInterpolationInterpolate(AG$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="AI29" s="107" t="str">
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),MIN(EXP((AH29-$J29)*$G29),1),"")</f>
@@ -10644,9 +10794,9 @@
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),TRUE,AG29)</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="102" t="e">
+      <c r="AL29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK29),AND(AK$4:AK28))),($J29*$G29-LN(1+Jumpoverwrite7*AM$2))/$G29,_xll.qlInterpolationInterpolate(AK$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="AM29" s="107" t="str">
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),MIN(EXP((AL29-$J29)*$G29),1),"")</f>
@@ -10656,9 +10806,9 @@
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),TRUE,AK29)</f>
         <v>0</v>
       </c>
-      <c r="AP29" s="102" t="e">
+      <c r="AP29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO29),AND(AO$4:AO28))),($J29*$G29-LN(1+Jumpoverwrite8*AQ$2))/$G29,_xll.qlInterpolationInterpolate(AO$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="AQ29" s="107" t="str">
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),MIN(EXP((AP29-$J29)*$G29),1),"")</f>
@@ -10668,9 +10818,9 @@
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),TRUE,AO29)</f>
         <v>0</v>
       </c>
-      <c r="AT29" s="102" t="e">
+      <c r="AT29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS29),AND(AS$4:AS28))),($J29*$G29-LN(1+Jumpoverwrite9*AU$2))/$G29,_xll.qlInterpolationInterpolate(AS$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="AU29" s="107" t="str">
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),MIN(EXP((AT29-$J29)*$G29),1),"")</f>
@@ -10680,9 +10830,9 @@
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),TRUE,AS29)</f>
         <v>0</v>
       </c>
-      <c r="AX29" s="102" t="e">
+      <c r="AX29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW29),AND(AW$4:AW28))),($J29*$G29-LN(1+Jumpoverwrite10*AY$2))/$G29,_xll.qlInterpolationInterpolate(AW$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="AY29" s="107" t="str">
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),MIN(EXP((AX29-$J29)*$G29),1),"")</f>
@@ -10692,9 +10842,9 @@
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),TRUE,AW29)</f>
         <v>0</v>
       </c>
-      <c r="BB29" s="102" t="e">
+      <c r="BB29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA29),AND(BA$4:BA28))),($J29*$G29-LN(1+Jumpoverwrite11*BC$2))/$G29,_xll.qlInterpolationInterpolate(BA$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="BC29" s="107" t="str">
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),MIN(EXP((BB29-$J29)*$G29),1),"")</f>
@@ -10704,9 +10854,9 @@
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),TRUE,BA29)</f>
         <v>0</v>
       </c>
-      <c r="BF29" s="102" t="e">
+      <c r="BF29" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE29),AND(BE$4:BE28))),($J29*$G29-LN(1+Jumpoverwrite12*BG$2))/$G29,_xll.qlInterpolationInterpolate(BE$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-6.2787369644987914E-4</v>
       </c>
       <c r="BG29" s="107" t="str">
         <f>IF(AND(NOT(BE29),AND(BE$4:BE28)),MIN(EXP((BF29-$J29)*$G29),1),"")</f>
@@ -10716,13 +10866,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ29" s="102" t="e">
+      <c r="BJ29" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI29),AND(BI$4:BI28))),($J29*$G29-LN(1+jumpoverwrite13*BK$2))/$G29,_xll.qlInterpolationInterpolate(BI$3,$F29,TRUE))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="BK29" s="107" t="str">
+        <v>-6.2787369644987914E-4</v>
+      </c>
+      <c r="BK29" s="107">
         <f>IF(AND(NOT(BI29),AND(BI$4:BI28)),MIN(EXP((BJ29-$J29)*$G29),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.2">
@@ -30642,19 +30792,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="36" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="36" customWidth="1"/>
     <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="36" customWidth="1"/>
@@ -30663,9 +30813,9 @@
     <col min="13" max="13" width="15.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="36" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="36" customWidth="1"/>
-    <col min="18" max="18" width="2" style="36" customWidth="1"/>
+    <col min="16" max="16" width="3" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="5" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="2" style="36" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="8" style="36" customWidth="1"/>
     <col min="20" max="22" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="36" bestFit="1" customWidth="1"/>
@@ -30720,7 +30870,7 @@
       <c r="M3" s="43"/>
       <c r="N3" s="44">
         <f>_xll.ohTrigger(N5:N6)</f>
-        <v>228</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -30763,15 +30913,15 @@
       </c>
       <c r="C5" s="131">
         <f>JumpDate1</f>
-        <v>42004</v>
+        <v>42034</v>
       </c>
       <c r="D5" s="170">
         <f>JumpValue1</f>
-        <v>0.9999824826406053</v>
+        <v>0.99999066675761494</v>
       </c>
       <c r="E5" s="162">
         <f>JumpSize1</f>
-        <v>3.1531523085782998E-3</v>
+        <v>8.3999573460309999E-4</v>
       </c>
       <c r="F5" s="163"/>
       <c r="G5" s="164">
@@ -30791,7 +30941,7 @@
       </c>
       <c r="M5" s="135">
         <f t="array" ref="M5:M17">QuoteLive</f>
-        <v>0.9999824826406053</v>
+        <v>0.99999066675761494</v>
       </c>
       <c r="N5" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L5,ROUND($M5,7),EvaluationDate)</f>
@@ -30805,15 +30955,15 @@
       </c>
       <c r="C6" s="126">
         <f>JumpDate2</f>
-        <v>42034</v>
+        <v>42062</v>
       </c>
       <c r="D6" s="160">
         <f>JumpValue2</f>
-        <v>0.99999111787408357</v>
+        <v>0.99998233463254815</v>
       </c>
       <c r="E6" s="165">
         <f>JumpSize2</f>
-        <v>1.065859843529491E-3</v>
+        <v>2.1198628183545574E-3</v>
       </c>
       <c r="F6" s="166"/>
       <c r="G6" s="152">
@@ -30832,7 +30982,7 @@
         <v>EURJump2_SYNTHON_Quote#0000</v>
       </c>
       <c r="M6" s="135">
-        <v>0.99999111787408357</v>
+        <v>0.99998233463254815</v>
       </c>
       <c r="N6" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L6,ROUND($M6,7),EvaluationDate)</f>
@@ -30846,15 +30996,15 @@
       </c>
       <c r="C7" s="126">
         <f>JumpDate3</f>
-        <v>42062</v>
+        <v>42094</v>
       </c>
       <c r="D7" s="160">
         <f>JumpValue3</f>
-        <v>0.99997284750112314</v>
+        <v>1</v>
       </c>
       <c r="E7" s="165">
         <f>JumpSize3</f>
-        <v>3.258344101515548E-3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="166"/>
       <c r="G7" s="152">
@@ -30872,7 +31022,7 @@
         <v>EURJump3_SYNTHON_Quote#0000</v>
       </c>
       <c r="M7" s="135">
-        <v>0.99997284750112314</v>
+        <v>1</v>
       </c>
       <c r="N7" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L7,ROUND($M7,7),EvaluationDate)</f>
@@ -30886,7 +31036,7 @@
       </c>
       <c r="C8" s="126">
         <f>JumpDate4</f>
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="D8" s="160">
         <f>JumpValue4</f>
@@ -30926,7 +31076,7 @@
       </c>
       <c r="C9" s="126">
         <f>JumpDate5</f>
-        <v>42124</v>
+        <v>42153</v>
       </c>
       <c r="D9" s="160">
         <f>JumpValue5</f>
@@ -30966,7 +31116,7 @@
       </c>
       <c r="C10" s="126">
         <f>JumpDate6</f>
-        <v>42153</v>
+        <v>42185</v>
       </c>
       <c r="D10" s="160">
         <f>JumpValue6</f>
@@ -31006,7 +31156,7 @@
       </c>
       <c r="C11" s="126">
         <f>JumpDate7</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="D11" s="160">
         <f>JumpValue7</f>
@@ -31046,7 +31196,7 @@
       </c>
       <c r="C12" s="126">
         <f>JumpDate8</f>
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="D12" s="160">
         <f>JumpValue8</f>
@@ -31086,7 +31236,7 @@
       </c>
       <c r="C13" s="126">
         <f>JumpDate9</f>
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="D13" s="160">
         <f>JumpValue9</f>
@@ -31126,7 +31276,7 @@
       </c>
       <c r="C14" s="126">
         <f>JumpDate10</f>
-        <v>42277</v>
+        <v>42307</v>
       </c>
       <c r="D14" s="160">
         <f>JumpValue10</f>
@@ -31166,7 +31316,7 @@
       </c>
       <c r="C15" s="126">
         <f>JumpDate11</f>
-        <v>42307</v>
+        <v>42338</v>
       </c>
       <c r="D15" s="160">
         <f>JumpValue11</f>
@@ -31206,15 +31356,15 @@
       </c>
       <c r="C16" s="126">
         <f>JumpDate12</f>
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="D16" s="160">
         <f>JumpValue12</f>
-        <v>0.99999578969461889</v>
+        <v>0.99999637269198749</v>
       </c>
       <c r="E16" s="165">
         <f>JumpSize12</f>
-        <v>1.5157131280107681E-3</v>
+        <v>3.2645831320872454E-4</v>
       </c>
       <c r="F16" s="166"/>
       <c r="G16" s="152">
@@ -31232,29 +31382,29 @@
         <v>EURJump12_SYNTHON_Quote#0000</v>
       </c>
       <c r="M16" s="135">
-        <v>0.99999578969461889</v>
+        <v>0.99999637269198749</v>
       </c>
       <c r="N16" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L16,ROUND($M16,7),EvaluationDate)</f>
-        <v>-1.4000000000402579E-6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="128" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="129">
         <f>JumpDate13</f>
-        <v>42369</v>
+        <v>42734</v>
       </c>
       <c r="D17" s="161">
         <f>JumpValue13</f>
-        <v>0.99997166725762687</v>
+        <v>1</v>
       </c>
       <c r="E17" s="167">
         <f>JumpSize13</f>
-        <v>2.5499829377568493E-3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="168"/>
       <c r="G17" s="153">
@@ -31272,24 +31422,651 @@
         <v>EURJump13_SYNTHON_Quote#0000</v>
       </c>
       <c r="M17" s="136">
-        <v>0.99997166725762687</v>
+        <v>1</v>
       </c>
       <c r="N17" s="136">
         <f>_xll.qlSimpleQuoteSetValue($L17,ROUND($M17,7),EvaluationDate)</f>
-        <v>2.7300000000063385E-5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="C18" s="43"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
     </row>
-    <row r="19" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="C19" s="43"/>
+    <row r="19" spans="1:17" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="177"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="173" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="174" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="174" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="174" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="174" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="189"/>
+      <c r="K19" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="159" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="197" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="197" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="C20" s="43"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="177">
+        <f>IF(ISBLANK(C20),"",MONTH(C20))</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="178">
+        <v>1</v>
+      </c>
+      <c r="C20" s="180">
+        <v>42033</v>
+      </c>
+      <c r="D20" s="181">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C20,_xll.qlCalendarAdvance(Calendar,C20,"1D","f",,Trigger))</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E20" s="175">
+        <v>1</v>
+      </c>
+      <c r="F20" s="182">
+        <f>($I$20*(D20+D21))/(D20+$E$20*D21)</f>
+        <v>8.3999573460309999E-4</v>
+      </c>
+      <c r="G20" s="183">
+        <f>EXP(-F20*D20)</f>
+        <v>0.99999766668123713</v>
+      </c>
+      <c r="I20" s="193">
+        <f t="array" ref="I20">_xll.ohFilter($E$5:$E$17,MONTH($C$5:$C$17)=A20)</f>
+        <v>8.3999573460309999E-4</v>
+      </c>
+      <c r="K20" s="188" t="str">
+        <f t="shared" ref="K20:K31" si="1">IF(ISBLANK(C20),"",Currency&amp;DAY(C20)&amp;INDEX($Q$20:$Q$31,MATCH(MONTH(C20),$P$20:$P$31))&amp;$L$2)</f>
+        <v>EUR29JAN_SYNTHON_Quote</v>
+      </c>
+      <c r="L20" s="188" t="str">
+        <f>IF(ISBLANK(C20),NA(),_xll.qlSimpleQuote(K20,,,TRUE,Trigger))</f>
+        <v>EUR29JAN_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="M20" s="191">
+        <f>G20</f>
+        <v>0.99999766668123713</v>
+      </c>
+      <c r="N20" s="191">
+        <f>_xll.qlSimpleQuoteSetValue($L20,ROUND($M20,7),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="199" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="177">
+        <f t="shared" ref="A21:A31" si="2">IF(ISBLANK(C21),"",MONTH(C21))</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="179">
+        <v>2</v>
+      </c>
+      <c r="C21" s="184">
+        <f>_xll.qlCalendarEndOfMonth(Calendar,C20)</f>
+        <v>42034</v>
+      </c>
+      <c r="D21" s="185">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C21,_xll.qlCalendarAdvance(Calendar,C21,"1D","f",,Trigger))</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E21" s="176"/>
+      <c r="F21" s="186">
+        <f>E20*F20</f>
+        <v>8.3999573460309999E-4</v>
+      </c>
+      <c r="G21" s="187">
+        <f>EXP(-F21*D21)</f>
+        <v>0.99999300006004466</v>
+      </c>
+      <c r="I21" s="196"/>
+      <c r="K21" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v>EUR30JAN_SYNTHON_Quote</v>
+      </c>
+      <c r="L21" s="188" t="str">
+        <f>IF(ISBLANK(C21),NA(),_xll.qlSimpleQuote(K21,,,TRUE,Trigger))</f>
+        <v>EUR30JAN_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="M21" s="191">
+        <f t="shared" ref="M21:M31" si="3">G21</f>
+        <v>0.99999300006004466</v>
+      </c>
+      <c r="N21" s="192">
+        <f>_xll.qlSimpleQuoteSetValue($L21,ROUND($M21,7),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="198">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="199" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B22" s="178">
+        <v>1</v>
+      </c>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C22,_xll.qlCalendarAdvance(Calendar,C22,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" s="175"/>
+      <c r="F22" s="182" t="e">
+        <f>($I$22*(D22+D23))/(D22+$E$20*D23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G22" s="183" t="e">
+        <f t="shared" ref="G22:G31" si="4">EXP(-F22*D22)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I22" s="193">
+        <f t="array" ref="I22">_xll.ohFilter($E$5:$E$17,MONTH($C$5:$C$17)=A22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L22" s="188" t="e">
+        <f>IF(ISBLANK(C22),NA(),_xll.qlSimpleQuote(K22,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N22" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L22,ROUND($M22,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22" s="198">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="199" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B23" s="179">
+        <v>2</v>
+      </c>
+      <c r="C23" s="184"/>
+      <c r="D23" s="185" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C23,_xll.qlCalendarAdvance(Calendar,C23,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" s="176"/>
+      <c r="F23" s="186" t="e">
+        <f t="shared" ref="F23" si="5">E22*F22</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G23" s="187" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I23" s="196"/>
+      <c r="K23" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L23" s="188" t="e">
+        <f>IF(ISBLANK(C23),NA(),_xll.qlSimpleQuote(K23,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N23" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L23,ROUND($M23,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P23" s="198">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="199" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="36">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B24" s="178">
+        <v>1</v>
+      </c>
+      <c r="C24" s="180">
+        <v>42081</v>
+      </c>
+      <c r="D24" s="181">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C24,_xll.qlCalendarAdvance(Calendar,C24,"1D","f",,Trigger))</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E24" s="175">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="182">
+        <f>($I$24*(D24+D25))/(D24+$E$20*D25)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="183">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="194">
+        <f t="array" ref="I24">_xll.ohFilter($E$5:$E$17,MONTH($C$5:$C$17)=A24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v>EUR18MAR_SYNTHON_Quote</v>
+      </c>
+      <c r="L24" s="188" t="str">
+        <f>IF(ISBLANK(C24),NA(),_xll.qlSimpleQuote(K24,,,TRUE,Trigger))</f>
+        <v>EUR18MAR_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="M24" s="191">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="192">
+        <f>_xll.qlSimpleQuoteSetValue($L24,ROUND($M24,7),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="198">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="199" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="36">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="179">
+        <v>2</v>
+      </c>
+      <c r="C25" s="184">
+        <f>_xll.qlCalendarEndOfMonth(Calendar,C24)</f>
+        <v>42094</v>
+      </c>
+      <c r="D25" s="185">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C25,_xll.qlCalendarAdvance(Calendar,C25,"1D","f",,Trigger))</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E25" s="176"/>
+      <c r="F25" s="186">
+        <f>E24*F24</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="187">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="195"/>
+      <c r="K25" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v>EUR31MAR_SYNTHON_Quote</v>
+      </c>
+      <c r="L25" s="188" t="str">
+        <f>IF(ISBLANK(C25),NA(),_xll.qlSimpleQuote(K25,,,TRUE,Trigger))</f>
+        <v>EUR31MAR_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="M25" s="191">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="192">
+        <f>_xll.qlSimpleQuoteSetValue($L25,ROUND($M25,7),EvaluationDate)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="198">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="199" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B26" s="178">
+        <v>1</v>
+      </c>
+      <c r="C26" s="180"/>
+      <c r="D26" s="181" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C26,_xll.qlCalendarAdvance(Calendar,C26,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" s="175">
+        <v>1</v>
+      </c>
+      <c r="F26" s="182" t="e">
+        <f>($I$26*(D26+D27))/(D26+$E$26*D27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G26" s="183" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I26" s="194">
+        <f t="array" ref="I26">_xll.ohFilter($E$5:$E$17,MONTH($C$5:$C$17)=A26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L26" s="188" t="e">
+        <f>IF(ISBLANK(C26),NA(),_xll.qlSimpleQuote(K26,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N26" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L26,ROUND($M26,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P26" s="198">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="199" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B27" s="179">
+        <v>2</v>
+      </c>
+      <c r="C27" s="184"/>
+      <c r="D27" s="185" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C27,_xll.qlCalendarAdvance(Calendar,C27,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="176"/>
+      <c r="F27" s="186" t="e">
+        <f>E26*F26</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G27" s="187" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I27" s="195"/>
+      <c r="K27" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L27" s="188" t="e">
+        <f>IF(ISBLANK(C27),NA(),_xll.qlSimpleQuote(K27,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N27" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L27,ROUND($M27,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27" s="198">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="199" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B28" s="178">
+        <v>1</v>
+      </c>
+      <c r="C28" s="180"/>
+      <c r="D28" s="181" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C28,_xll.qlCalendarAdvance(Calendar,C28,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" s="175">
+        <v>1</v>
+      </c>
+      <c r="F28" s="182" t="e">
+        <f>($I$28*(D28+D29))/(D28+$E$28*D29)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G28" s="183" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I28" s="194">
+        <f t="array" ref="I28">_xll.ohFilter($E$5:$E$17,MONTH($C$5:$C$17)=A28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L28" s="188" t="e">
+        <f>IF(ISBLANK(C28),NA(),_xll.qlSimpleQuote(K28,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N28" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L28,ROUND($M28,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P28" s="198">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="199" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B29" s="179">
+        <v>2</v>
+      </c>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C29,_xll.qlCalendarAdvance(Calendar,C29,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" s="176"/>
+      <c r="F29" s="186" t="e">
+        <f>E28*F28</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G29" s="187" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I29" s="195"/>
+      <c r="K29" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L29" s="188" t="e">
+        <f>IF(ISBLANK(C29),NA(),_xll.qlSimpleQuote(K29,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N29" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L29,ROUND($M29,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29" s="198">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="199" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B30" s="178">
+        <v>1</v>
+      </c>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C30,_xll.qlCalendarAdvance(Calendar,C30,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" s="175">
+        <v>1</v>
+      </c>
+      <c r="F30" s="182" t="e">
+        <f>($I$30*(D30+D31))/(D30+$E$30*D31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G30" s="183" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I30" s="194">
+        <f t="array" ref="I30">_xll.ohFilter($E$5:$E$17,MONTH($C$5:$C$17)=A30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L30" s="188" t="e">
+        <f>IF(ISBLANK(C30),NA(),_xll.qlSimpleQuote(K30,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N30" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L30,ROUND($M30,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P30" s="198">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="199" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B31" s="179">
+        <v>2</v>
+      </c>
+      <c r="C31" s="184"/>
+      <c r="D31" s="185" t="e">
+        <f>_xll.qlDayCounterYearFraction(DayCounter,C31,_xll.qlCalendarAdvance(Calendar,C31,"1D","f",,Trigger))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E31" s="176"/>
+      <c r="F31" s="186" t="e">
+        <f>E30*F30</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G31" s="187" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I31" s="195"/>
+      <c r="K31" s="188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L31" s="188" t="e">
+        <f>IF(ISBLANK(C31),NA(),_xll.qlSimpleQuote(K31,,,TRUE,Trigger))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="191" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N31" s="192" t="e">
+        <f>_xll.qlSimpleQuoteSetValue($L31,ROUND($M31,7),EvaluationDate)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P31" s="200">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="201" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
